--- a/Test Execution/Sangeetha/Testcase- Insurance .xlsx
+++ b/Test Execution/Sangeetha/Testcase- Insurance .xlsx
@@ -1,19 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="7" rupBuild="4505"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21727"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Projects\Mediware\Mediware-Repository\Test Execution\Sangeetha\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{388D3EC9-332C-4989-A320-2F9C9423DAFD}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11160"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Insurance" sheetId="1" r:id="rId1"/>
     <sheet name="Issues" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet1" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="124519"/>
-  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <calcPr calcId="181029"/>
+  <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -26,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1968" uniqueCount="606">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2015" uniqueCount="607">
   <si>
     <t>Test Case ID</t>
   </si>
@@ -2259,12 +2265,15 @@
   <si>
     <t>Verify that user can change the status of Patient to Int.Query Replied status</t>
   </si>
+  <si>
+    <t>Preethi Pathrose</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="8">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2455,12 +2464,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -2469,6 +2472,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2531,7 +2540,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -2583,7 +2592,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -2777,22 +2786,22 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:S787"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="66" zoomScaleNormal="66" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="T5" sqref="T5"/>
+    <sheetView tabSelected="1" zoomScale="66" zoomScaleNormal="66" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A344" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K350" sqref="K350"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="20.85546875" style="11" customWidth="1"/>
     <col min="2" max="2" width="14.140625" style="11" customWidth="1"/>
@@ -2803,14 +2812,14 @@
     <col min="7" max="8" width="27.28515625" style="11" customWidth="1"/>
     <col min="9" max="9" width="30.28515625" style="11" customWidth="1"/>
     <col min="10" max="10" width="21.7109375" style="5" customWidth="1"/>
-    <col min="11" max="11" width="9.140625" style="5"/>
+    <col min="11" max="11" width="18.28515625" style="5" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="13.85546875" style="5" customWidth="1"/>
     <col min="13" max="14" width="9.140625" style="5"/>
     <col min="15" max="15" width="13.140625" style="5" customWidth="1"/>
     <col min="16" max="16384" width="9.140625" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" s="10" customFormat="1" ht="25.5">
+    <row r="1" spans="1:19" s="10" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
@@ -2850,16 +2859,16 @@
       <c r="M1" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="O1" s="22" t="s">
+      <c r="O1" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="P1" s="22"/>
-      <c r="R1" s="23" t="s">
+      <c r="P1" s="25"/>
+      <c r="R1" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="S1" s="23"/>
-    </row>
-    <row r="2" spans="1:19" s="13" customFormat="1" ht="71.25" customHeight="1">
+      <c r="S1" s="26"/>
+    </row>
+    <row r="2" spans="1:19" s="13" customFormat="1" ht="71.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="s">
         <v>28</v>
       </c>
@@ -2880,7 +2889,9 @@
       <c r="H2" s="11"/>
       <c r="I2" s="11"/>
       <c r="J2" s="12"/>
-      <c r="K2" s="5"/>
+      <c r="K2" s="5" t="s">
+        <v>606</v>
+      </c>
       <c r="L2" s="4"/>
       <c r="M2" s="4"/>
       <c r="O2" s="3" t="s">
@@ -2898,7 +2909,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="3" spans="1:19" s="13" customFormat="1" ht="30">
+    <row r="3" spans="1:19" s="13" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="11"/>
       <c r="B3" s="11"/>
       <c r="C3" s="5"/>
@@ -2937,7 +2948,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:19" s="13" customFormat="1" ht="30">
+    <row r="4" spans="1:19" s="13" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="11"/>
       <c r="B4" s="11"/>
       <c r="C4" s="5"/>
@@ -2971,7 +2982,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:19" ht="150">
+    <row r="5" spans="1:19" ht="150" x14ac:dyDescent="0.25">
       <c r="E5" s="11">
         <v>3</v>
       </c>
@@ -2993,7 +3004,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:19" ht="45">
+    <row r="6" spans="1:19" ht="45" x14ac:dyDescent="0.25">
       <c r="E6" s="11">
         <v>4</v>
       </c>
@@ -3012,12 +3023,12 @@
       <c r="R6" s="7"/>
       <c r="S6" s="6"/>
     </row>
-    <row r="7" spans="1:19">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
       <c r="L7" s="4"/>
       <c r="R7" s="7"/>
       <c r="S7" s="6"/>
     </row>
-    <row r="8" spans="1:19" ht="45">
+    <row r="8" spans="1:19" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="11" t="s">
         <v>37</v>
       </c>
@@ -3033,9 +3044,12 @@
       <c r="F8" s="11" t="s">
         <v>29</v>
       </c>
+      <c r="K8" s="5" t="s">
+        <v>606</v>
+      </c>
       <c r="L8" s="4"/>
     </row>
-    <row r="9" spans="1:19" ht="30">
+    <row r="9" spans="1:19" ht="30" x14ac:dyDescent="0.25">
       <c r="E9" s="11">
         <v>1</v>
       </c>
@@ -3053,7 +3067,7 @@
       </c>
       <c r="L9" s="4"/>
     </row>
-    <row r="10" spans="1:19" ht="30">
+    <row r="10" spans="1:19" ht="30" x14ac:dyDescent="0.25">
       <c r="E10" s="11">
         <v>2</v>
       </c>
@@ -3068,7 +3082,7 @@
       </c>
       <c r="L10" s="4"/>
     </row>
-    <row r="11" spans="1:19" ht="60">
+    <row r="11" spans="1:19" ht="60" x14ac:dyDescent="0.25">
       <c r="E11" s="11">
         <v>3</v>
       </c>
@@ -3083,7 +3097,7 @@
       </c>
       <c r="L11" s="4"/>
     </row>
-    <row r="12" spans="1:19" ht="30">
+    <row r="12" spans="1:19" ht="30" x14ac:dyDescent="0.25">
       <c r="E12" s="11">
         <v>4</v>
       </c>
@@ -3101,7 +3115,7 @@
       </c>
       <c r="L12" s="4"/>
     </row>
-    <row r="13" spans="1:19" ht="45">
+    <row r="13" spans="1:19" ht="45" x14ac:dyDescent="0.25">
       <c r="E13" s="11">
         <v>5</v>
       </c>
@@ -3116,7 +3130,7 @@
       </c>
       <c r="L13" s="4"/>
     </row>
-    <row r="14" spans="1:19" ht="45">
+    <row r="14" spans="1:19" ht="45" x14ac:dyDescent="0.25">
       <c r="E14" s="11">
         <v>6</v>
       </c>
@@ -3133,10 +3147,10 @@
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="1:19">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
       <c r="L15" s="4"/>
     </row>
-    <row r="16" spans="1:19" ht="45">
+    <row r="16" spans="1:19" ht="45" x14ac:dyDescent="0.25">
       <c r="A16" s="11" t="s">
         <v>38</v>
       </c>
@@ -3153,9 +3167,12 @@
         <v>29</v>
       </c>
       <c r="I16" s="14"/>
+      <c r="K16" s="5" t="s">
+        <v>606</v>
+      </c>
       <c r="L16" s="4"/>
     </row>
-    <row r="17" spans="1:12" ht="30">
+    <row r="17" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="E17" s="11">
         <v>1</v>
       </c>
@@ -3173,7 +3190,7 @@
       </c>
       <c r="L17" s="4"/>
     </row>
-    <row r="18" spans="1:12" ht="30">
+    <row r="18" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="E18" s="11">
         <v>2</v>
       </c>
@@ -3188,7 +3205,7 @@
       </c>
       <c r="L18" s="4"/>
     </row>
-    <row r="19" spans="1:12" ht="60">
+    <row r="19" spans="1:12" ht="60" x14ac:dyDescent="0.25">
       <c r="E19" s="11">
         <v>3</v>
       </c>
@@ -3203,7 +3220,7 @@
       </c>
       <c r="L19" s="4"/>
     </row>
-    <row r="20" spans="1:12" ht="30">
+    <row r="20" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="E20" s="11">
         <v>4</v>
       </c>
@@ -3221,7 +3238,7 @@
       </c>
       <c r="L20" s="4"/>
     </row>
-    <row r="21" spans="1:12" ht="45">
+    <row r="21" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="E21" s="11">
         <v>5</v>
       </c>
@@ -3236,7 +3253,7 @@
       </c>
       <c r="L21" s="4"/>
     </row>
-    <row r="22" spans="1:12" ht="45">
+    <row r="22" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="E22" s="11">
         <v>6</v>
       </c>
@@ -3251,7 +3268,7 @@
       </c>
       <c r="L22" s="4"/>
     </row>
-    <row r="23" spans="1:12" ht="45">
+    <row r="23" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="E23" s="11">
         <v>7</v>
       </c>
@@ -3268,10 +3285,10 @@
         <v>12</v>
       </c>
     </row>
-    <row r="24" spans="1:12">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="L24" s="4"/>
     </row>
-    <row r="25" spans="1:12" ht="45">
+    <row r="25" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A25" s="11" t="s">
         <v>39</v>
       </c>
@@ -3284,9 +3301,12 @@
       <c r="F25" s="11" t="s">
         <v>41</v>
       </c>
+      <c r="K25" s="5" t="s">
+        <v>606</v>
+      </c>
       <c r="L25" s="4"/>
     </row>
-    <row r="26" spans="1:12" ht="30">
+    <row r="26" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="E26" s="11">
         <v>1</v>
       </c>
@@ -3301,7 +3321,7 @@
       </c>
       <c r="L26" s="4"/>
     </row>
-    <row r="27" spans="1:12" ht="30">
+    <row r="27" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="E27" s="11">
         <v>2</v>
       </c>
@@ -3316,7 +3336,7 @@
       </c>
       <c r="L27" s="4"/>
     </row>
-    <row r="28" spans="1:12" ht="45">
+    <row r="28" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="E28" s="11">
         <v>3</v>
       </c>
@@ -3334,7 +3354,7 @@
       </c>
       <c r="L28" s="4"/>
     </row>
-    <row r="29" spans="1:12" ht="75">
+    <row r="29" spans="1:12" ht="75" x14ac:dyDescent="0.25">
       <c r="E29" s="11">
         <v>4</v>
       </c>
@@ -3349,7 +3369,7 @@
       </c>
       <c r="L29" s="4"/>
     </row>
-    <row r="30" spans="1:12" ht="30">
+    <row r="30" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="E30" s="11">
         <v>5</v>
       </c>
@@ -3366,10 +3386,10 @@
         <v>12</v>
       </c>
     </row>
-    <row r="31" spans="1:12">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
       <c r="L31" s="4"/>
     </row>
-    <row r="32" spans="1:12" ht="45">
+    <row r="32" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A32" s="11" t="s">
         <v>44</v>
       </c>
@@ -3385,9 +3405,12 @@
       <c r="H32" s="11" t="s">
         <v>544</v>
       </c>
+      <c r="K32" s="5" t="s">
+        <v>606</v>
+      </c>
       <c r="L32" s="4"/>
     </row>
-    <row r="33" spans="1:12" ht="30">
+    <row r="33" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="E33" s="11">
         <v>1</v>
       </c>
@@ -3402,7 +3425,7 @@
       </c>
       <c r="L33" s="4"/>
     </row>
-    <row r="34" spans="1:12" ht="30">
+    <row r="34" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="E34" s="11">
         <v>2</v>
       </c>
@@ -3417,7 +3440,7 @@
       </c>
       <c r="L34" s="4"/>
     </row>
-    <row r="35" spans="1:12" ht="45">
+    <row r="35" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="E35" s="11">
         <v>3</v>
       </c>
@@ -3432,7 +3455,7 @@
       </c>
       <c r="L35" s="4"/>
     </row>
-    <row r="36" spans="1:12" ht="45">
+    <row r="36" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="E36" s="11">
         <v>4</v>
       </c>
@@ -3447,7 +3470,7 @@
       </c>
       <c r="L36" s="4"/>
     </row>
-    <row r="37" spans="1:12" ht="45">
+    <row r="37" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="E37" s="11">
         <v>5</v>
       </c>
@@ -3465,7 +3488,7 @@
       </c>
       <c r="L37" s="4"/>
     </row>
-    <row r="38" spans="1:12" ht="30">
+    <row r="38" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="E38" s="11">
         <v>6</v>
       </c>
@@ -3482,10 +3505,10 @@
         <v>12</v>
       </c>
     </row>
-    <row r="39" spans="1:12">
+    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
       <c r="L39" s="4"/>
     </row>
-    <row r="40" spans="1:12" ht="45">
+    <row r="40" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A40" s="21" t="s">
         <v>47</v>
       </c>
@@ -3498,9 +3521,12 @@
       <c r="F40" s="11" t="s">
         <v>41</v>
       </c>
+      <c r="K40" s="5" t="s">
+        <v>606</v>
+      </c>
       <c r="L40" s="4"/>
     </row>
-    <row r="41" spans="1:12" ht="30">
+    <row r="41" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="E41" s="11">
         <v>1</v>
       </c>
@@ -3515,7 +3541,7 @@
       </c>
       <c r="L41" s="4"/>
     </row>
-    <row r="42" spans="1:12" ht="30">
+    <row r="42" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="E42" s="11">
         <v>2</v>
       </c>
@@ -3530,7 +3556,7 @@
       </c>
       <c r="L42" s="4"/>
     </row>
-    <row r="43" spans="1:12" ht="60">
+    <row r="43" spans="1:12" ht="60" x14ac:dyDescent="0.25">
       <c r="E43" s="11">
         <v>3</v>
       </c>
@@ -3545,7 +3571,7 @@
       </c>
       <c r="L43" s="4"/>
     </row>
-    <row r="44" spans="1:12" ht="45">
+    <row r="44" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="E44" s="11">
         <v>4</v>
       </c>
@@ -3560,7 +3586,7 @@
       </c>
       <c r="L44" s="4"/>
     </row>
-    <row r="45" spans="1:12" ht="45">
+    <row r="45" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="E45" s="11">
         <v>5</v>
       </c>
@@ -3575,7 +3601,7 @@
       </c>
       <c r="L45" s="4"/>
     </row>
-    <row r="46" spans="1:12" ht="45">
+    <row r="46" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="E46" s="11">
         <v>6</v>
       </c>
@@ -3592,10 +3618,10 @@
         <v>12</v>
       </c>
     </row>
-    <row r="47" spans="1:12">
+    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
       <c r="L47" s="4"/>
     </row>
-    <row r="48" spans="1:12" ht="45">
+    <row r="48" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A48" s="20" t="s">
         <v>48</v>
       </c>
@@ -3608,9 +3634,12 @@
       <c r="F48" s="11" t="s">
         <v>41</v>
       </c>
+      <c r="K48" s="5" t="s">
+        <v>606</v>
+      </c>
       <c r="L48" s="4"/>
     </row>
-    <row r="49" spans="1:12" ht="30">
+    <row r="49" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="E49" s="11">
         <v>1</v>
       </c>
@@ -3621,7 +3650,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="50" spans="1:12" ht="30">
+    <row r="50" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="E50" s="11">
         <v>2</v>
       </c>
@@ -3632,7 +3661,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="51" spans="1:12" ht="60">
+    <row r="51" spans="1:12" ht="60" x14ac:dyDescent="0.25">
       <c r="E51" s="11">
         <v>3</v>
       </c>
@@ -3643,7 +3672,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="52" spans="1:12" ht="45">
+    <row r="52" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="E52" s="11">
         <v>4</v>
       </c>
@@ -3654,7 +3683,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="53" spans="1:12" ht="45">
+    <row r="53" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="E53" s="11">
         <v>5</v>
       </c>
@@ -3665,7 +3694,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="54" spans="1:12" ht="45">
+    <row r="54" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="E54" s="11">
         <v>6</v>
       </c>
@@ -3676,7 +3705,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="57" spans="1:12" ht="45">
+    <row r="57" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A57" s="11" t="s">
         <v>52</v>
       </c>
@@ -3689,8 +3718,11 @@
       <c r="F57" s="11" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="58" spans="1:12" ht="30">
+      <c r="K57" s="5" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="58" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="E58" s="11">
         <v>1</v>
       </c>
@@ -3704,7 +3736,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="59" spans="1:12" ht="30">
+    <row r="59" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="E59" s="11">
         <v>2</v>
       </c>
@@ -3718,7 +3750,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="60" spans="1:12" ht="60">
+    <row r="60" spans="1:12" ht="60" x14ac:dyDescent="0.25">
       <c r="E60" s="11">
         <v>3</v>
       </c>
@@ -3732,7 +3764,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="61" spans="1:12" ht="45">
+    <row r="61" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="E61" s="11">
         <v>4</v>
       </c>
@@ -3746,7 +3778,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="62" spans="1:12" ht="45">
+    <row r="62" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="E62" s="11">
         <v>5</v>
       </c>
@@ -3763,7 +3795,7 @@
         <v>555</v>
       </c>
     </row>
-    <row r="63" spans="1:12" ht="30">
+    <row r="63" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="E63" s="11">
         <v>6</v>
       </c>
@@ -3777,7 +3809,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="64" spans="1:12" ht="45">
+    <row r="64" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="E64" s="11">
         <v>7</v>
       </c>
@@ -3794,10 +3826,10 @@
         <v>12</v>
       </c>
     </row>
-    <row r="65" spans="1:13">
+    <row r="65" spans="1:13" x14ac:dyDescent="0.25">
       <c r="L65" s="4"/>
     </row>
-    <row r="66" spans="1:13" ht="60">
+    <row r="66" spans="1:13" ht="60" x14ac:dyDescent="0.25">
       <c r="A66" s="11" t="s">
         <v>57</v>
       </c>
@@ -3810,9 +3842,12 @@
       <c r="F66" s="11" t="s">
         <v>142</v>
       </c>
+      <c r="K66" s="5" t="s">
+        <v>606</v>
+      </c>
       <c r="L66" s="4"/>
     </row>
-    <row r="67" spans="1:13" ht="30">
+    <row r="67" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="E67" s="11">
         <v>1</v>
       </c>
@@ -3827,7 +3862,7 @@
       </c>
       <c r="L67" s="4"/>
     </row>
-    <row r="68" spans="1:13" ht="30">
+    <row r="68" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="E68" s="11">
         <v>2</v>
       </c>
@@ -3842,7 +3877,7 @@
       </c>
       <c r="L68" s="4"/>
     </row>
-    <row r="69" spans="1:13" ht="60">
+    <row r="69" spans="1:13" ht="60" x14ac:dyDescent="0.25">
       <c r="E69" s="11">
         <v>3</v>
       </c>
@@ -3857,7 +3892,7 @@
       </c>
       <c r="L69" s="4"/>
     </row>
-    <row r="70" spans="1:13" ht="30">
+    <row r="70" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="E70" s="11">
         <v>4</v>
       </c>
@@ -3872,7 +3907,7 @@
       </c>
       <c r="L70" s="4"/>
     </row>
-    <row r="71" spans="1:13" ht="45">
+    <row r="71" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="E71" s="11">
         <v>5</v>
       </c>
@@ -3890,7 +3925,7 @@
       </c>
       <c r="L71" s="4"/>
     </row>
-    <row r="72" spans="1:13" ht="45">
+    <row r="72" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="E72" s="11">
         <v>6</v>
       </c>
@@ -3907,10 +3942,10 @@
         <v>12</v>
       </c>
     </row>
-    <row r="73" spans="1:13">
+    <row r="73" spans="1:13" x14ac:dyDescent="0.25">
       <c r="L73" s="4"/>
     </row>
-    <row r="74" spans="1:13" ht="60">
+    <row r="74" spans="1:13" ht="60" x14ac:dyDescent="0.25">
       <c r="A74" s="11" t="s">
         <v>96</v>
       </c>
@@ -3926,9 +3961,12 @@
       <c r="H74" s="11" t="s">
         <v>544</v>
       </c>
+      <c r="K74" s="5" t="s">
+        <v>606</v>
+      </c>
       <c r="L74" s="4"/>
     </row>
-    <row r="75" spans="1:13" ht="30">
+    <row r="75" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="E75" s="11">
         <v>1</v>
       </c>
@@ -3943,7 +3981,7 @@
       </c>
       <c r="L75" s="4"/>
     </row>
-    <row r="76" spans="1:13" ht="30">
+    <row r="76" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="E76" s="11">
         <v>2</v>
       </c>
@@ -3958,7 +3996,7 @@
       </c>
       <c r="L76" s="4"/>
     </row>
-    <row r="77" spans="1:13" ht="60">
+    <row r="77" spans="1:13" ht="60" x14ac:dyDescent="0.25">
       <c r="E77" s="11">
         <v>3</v>
       </c>
@@ -3973,7 +4011,7 @@
       </c>
       <c r="L77" s="4"/>
     </row>
-    <row r="78" spans="1:13" ht="30">
+    <row r="78" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="E78" s="11">
         <v>4</v>
       </c>
@@ -3988,7 +4026,7 @@
       </c>
       <c r="L78" s="4"/>
     </row>
-    <row r="79" spans="1:13" ht="45">
+    <row r="79" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="E79" s="11">
         <v>5</v>
       </c>
@@ -4009,7 +4047,7 @@
         <v>561</v>
       </c>
     </row>
-    <row r="80" spans="1:13" ht="30">
+    <row r="80" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="E80" s="11">
         <v>6</v>
       </c>
@@ -4032,10 +4070,10 @@
         <v>559</v>
       </c>
     </row>
-    <row r="81" spans="1:12">
+    <row r="81" spans="1:12" x14ac:dyDescent="0.25">
       <c r="L81" s="4"/>
     </row>
-    <row r="82" spans="1:12" ht="60">
+    <row r="82" spans="1:12" ht="60" x14ac:dyDescent="0.25">
       <c r="A82" s="11" t="s">
         <v>99</v>
       </c>
@@ -4051,9 +4089,12 @@
       <c r="H82" s="11" t="s">
         <v>544</v>
       </c>
+      <c r="K82" s="5" t="s">
+        <v>606</v>
+      </c>
       <c r="L82" s="4"/>
     </row>
-    <row r="83" spans="1:12" ht="30">
+    <row r="83" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="E83" s="11">
         <v>1</v>
       </c>
@@ -4068,7 +4109,7 @@
       </c>
       <c r="L83" s="4"/>
     </row>
-    <row r="84" spans="1:12" ht="30">
+    <row r="84" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="E84" s="11">
         <v>2</v>
       </c>
@@ -4083,7 +4124,7 @@
       </c>
       <c r="L84" s="4"/>
     </row>
-    <row r="85" spans="1:12" ht="60">
+    <row r="85" spans="1:12" ht="60" x14ac:dyDescent="0.25">
       <c r="E85" s="11">
         <v>3</v>
       </c>
@@ -4098,7 +4139,7 @@
       </c>
       <c r="L85" s="4"/>
     </row>
-    <row r="86" spans="1:12" ht="30">
+    <row r="86" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="E86" s="11">
         <v>4</v>
       </c>
@@ -4113,7 +4154,7 @@
       </c>
       <c r="L86" s="4"/>
     </row>
-    <row r="87" spans="1:12" ht="45">
+    <row r="87" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="E87" s="11">
         <v>5</v>
       </c>
@@ -4130,10 +4171,10 @@
         <v>12</v>
       </c>
     </row>
-    <row r="88" spans="1:12">
+    <row r="88" spans="1:12" x14ac:dyDescent="0.25">
       <c r="L88" s="4"/>
     </row>
-    <row r="89" spans="1:12" ht="60">
+    <row r="89" spans="1:12" ht="60" x14ac:dyDescent="0.25">
       <c r="A89" s="20" t="s">
         <v>100</v>
       </c>
@@ -4149,9 +4190,12 @@
       <c r="F89" s="11" t="s">
         <v>577</v>
       </c>
+      <c r="K89" s="5" t="s">
+        <v>606</v>
+      </c>
       <c r="L89" s="4"/>
     </row>
-    <row r="90" spans="1:12" ht="53.25" customHeight="1">
+    <row r="90" spans="1:12" ht="53.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E90" s="11">
         <v>1</v>
       </c>
@@ -4163,7 +4207,7 @@
       </c>
       <c r="L90" s="4"/>
     </row>
-    <row r="91" spans="1:12" ht="30">
+    <row r="91" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="E91" s="11">
         <v>2</v>
       </c>
@@ -4175,7 +4219,7 @@
       </c>
       <c r="L91" s="4"/>
     </row>
-    <row r="92" spans="1:12" ht="60">
+    <row r="92" spans="1:12" ht="60" x14ac:dyDescent="0.25">
       <c r="E92" s="11">
         <v>3</v>
       </c>
@@ -4187,7 +4231,7 @@
       </c>
       <c r="L92" s="4"/>
     </row>
-    <row r="93" spans="1:12" ht="30">
+    <row r="93" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="E93" s="11">
         <v>4</v>
       </c>
@@ -4199,7 +4243,7 @@
       </c>
       <c r="L93" s="4"/>
     </row>
-    <row r="94" spans="1:12" ht="45">
+    <row r="94" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="E94" s="11">
         <v>5</v>
       </c>
@@ -4211,7 +4255,7 @@
       </c>
       <c r="L94" s="4"/>
     </row>
-    <row r="95" spans="1:12" ht="30">
+    <row r="95" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="E95" s="11">
         <v>6</v>
       </c>
@@ -4225,10 +4269,10 @@
         <v>16</v>
       </c>
     </row>
-    <row r="96" spans="1:12">
+    <row r="96" spans="1:12" x14ac:dyDescent="0.25">
       <c r="L96" s="4"/>
     </row>
-    <row r="97" spans="1:12" ht="45">
+    <row r="97" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A97" s="20" t="s">
         <v>101</v>
       </c>
@@ -4244,9 +4288,12 @@
       <c r="F97" s="11" t="s">
         <v>580</v>
       </c>
+      <c r="K97" s="5" t="s">
+        <v>606</v>
+      </c>
       <c r="L97" s="4"/>
     </row>
-    <row r="98" spans="1:12" ht="30">
+    <row r="98" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="E98" s="11">
         <v>1</v>
       </c>
@@ -4258,7 +4305,7 @@
       </c>
       <c r="L98" s="4"/>
     </row>
-    <row r="99" spans="1:12" ht="30">
+    <row r="99" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="E99" s="11">
         <v>2</v>
       </c>
@@ -4270,7 +4317,7 @@
       </c>
       <c r="L99" s="4"/>
     </row>
-    <row r="100" spans="1:12" ht="60">
+    <row r="100" spans="1:12" ht="60" x14ac:dyDescent="0.25">
       <c r="E100" s="11">
         <v>3</v>
       </c>
@@ -4282,7 +4329,7 @@
       </c>
       <c r="L100" s="4"/>
     </row>
-    <row r="101" spans="1:12" ht="30">
+    <row r="101" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="E101" s="11">
         <v>4</v>
       </c>
@@ -4294,7 +4341,7 @@
       </c>
       <c r="L101" s="4"/>
     </row>
-    <row r="102" spans="1:12" ht="45">
+    <row r="102" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="E102" s="11">
         <v>5</v>
       </c>
@@ -4308,13 +4355,13 @@
         <v>16</v>
       </c>
     </row>
-    <row r="103" spans="1:12">
+    <row r="103" spans="1:12" x14ac:dyDescent="0.25">
       <c r="L103" s="4"/>
     </row>
-    <row r="104" spans="1:12">
+    <row r="104" spans="1:12" x14ac:dyDescent="0.25">
       <c r="L104" s="4"/>
     </row>
-    <row r="105" spans="1:12" ht="45">
+    <row r="105" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A105" s="11" t="s">
         <v>102</v>
       </c>
@@ -4333,9 +4380,12 @@
       <c r="H105" s="11" t="s">
         <v>544</v>
       </c>
+      <c r="K105" s="5" t="s">
+        <v>606</v>
+      </c>
       <c r="L105" s="4"/>
     </row>
-    <row r="106" spans="1:12" ht="30">
+    <row r="106" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="E106" s="11">
         <v>1</v>
       </c>
@@ -4350,7 +4400,7 @@
       </c>
       <c r="L106" s="4"/>
     </row>
-    <row r="107" spans="1:12" ht="30">
+    <row r="107" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="E107" s="11">
         <v>2</v>
       </c>
@@ -4365,7 +4415,7 @@
       </c>
       <c r="L107" s="4"/>
     </row>
-    <row r="108" spans="1:12" ht="60">
+    <row r="108" spans="1:12" ht="60" x14ac:dyDescent="0.25">
       <c r="E108" s="11">
         <v>3</v>
       </c>
@@ -4380,7 +4430,7 @@
       </c>
       <c r="L108" s="4"/>
     </row>
-    <row r="109" spans="1:12" ht="30">
+    <row r="109" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="E109" s="11">
         <v>4</v>
       </c>
@@ -4395,7 +4445,7 @@
       </c>
       <c r="L109" s="4"/>
     </row>
-    <row r="110" spans="1:12" ht="60">
+    <row r="110" spans="1:12" ht="60" x14ac:dyDescent="0.25">
       <c r="E110" s="11">
         <v>5</v>
       </c>
@@ -4412,10 +4462,10 @@
         <v>12</v>
       </c>
     </row>
-    <row r="111" spans="1:12">
+    <row r="111" spans="1:12" x14ac:dyDescent="0.25">
       <c r="L111" s="4"/>
     </row>
-    <row r="112" spans="1:12" ht="45">
+    <row r="112" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A112" s="20" t="s">
         <v>103</v>
       </c>
@@ -4428,9 +4478,12 @@
       <c r="F112" s="11" t="s">
         <v>580</v>
       </c>
+      <c r="K112" s="5" t="s">
+        <v>606</v>
+      </c>
       <c r="L112" s="4"/>
     </row>
-    <row r="113" spans="1:12" ht="30">
+    <row r="113" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="E113" s="11">
         <v>1</v>
       </c>
@@ -4442,7 +4495,7 @@
       </c>
       <c r="L113" s="4"/>
     </row>
-    <row r="114" spans="1:12" ht="30">
+    <row r="114" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="E114" s="11">
         <v>2</v>
       </c>
@@ -4454,7 +4507,7 @@
       </c>
       <c r="L114" s="4"/>
     </row>
-    <row r="115" spans="1:12" ht="60">
+    <row r="115" spans="1:12" ht="60" x14ac:dyDescent="0.25">
       <c r="E115" s="11">
         <v>3</v>
       </c>
@@ -4466,7 +4519,7 @@
       </c>
       <c r="L115" s="4"/>
     </row>
-    <row r="116" spans="1:12" ht="30">
+    <row r="116" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="E116" s="11">
         <v>4</v>
       </c>
@@ -4478,7 +4531,7 @@
       </c>
       <c r="L116" s="4"/>
     </row>
-    <row r="117" spans="1:12" ht="45">
+    <row r="117" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="E117" s="11">
         <v>5</v>
       </c>
@@ -4490,7 +4543,7 @@
       </c>
       <c r="L117" s="4"/>
     </row>
-    <row r="118" spans="1:12" ht="30">
+    <row r="118" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="E118" s="11">
         <v>6</v>
       </c>
@@ -4502,7 +4555,7 @@
       </c>
       <c r="L118" s="4"/>
     </row>
-    <row r="119" spans="1:12" ht="30">
+    <row r="119" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="E119" s="11">
         <v>7</v>
       </c>
@@ -4516,10 +4569,10 @@
         <v>16</v>
       </c>
     </row>
-    <row r="120" spans="1:12">
+    <row r="120" spans="1:12" x14ac:dyDescent="0.25">
       <c r="L120" s="4"/>
     </row>
-    <row r="121" spans="1:12" ht="45">
+    <row r="121" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A121" s="20" t="s">
         <v>104</v>
       </c>
@@ -4532,9 +4585,12 @@
       <c r="F121" s="11" t="s">
         <v>580</v>
       </c>
+      <c r="K121" s="5" t="s">
+        <v>606</v>
+      </c>
       <c r="L121" s="4"/>
     </row>
-    <row r="122" spans="1:12" ht="30">
+    <row r="122" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="E122" s="11">
         <v>1</v>
       </c>
@@ -4549,7 +4605,7 @@
       </c>
       <c r="L122" s="4"/>
     </row>
-    <row r="123" spans="1:12" ht="30">
+    <row r="123" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="E123" s="11">
         <v>2</v>
       </c>
@@ -4564,7 +4620,7 @@
       </c>
       <c r="L123" s="4"/>
     </row>
-    <row r="124" spans="1:12" ht="60">
+    <row r="124" spans="1:12" ht="60" x14ac:dyDescent="0.25">
       <c r="E124" s="11">
         <v>3</v>
       </c>
@@ -4579,7 +4635,7 @@
       </c>
       <c r="L124" s="4"/>
     </row>
-    <row r="125" spans="1:12" ht="30">
+    <row r="125" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="E125" s="11">
         <v>4</v>
       </c>
@@ -4596,10 +4652,10 @@
         <v>12</v>
       </c>
     </row>
-    <row r="126" spans="1:12">
+    <row r="126" spans="1:12" x14ac:dyDescent="0.25">
       <c r="L126" s="4"/>
     </row>
-    <row r="127" spans="1:12" ht="45">
+    <row r="127" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A127" s="20" t="s">
         <v>105</v>
       </c>
@@ -4612,9 +4668,12 @@
       <c r="F127" s="11" t="s">
         <v>580</v>
       </c>
+      <c r="K127" s="5" t="s">
+        <v>606</v>
+      </c>
       <c r="L127" s="4"/>
     </row>
-    <row r="128" spans="1:12" ht="30">
+    <row r="128" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="E128" s="11">
         <v>1</v>
       </c>
@@ -4626,7 +4685,7 @@
       </c>
       <c r="L128" s="4"/>
     </row>
-    <row r="129" spans="1:12" ht="30">
+    <row r="129" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="E129" s="11">
         <v>2</v>
       </c>
@@ -4638,7 +4697,7 @@
       </c>
       <c r="L129" s="4"/>
     </row>
-    <row r="130" spans="1:12" ht="60">
+    <row r="130" spans="1:12" ht="60" x14ac:dyDescent="0.25">
       <c r="E130" s="11">
         <v>3</v>
       </c>
@@ -4650,7 +4709,7 @@
       </c>
       <c r="L130" s="4"/>
     </row>
-    <row r="131" spans="1:12" ht="30">
+    <row r="131" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="E131" s="11">
         <v>4</v>
       </c>
@@ -4662,7 +4721,7 @@
       </c>
       <c r="L131" s="4"/>
     </row>
-    <row r="132" spans="1:12" ht="45">
+    <row r="132" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="E132" s="11">
         <v>5</v>
       </c>
@@ -4674,7 +4733,7 @@
       </c>
       <c r="L132" s="4"/>
     </row>
-    <row r="133" spans="1:12" ht="30">
+    <row r="133" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="E133" s="11">
         <v>6</v>
       </c>
@@ -4688,10 +4747,10 @@
         <v>16</v>
       </c>
     </row>
-    <row r="134" spans="1:12">
+    <row r="134" spans="1:12" x14ac:dyDescent="0.25">
       <c r="L134" s="4"/>
     </row>
-    <row r="135" spans="1:12" ht="45">
+    <row r="135" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A135" s="20" t="s">
         <v>106</v>
       </c>
@@ -4704,9 +4763,12 @@
       <c r="F135" s="11" t="s">
         <v>580</v>
       </c>
+      <c r="K135" s="5" t="s">
+        <v>606</v>
+      </c>
       <c r="L135" s="4"/>
     </row>
-    <row r="136" spans="1:12" ht="30">
+    <row r="136" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="E136" s="11">
         <v>1</v>
       </c>
@@ -4718,7 +4780,7 @@
       </c>
       <c r="L136" s="4"/>
     </row>
-    <row r="137" spans="1:12" ht="30">
+    <row r="137" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="E137" s="11">
         <v>2</v>
       </c>
@@ -4730,7 +4792,7 @@
       </c>
       <c r="L137" s="4"/>
     </row>
-    <row r="138" spans="1:12" ht="60">
+    <row r="138" spans="1:12" ht="60" x14ac:dyDescent="0.25">
       <c r="E138" s="11">
         <v>3</v>
       </c>
@@ -4742,7 +4804,7 @@
       </c>
       <c r="L138" s="4"/>
     </row>
-    <row r="139" spans="1:12" ht="30">
+    <row r="139" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="E139" s="11">
         <v>4</v>
       </c>
@@ -4754,7 +4816,7 @@
       </c>
       <c r="L139" s="4"/>
     </row>
-    <row r="140" spans="1:12" ht="45">
+    <row r="140" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="E140" s="11">
         <v>5</v>
       </c>
@@ -4766,7 +4828,7 @@
       </c>
       <c r="L140" s="4"/>
     </row>
-    <row r="141" spans="1:12" ht="45">
+    <row r="141" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="E141" s="11">
         <v>6</v>
       </c>
@@ -4780,10 +4842,10 @@
         <v>16</v>
       </c>
     </row>
-    <row r="142" spans="1:12">
+    <row r="142" spans="1:12" x14ac:dyDescent="0.25">
       <c r="L142" s="4"/>
     </row>
-    <row r="143" spans="1:12" ht="45">
+    <row r="143" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A143" s="20" t="s">
         <v>107</v>
       </c>
@@ -4796,9 +4858,12 @@
       <c r="F143" s="11" t="s">
         <v>580</v>
       </c>
+      <c r="K143" s="5" t="s">
+        <v>606</v>
+      </c>
       <c r="L143" s="4"/>
     </row>
-    <row r="144" spans="1:12" ht="30">
+    <row r="144" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="E144" s="11">
         <v>1</v>
       </c>
@@ -4810,7 +4875,7 @@
       </c>
       <c r="L144" s="4"/>
     </row>
-    <row r="145" spans="1:12" ht="30">
+    <row r="145" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="E145" s="11">
         <v>2</v>
       </c>
@@ -4822,7 +4887,7 @@
       </c>
       <c r="L145" s="4"/>
     </row>
-    <row r="146" spans="1:12" ht="60">
+    <row r="146" spans="1:12" ht="60" x14ac:dyDescent="0.25">
       <c r="E146" s="11">
         <v>3</v>
       </c>
@@ -4834,7 +4899,7 @@
       </c>
       <c r="L146" s="4"/>
     </row>
-    <row r="147" spans="1:12" ht="30">
+    <row r="147" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="E147" s="11">
         <v>4</v>
       </c>
@@ -4846,7 +4911,7 @@
       </c>
       <c r="L147" s="4"/>
     </row>
-    <row r="148" spans="1:12" ht="45">
+    <row r="148" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="E148" s="11">
         <v>5</v>
       </c>
@@ -4858,7 +4923,7 @@
       </c>
       <c r="L148" s="4"/>
     </row>
-    <row r="149" spans="1:12" ht="30">
+    <row r="149" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="E149" s="11">
         <v>6</v>
       </c>
@@ -4872,10 +4937,10 @@
         <v>16</v>
       </c>
     </row>
-    <row r="150" spans="1:12">
+    <row r="150" spans="1:12" x14ac:dyDescent="0.25">
       <c r="L150" s="4"/>
     </row>
-    <row r="151" spans="1:12" ht="45">
+    <row r="151" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A151" s="20" t="s">
         <v>108</v>
       </c>
@@ -4888,9 +4953,12 @@
       <c r="F151" s="11" t="s">
         <v>580</v>
       </c>
+      <c r="K151" s="5" t="s">
+        <v>606</v>
+      </c>
       <c r="L151" s="4"/>
     </row>
-    <row r="152" spans="1:12" ht="30">
+    <row r="152" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="E152" s="11">
         <v>1</v>
       </c>
@@ -4902,7 +4970,7 @@
       </c>
       <c r="L152" s="4"/>
     </row>
-    <row r="153" spans="1:12" ht="30">
+    <row r="153" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="E153" s="11">
         <v>2</v>
       </c>
@@ -4914,7 +4982,7 @@
       </c>
       <c r="L153" s="4"/>
     </row>
-    <row r="154" spans="1:12" ht="60">
+    <row r="154" spans="1:12" ht="60" x14ac:dyDescent="0.25">
       <c r="E154" s="11">
         <v>3</v>
       </c>
@@ -4926,7 +4994,7 @@
       </c>
       <c r="L154" s="4"/>
     </row>
-    <row r="155" spans="1:12" ht="30">
+    <row r="155" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="E155" s="11">
         <v>4</v>
       </c>
@@ -4938,7 +5006,7 @@
       </c>
       <c r="L155" s="4"/>
     </row>
-    <row r="156" spans="1:12" ht="45">
+    <row r="156" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="E156" s="11">
         <v>5</v>
       </c>
@@ -4950,7 +5018,7 @@
       </c>
       <c r="L156" s="4"/>
     </row>
-    <row r="157" spans="1:12" ht="45">
+    <row r="157" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="E157" s="11">
         <v>6</v>
       </c>
@@ -4964,10 +5032,10 @@
         <v>16</v>
       </c>
     </row>
-    <row r="158" spans="1:12">
+    <row r="158" spans="1:12" x14ac:dyDescent="0.25">
       <c r="L158" s="4"/>
     </row>
-    <row r="159" spans="1:12" ht="45">
+    <row r="159" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A159" s="20" t="s">
         <v>109</v>
       </c>
@@ -4980,9 +5048,12 @@
       <c r="F159" s="11" t="s">
         <v>580</v>
       </c>
+      <c r="K159" s="5" t="s">
+        <v>606</v>
+      </c>
       <c r="L159" s="4"/>
     </row>
-    <row r="160" spans="1:12" ht="30">
+    <row r="160" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="E160" s="11">
         <v>1</v>
       </c>
@@ -4994,7 +5065,7 @@
       </c>
       <c r="L160" s="4"/>
     </row>
-    <row r="161" spans="1:12" ht="30">
+    <row r="161" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="E161" s="11">
         <v>2</v>
       </c>
@@ -5006,7 +5077,7 @@
       </c>
       <c r="L161" s="4"/>
     </row>
-    <row r="162" spans="1:12" ht="60">
+    <row r="162" spans="1:12" ht="60" x14ac:dyDescent="0.25">
       <c r="E162" s="11">
         <v>3</v>
       </c>
@@ -5018,7 +5089,7 @@
       </c>
       <c r="L162" s="4"/>
     </row>
-    <row r="163" spans="1:12" ht="30">
+    <row r="163" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="E163" s="11">
         <v>4</v>
       </c>
@@ -5030,7 +5101,7 @@
       </c>
       <c r="L163" s="4"/>
     </row>
-    <row r="164" spans="1:12" ht="45">
+    <row r="164" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="E164" s="11">
         <v>5</v>
       </c>
@@ -5042,7 +5113,7 @@
       </c>
       <c r="L164" s="4"/>
     </row>
-    <row r="165" spans="1:12" ht="30">
+    <row r="165" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="E165" s="11">
         <v>6</v>
       </c>
@@ -5056,13 +5127,13 @@
         <v>16</v>
       </c>
     </row>
-    <row r="166" spans="1:12">
+    <row r="166" spans="1:12" x14ac:dyDescent="0.25">
       <c r="L166" s="4"/>
     </row>
-    <row r="167" spans="1:12">
+    <row r="167" spans="1:12" x14ac:dyDescent="0.25">
       <c r="L167" s="4"/>
     </row>
-    <row r="168" spans="1:12" ht="45">
+    <row r="168" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A168" s="20" t="s">
         <v>114</v>
       </c>
@@ -5075,9 +5146,12 @@
       <c r="F168" s="11" t="s">
         <v>594</v>
       </c>
+      <c r="K168" s="5" t="s">
+        <v>606</v>
+      </c>
       <c r="L168" s="4"/>
     </row>
-    <row r="169" spans="1:12" ht="30">
+    <row r="169" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="E169" s="11">
         <v>1</v>
       </c>
@@ -5089,7 +5163,7 @@
       </c>
       <c r="L169" s="4"/>
     </row>
-    <row r="170" spans="1:12" ht="30">
+    <row r="170" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="E170" s="11">
         <v>2</v>
       </c>
@@ -5101,7 +5175,7 @@
       </c>
       <c r="L170" s="4"/>
     </row>
-    <row r="171" spans="1:12" ht="60">
+    <row r="171" spans="1:12" ht="60" x14ac:dyDescent="0.25">
       <c r="E171" s="11">
         <v>3</v>
       </c>
@@ -5113,7 +5187,7 @@
       </c>
       <c r="L171" s="4"/>
     </row>
-    <row r="172" spans="1:12" ht="30">
+    <row r="172" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="E172" s="11">
         <v>4</v>
       </c>
@@ -5125,7 +5199,7 @@
       </c>
       <c r="L172" s="4"/>
     </row>
-    <row r="173" spans="1:12" ht="30">
+    <row r="173" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="E173" s="11">
         <v>5</v>
       </c>
@@ -5139,13 +5213,13 @@
         <v>16</v>
       </c>
     </row>
-    <row r="174" spans="1:12">
+    <row r="174" spans="1:12" x14ac:dyDescent="0.25">
       <c r="L174" s="4"/>
     </row>
-    <row r="175" spans="1:12">
+    <row r="175" spans="1:12" x14ac:dyDescent="0.25">
       <c r="L175" s="4"/>
     </row>
-    <row r="176" spans="1:12" ht="45">
+    <row r="176" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A176" s="20" t="s">
         <v>127</v>
       </c>
@@ -5158,9 +5232,12 @@
       <c r="F176" s="11" t="s">
         <v>41</v>
       </c>
+      <c r="K176" s="5" t="s">
+        <v>606</v>
+      </c>
       <c r="L176" s="4"/>
     </row>
-    <row r="177" spans="1:12" ht="30">
+    <row r="177" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="F177" s="11" t="s">
         <v>22</v>
       </c>
@@ -5169,7 +5246,7 @@
       </c>
       <c r="L177" s="4"/>
     </row>
-    <row r="178" spans="1:12" ht="30">
+    <row r="178" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="F178" s="11" t="s">
         <v>23</v>
       </c>
@@ -5178,7 +5255,7 @@
       </c>
       <c r="L178" s="4"/>
     </row>
-    <row r="179" spans="1:12" ht="60">
+    <row r="179" spans="1:12" ht="60" x14ac:dyDescent="0.25">
       <c r="F179" s="11" t="s">
         <v>31</v>
       </c>
@@ -5187,7 +5264,7 @@
       </c>
       <c r="L179" s="4"/>
     </row>
-    <row r="180" spans="1:12" ht="30">
+    <row r="180" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="F180" s="11" t="s">
         <v>111</v>
       </c>
@@ -5196,7 +5273,7 @@
       </c>
       <c r="L180" s="4"/>
     </row>
-    <row r="181" spans="1:12" ht="45">
+    <row r="181" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="F181" s="11" t="s">
         <v>174</v>
       </c>
@@ -5207,16 +5284,16 @@
         <v>16</v>
       </c>
     </row>
-    <row r="182" spans="1:12">
-      <c r="G182" s="26"/>
+    <row r="182" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="G182" s="24"/>
       <c r="L182" s="4"/>
     </row>
-    <row r="183" spans="1:12">
-      <c r="F183" s="26"/>
-      <c r="G183" s="26"/>
+    <row r="183" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="F183" s="24"/>
+      <c r="G183" s="24"/>
       <c r="L183" s="4"/>
     </row>
-    <row r="184" spans="1:12" ht="45">
+    <row r="184" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A184" s="20" t="s">
         <v>128</v>
       </c>
@@ -5229,9 +5306,12 @@
       <c r="F184" s="11" t="s">
         <v>41</v>
       </c>
+      <c r="K184" s="5" t="s">
+        <v>606</v>
+      </c>
       <c r="L184" s="4"/>
     </row>
-    <row r="185" spans="1:12" ht="30">
+    <row r="185" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="E185" s="11">
         <v>1</v>
       </c>
@@ -5243,7 +5323,7 @@
       </c>
       <c r="L185" s="4"/>
     </row>
-    <row r="186" spans="1:12" ht="30">
+    <row r="186" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="E186" s="11">
         <v>2</v>
       </c>
@@ -5255,7 +5335,7 @@
       </c>
       <c r="L186" s="4"/>
     </row>
-    <row r="187" spans="1:12" ht="90">
+    <row r="187" spans="1:12" ht="90" x14ac:dyDescent="0.25">
       <c r="E187" s="11">
         <v>3</v>
       </c>
@@ -5269,10 +5349,10 @@
         <v>16</v>
       </c>
     </row>
-    <row r="188" spans="1:12">
+    <row r="188" spans="1:12" x14ac:dyDescent="0.25">
       <c r="L188" s="4"/>
     </row>
-    <row r="189" spans="1:12" ht="45">
+    <row r="189" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A189" s="11" t="s">
         <v>129</v>
       </c>
@@ -5285,9 +5365,12 @@
       <c r="F189" s="11" t="s">
         <v>41</v>
       </c>
+      <c r="K189" s="5" t="s">
+        <v>606</v>
+      </c>
       <c r="L189" s="4"/>
     </row>
-    <row r="190" spans="1:12" ht="30">
+    <row r="190" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="E190" s="11">
         <v>1</v>
       </c>
@@ -5302,7 +5385,7 @@
       </c>
       <c r="L190" s="4"/>
     </row>
-    <row r="191" spans="1:12" ht="30">
+    <row r="191" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="E191" s="11">
         <v>2</v>
       </c>
@@ -5317,7 +5400,7 @@
       </c>
       <c r="L191" s="4"/>
     </row>
-    <row r="192" spans="1:12" ht="30">
+    <row r="192" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="E192" s="11">
         <v>3</v>
       </c>
@@ -5332,7 +5415,7 @@
       </c>
       <c r="L192" s="4"/>
     </row>
-    <row r="193" spans="1:13" ht="45">
+    <row r="193" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="E193" s="11">
         <v>4</v>
       </c>
@@ -5355,15 +5438,15 @@
         <v>597</v>
       </c>
     </row>
-    <row r="194" spans="1:13">
+    <row r="194" spans="1:13" x14ac:dyDescent="0.25">
       <c r="L194" s="4"/>
     </row>
-    <row r="195" spans="1:13">
+    <row r="195" spans="1:13" x14ac:dyDescent="0.25">
       <c r="F195" s="15"/>
       <c r="G195" s="15"/>
       <c r="L195" s="4"/>
     </row>
-    <row r="196" spans="1:13" ht="45">
+    <row r="196" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A196" s="11" t="s">
         <v>130</v>
       </c>
@@ -5376,9 +5459,12 @@
       <c r="F196" s="11" t="s">
         <v>41</v>
       </c>
+      <c r="K196" s="5" t="s">
+        <v>606</v>
+      </c>
       <c r="L196" s="4"/>
     </row>
-    <row r="197" spans="1:13" ht="30">
+    <row r="197" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="E197" s="11">
         <v>1</v>
       </c>
@@ -5393,7 +5479,7 @@
       </c>
       <c r="L197" s="4"/>
     </row>
-    <row r="198" spans="1:13" ht="30">
+    <row r="198" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="E198" s="11">
         <v>2</v>
       </c>
@@ -5408,7 +5494,7 @@
       </c>
       <c r="L198" s="4"/>
     </row>
-    <row r="199" spans="1:13" ht="30">
+    <row r="199" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="E199" s="11">
         <v>3</v>
       </c>
@@ -5423,7 +5509,7 @@
       </c>
       <c r="L199" s="4"/>
     </row>
-    <row r="200" spans="1:13" ht="45">
+    <row r="200" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="E200" s="11">
         <v>4</v>
       </c>
@@ -5443,13 +5529,13 @@
         <v>14</v>
       </c>
     </row>
-    <row r="201" spans="1:13">
+    <row r="201" spans="1:13" x14ac:dyDescent="0.25">
       <c r="L201" s="4"/>
     </row>
-    <row r="202" spans="1:13">
+    <row r="202" spans="1:13" x14ac:dyDescent="0.25">
       <c r="L202" s="4"/>
     </row>
-    <row r="203" spans="1:13" ht="60">
+    <row r="203" spans="1:13" ht="60" x14ac:dyDescent="0.25">
       <c r="A203" s="11" t="s">
         <v>134</v>
       </c>
@@ -5462,9 +5548,12 @@
       <c r="F203" s="11" t="s">
         <v>131</v>
       </c>
+      <c r="K203" s="5" t="s">
+        <v>606</v>
+      </c>
       <c r="L203" s="4"/>
     </row>
-    <row r="204" spans="1:13" ht="30">
+    <row r="204" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="E204" s="11">
         <v>1</v>
       </c>
@@ -5479,7 +5568,7 @@
       </c>
       <c r="L204" s="4"/>
     </row>
-    <row r="205" spans="1:13" ht="30">
+    <row r="205" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="E205" s="11">
         <v>2</v>
       </c>
@@ -5494,7 +5583,7 @@
       </c>
       <c r="L205" s="4"/>
     </row>
-    <row r="206" spans="1:13" ht="30">
+    <row r="206" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="E206" s="11">
         <v>3</v>
       </c>
@@ -5509,7 +5598,7 @@
       </c>
       <c r="L206" s="4"/>
     </row>
-    <row r="207" spans="1:13" ht="195">
+    <row r="207" spans="1:13" ht="195" x14ac:dyDescent="0.25">
       <c r="E207" s="11">
         <v>4</v>
       </c>
@@ -5524,7 +5613,7 @@
       </c>
       <c r="L207" s="4"/>
     </row>
-    <row r="208" spans="1:13" ht="45">
+    <row r="208" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="E208" s="11">
         <v>5</v>
       </c>
@@ -5544,12 +5633,12 @@
         <v>12</v>
       </c>
     </row>
-    <row r="209" spans="1:12">
+    <row r="209" spans="1:12" x14ac:dyDescent="0.25">
       <c r="F209" s="5"/>
       <c r="G209" s="5"/>
       <c r="L209" s="4"/>
     </row>
-    <row r="210" spans="1:12" ht="45">
+    <row r="210" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A210" s="11" t="s">
         <v>135</v>
       </c>
@@ -5562,9 +5651,12 @@
       <c r="F210" s="11" t="s">
         <v>41</v>
       </c>
+      <c r="K210" s="5" t="s">
+        <v>606</v>
+      </c>
       <c r="L210" s="4"/>
     </row>
-    <row r="211" spans="1:12" ht="30">
+    <row r="211" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="F211" s="11" t="s">
         <v>22</v>
       </c>
@@ -5573,7 +5665,7 @@
       </c>
       <c r="L211" s="4"/>
     </row>
-    <row r="212" spans="1:12" ht="30">
+    <row r="212" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="F212" s="11" t="s">
         <v>23</v>
       </c>
@@ -5582,7 +5674,7 @@
       </c>
       <c r="L212" s="4"/>
     </row>
-    <row r="213" spans="1:12" ht="45">
+    <row r="213" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="F213" s="11" t="s">
         <v>132</v>
       </c>
@@ -5591,14 +5683,14 @@
       </c>
       <c r="L213" s="4"/>
     </row>
-    <row r="214" spans="1:12">
+    <row r="214" spans="1:12" x14ac:dyDescent="0.25">
       <c r="L214" s="4"/>
     </row>
-    <row r="215" spans="1:12">
+    <row r="215" spans="1:12" x14ac:dyDescent="0.25">
       <c r="G215" s="15"/>
       <c r="L215" s="4"/>
     </row>
-    <row r="216" spans="1:12" ht="45">
+    <row r="216" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A216" s="11" t="s">
         <v>137</v>
       </c>
@@ -5611,9 +5703,12 @@
       <c r="F216" s="11" t="s">
         <v>41</v>
       </c>
+      <c r="K216" s="5" t="s">
+        <v>606</v>
+      </c>
       <c r="L216" s="4"/>
     </row>
-    <row r="217" spans="1:12" ht="30">
+    <row r="217" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="E217" s="11">
         <v>1</v>
       </c>
@@ -5628,7 +5723,7 @@
       </c>
       <c r="L217" s="4"/>
     </row>
-    <row r="218" spans="1:12" ht="30">
+    <row r="218" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="E218" s="11">
         <v>2</v>
       </c>
@@ -5643,7 +5738,7 @@
       </c>
       <c r="L218" s="4"/>
     </row>
-    <row r="219" spans="1:12" ht="45">
+    <row r="219" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="E219" s="11">
         <v>3</v>
       </c>
@@ -5660,7 +5755,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="220" spans="1:12" ht="30">
+    <row r="220" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="E220" s="11">
         <v>4</v>
       </c>
@@ -5675,13 +5770,13 @@
       </c>
       <c r="L220" s="4"/>
     </row>
-    <row r="221" spans="1:12">
+    <row r="221" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C221"/>
       <c r="D221" s="15"/>
       <c r="L221" s="4"/>
     </row>
-    <row r="222" spans="1:12" ht="45">
-      <c r="A222" s="25" t="s">
+    <row r="222" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+      <c r="A222" s="23" t="s">
         <v>171</v>
       </c>
       <c r="C222" s="5" t="s">
@@ -5693,9 +5788,12 @@
       <c r="F222" s="11" t="s">
         <v>41</v>
       </c>
+      <c r="K222" s="5" t="s">
+        <v>606</v>
+      </c>
       <c r="L222" s="4"/>
     </row>
-    <row r="223" spans="1:12" ht="30">
+    <row r="223" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="E223" s="11">
         <v>1</v>
       </c>
@@ -5710,7 +5808,7 @@
       </c>
       <c r="L223" s="4"/>
     </row>
-    <row r="224" spans="1:12" ht="30">
+    <row r="224" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="E224" s="11">
         <v>2</v>
       </c>
@@ -5725,7 +5823,7 @@
       </c>
       <c r="L224" s="4"/>
     </row>
-    <row r="225" spans="1:12" ht="75">
+    <row r="225" spans="1:12" ht="75" x14ac:dyDescent="0.25">
       <c r="E225" s="11">
         <v>3</v>
       </c>
@@ -5742,11 +5840,11 @@
         <v>12</v>
       </c>
     </row>
-    <row r="226" spans="1:12">
+    <row r="226" spans="1:12" x14ac:dyDescent="0.25">
       <c r="L226" s="4"/>
     </row>
-    <row r="227" spans="1:12" ht="45">
-      <c r="A227" s="25" t="s">
+    <row r="227" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+      <c r="A227" s="23" t="s">
         <v>184</v>
       </c>
       <c r="C227" s="5" t="s">
@@ -5759,9 +5857,12 @@
         <v>41</v>
       </c>
       <c r="J227" s="12"/>
+      <c r="K227" s="5" t="s">
+        <v>606</v>
+      </c>
       <c r="L227" s="4"/>
     </row>
-    <row r="228" spans="1:12" ht="30">
+    <row r="228" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="E228" s="11">
         <v>1</v>
       </c>
@@ -5774,7 +5875,7 @@
       <c r="J228" s="12"/>
       <c r="L228" s="4"/>
     </row>
-    <row r="229" spans="1:12" ht="30">
+    <row r="229" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="E229" s="11">
         <v>2</v>
       </c>
@@ -5787,7 +5888,7 @@
       <c r="J229" s="12"/>
       <c r="L229" s="4"/>
     </row>
-    <row r="230" spans="1:12" ht="75">
+    <row r="230" spans="1:12" ht="75" x14ac:dyDescent="0.25">
       <c r="E230" s="11">
         <v>3</v>
       </c>
@@ -5799,11 +5900,11 @@
       </c>
       <c r="L230" s="4"/>
     </row>
-    <row r="231" spans="1:12">
+    <row r="231" spans="1:12" x14ac:dyDescent="0.25">
       <c r="L231" s="4"/>
     </row>
-    <row r="232" spans="1:12" ht="60">
-      <c r="A232" s="24" t="s">
+    <row r="232" spans="1:12" ht="60" x14ac:dyDescent="0.25">
+      <c r="A232" s="22" t="s">
         <v>185</v>
       </c>
       <c r="B232" s="11" t="s">
@@ -5818,9 +5919,12 @@
       <c r="F232" s="11" t="s">
         <v>150</v>
       </c>
+      <c r="K232" s="5" t="s">
+        <v>606</v>
+      </c>
       <c r="L232" s="4"/>
     </row>
-    <row r="233" spans="1:12" ht="30">
+    <row r="233" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="E233" s="11">
         <v>1</v>
       </c>
@@ -5835,7 +5939,7 @@
       </c>
       <c r="L233" s="4"/>
     </row>
-    <row r="234" spans="1:12" ht="30">
+    <row r="234" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="E234" s="11">
         <v>2</v>
       </c>
@@ -5851,7 +5955,7 @@
       <c r="I234" s="14"/>
       <c r="L234" s="4"/>
     </row>
-    <row r="235" spans="1:12" ht="60">
+    <row r="235" spans="1:12" ht="60" x14ac:dyDescent="0.25">
       <c r="E235" s="11">
         <v>3</v>
       </c>
@@ -5866,7 +5970,7 @@
       </c>
       <c r="L235" s="4"/>
     </row>
-    <row r="236" spans="1:12" ht="60">
+    <row r="236" spans="1:12" ht="60" x14ac:dyDescent="0.25">
       <c r="E236" s="11">
         <v>4</v>
       </c>
@@ -5881,7 +5985,7 @@
       </c>
       <c r="L236" s="4"/>
     </row>
-    <row r="237" spans="1:12" ht="30">
+    <row r="237" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="E237" s="11">
         <v>5</v>
       </c>
@@ -5899,7 +6003,7 @@
       </c>
       <c r="L237" s="4"/>
     </row>
-    <row r="238" spans="1:12" ht="45">
+    <row r="238" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="E238" s="11">
         <v>6</v>
       </c>
@@ -5914,7 +6018,7 @@
       </c>
       <c r="L238" s="4"/>
     </row>
-    <row r="239" spans="1:12" ht="45">
+    <row r="239" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="E239" s="11">
         <v>7</v>
       </c>
@@ -5931,10 +6035,10 @@
         <v>12</v>
       </c>
     </row>
-    <row r="240" spans="1:12">
+    <row r="240" spans="1:12" x14ac:dyDescent="0.25">
       <c r="L240" s="4"/>
     </row>
-    <row r="241" spans="1:13" ht="60">
+    <row r="241" spans="1:13" ht="60" x14ac:dyDescent="0.25">
       <c r="A241" s="11" t="s">
         <v>186</v>
       </c>
@@ -5950,9 +6054,12 @@
       <c r="F241" s="11" t="s">
         <v>150</v>
       </c>
+      <c r="K241" s="5" t="s">
+        <v>606</v>
+      </c>
       <c r="L241" s="4"/>
     </row>
-    <row r="242" spans="1:13" ht="30">
+    <row r="242" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="E242" s="11">
         <v>1</v>
       </c>
@@ -5967,7 +6074,7 @@
       </c>
       <c r="L242" s="4"/>
     </row>
-    <row r="243" spans="1:13" ht="30">
+    <row r="243" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="E243" s="11">
         <v>2</v>
       </c>
@@ -5983,7 +6090,7 @@
       <c r="I243" s="14"/>
       <c r="L243" s="4"/>
     </row>
-    <row r="244" spans="1:13" ht="60">
+    <row r="244" spans="1:13" ht="60" x14ac:dyDescent="0.25">
       <c r="E244" s="11">
         <v>3</v>
       </c>
@@ -5998,7 +6105,7 @@
       </c>
       <c r="L244" s="4"/>
     </row>
-    <row r="245" spans="1:13" ht="60">
+    <row r="245" spans="1:13" ht="60" x14ac:dyDescent="0.25">
       <c r="E245" s="11">
         <v>4</v>
       </c>
@@ -6013,7 +6120,7 @@
       </c>
       <c r="L245" s="4"/>
     </row>
-    <row r="246" spans="1:13" ht="30">
+    <row r="246" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="E246" s="11">
         <v>5</v>
       </c>
@@ -6031,7 +6138,7 @@
       </c>
       <c r="L246" s="4"/>
     </row>
-    <row r="247" spans="1:13" ht="60">
+    <row r="247" spans="1:13" ht="60" x14ac:dyDescent="0.25">
       <c r="E247" s="11">
         <v>6</v>
       </c>
@@ -6046,7 +6153,7 @@
       </c>
       <c r="L247" s="4"/>
     </row>
-    <row r="248" spans="1:13" ht="45">
+    <row r="248" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="E248" s="11">
         <v>7</v>
       </c>
@@ -6063,13 +6170,13 @@
         <v>12</v>
       </c>
     </row>
-    <row r="249" spans="1:13">
+    <row r="249" spans="1:13" x14ac:dyDescent="0.25">
       <c r="L249" s="4"/>
     </row>
-    <row r="250" spans="1:13">
+    <row r="250" spans="1:13" x14ac:dyDescent="0.25">
       <c r="L250" s="4"/>
     </row>
-    <row r="251" spans="1:13" ht="60">
+    <row r="251" spans="1:13" ht="60" x14ac:dyDescent="0.25">
       <c r="A251" s="11" t="s">
         <v>187</v>
       </c>
@@ -6085,9 +6192,12 @@
       <c r="F251" s="11" t="s">
         <v>150</v>
       </c>
+      <c r="K251" s="5" t="s">
+        <v>606</v>
+      </c>
       <c r="L251" s="4"/>
     </row>
-    <row r="252" spans="1:13" ht="30">
+    <row r="252" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="E252" s="11">
         <v>1</v>
       </c>
@@ -6102,7 +6212,7 @@
       </c>
       <c r="L252" s="4"/>
     </row>
-    <row r="253" spans="1:13" ht="30">
+    <row r="253" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="E253" s="11">
         <v>2</v>
       </c>
@@ -6118,7 +6228,7 @@
       <c r="I253" s="14"/>
       <c r="L253" s="4"/>
     </row>
-    <row r="254" spans="1:13" ht="60">
+    <row r="254" spans="1:13" ht="60" x14ac:dyDescent="0.25">
       <c r="E254" s="11">
         <v>3</v>
       </c>
@@ -6133,7 +6243,7 @@
       </c>
       <c r="L254" s="4"/>
     </row>
-    <row r="255" spans="1:13" ht="60">
+    <row r="255" spans="1:13" ht="60" x14ac:dyDescent="0.25">
       <c r="E255" s="11">
         <v>4</v>
       </c>
@@ -6148,7 +6258,7 @@
       </c>
       <c r="L255" s="4"/>
     </row>
-    <row r="256" spans="1:13" ht="30">
+    <row r="256" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="E256" s="11">
         <v>5</v>
       </c>
@@ -6168,10 +6278,10 @@
         <v>604</v>
       </c>
     </row>
-    <row r="257" spans="1:12">
+    <row r="257" spans="1:12" x14ac:dyDescent="0.25">
       <c r="L257" s="4"/>
     </row>
-    <row r="258" spans="1:12" ht="60">
+    <row r="258" spans="1:12" ht="60" x14ac:dyDescent="0.25">
       <c r="A258" s="11" t="s">
         <v>188</v>
       </c>
@@ -6187,9 +6297,12 @@
       <c r="F258" s="11" t="s">
         <v>150</v>
       </c>
+      <c r="K258" s="5" t="s">
+        <v>606</v>
+      </c>
       <c r="L258" s="4"/>
     </row>
-    <row r="259" spans="1:12" ht="30">
+    <row r="259" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="E259" s="11">
         <v>1</v>
       </c>
@@ -6204,7 +6317,7 @@
       </c>
       <c r="L259" s="4"/>
     </row>
-    <row r="260" spans="1:12" ht="30">
+    <row r="260" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="E260" s="11">
         <v>2</v>
       </c>
@@ -6220,7 +6333,7 @@
       <c r="I260" s="14"/>
       <c r="L260" s="4"/>
     </row>
-    <row r="261" spans="1:12" ht="60">
+    <row r="261" spans="1:12" ht="60" x14ac:dyDescent="0.25">
       <c r="E261" s="11">
         <v>3</v>
       </c>
@@ -6235,7 +6348,7 @@
       </c>
       <c r="L261" s="4"/>
     </row>
-    <row r="262" spans="1:12" ht="60">
+    <row r="262" spans="1:12" ht="60" x14ac:dyDescent="0.25">
       <c r="E262" s="11">
         <v>4</v>
       </c>
@@ -6250,7 +6363,7 @@
       </c>
       <c r="L262" s="4"/>
     </row>
-    <row r="263" spans="1:12" ht="30">
+    <row r="263" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="E263" s="11">
         <v>5</v>
       </c>
@@ -6265,7 +6378,7 @@
       </c>
       <c r="L263" s="4"/>
     </row>
-    <row r="264" spans="1:12" ht="60">
+    <row r="264" spans="1:12" ht="60" x14ac:dyDescent="0.25">
       <c r="E264" s="11">
         <v>6</v>
       </c>
@@ -6282,10 +6395,10 @@
         <v>12</v>
       </c>
     </row>
-    <row r="265" spans="1:12">
+    <row r="265" spans="1:12" x14ac:dyDescent="0.25">
       <c r="L265" s="4"/>
     </row>
-    <row r="266" spans="1:12" ht="45">
+    <row r="266" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A266" s="11" t="s">
         <v>189</v>
       </c>
@@ -6298,9 +6411,12 @@
       <c r="F266" s="11" t="s">
         <v>41</v>
       </c>
+      <c r="K266" s="5" t="s">
+        <v>606</v>
+      </c>
       <c r="L266" s="4"/>
     </row>
-    <row r="267" spans="1:12" ht="30">
+    <row r="267" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="E267" s="11">
         <v>1</v>
       </c>
@@ -6315,7 +6431,7 @@
       </c>
       <c r="L267" s="4"/>
     </row>
-    <row r="268" spans="1:12" ht="30">
+    <row r="268" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="E268" s="11">
         <v>2</v>
       </c>
@@ -6330,7 +6446,7 @@
       </c>
       <c r="L268" s="4"/>
     </row>
-    <row r="269" spans="1:12" ht="60">
+    <row r="269" spans="1:12" ht="60" x14ac:dyDescent="0.25">
       <c r="E269" s="11">
         <v>3</v>
       </c>
@@ -6345,7 +6461,7 @@
       </c>
       <c r="L269" s="4"/>
     </row>
-    <row r="270" spans="1:12" ht="45">
+    <row r="270" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="E270" s="11">
         <v>4</v>
       </c>
@@ -6360,7 +6476,7 @@
       </c>
       <c r="L270" s="4"/>
     </row>
-    <row r="271" spans="1:12" ht="45">
+    <row r="271" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="E271" s="11">
         <v>5</v>
       </c>
@@ -6375,7 +6491,7 @@
       </c>
       <c r="L271" s="4"/>
     </row>
-    <row r="272" spans="1:12" ht="45">
+    <row r="272" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="E272" s="11">
         <v>6</v>
       </c>
@@ -6392,11 +6508,11 @@
         <v>12</v>
       </c>
     </row>
-    <row r="273" spans="1:12">
+    <row r="273" spans="1:12" x14ac:dyDescent="0.25">
       <c r="L273" s="4"/>
     </row>
-    <row r="274" spans="1:12" ht="45">
-      <c r="A274" s="24" t="s">
+    <row r="274" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+      <c r="A274" s="22" t="s">
         <v>190</v>
       </c>
       <c r="C274" s="5" t="s">
@@ -6408,9 +6524,12 @@
       <c r="F274" s="11" t="s">
         <v>41</v>
       </c>
+      <c r="K274" s="5" t="s">
+        <v>606</v>
+      </c>
       <c r="L274" s="4"/>
     </row>
-    <row r="275" spans="1:12" ht="30">
+    <row r="275" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="E275" s="11">
         <v>1</v>
       </c>
@@ -6422,7 +6541,7 @@
       </c>
       <c r="L275" s="4"/>
     </row>
-    <row r="276" spans="1:12" ht="30">
+    <row r="276" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="E276" s="11">
         <v>2</v>
       </c>
@@ -6434,7 +6553,7 @@
       </c>
       <c r="L276" s="4"/>
     </row>
-    <row r="277" spans="1:12" ht="60">
+    <row r="277" spans="1:12" ht="60" x14ac:dyDescent="0.25">
       <c r="E277" s="11">
         <v>3</v>
       </c>
@@ -6446,7 +6565,7 @@
       </c>
       <c r="L277" s="4"/>
     </row>
-    <row r="278" spans="1:12" ht="45">
+    <row r="278" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="E278" s="11">
         <v>4</v>
       </c>
@@ -6458,7 +6577,7 @@
       </c>
       <c r="L278" s="4"/>
     </row>
-    <row r="279" spans="1:12" ht="45">
+    <row r="279" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="E279" s="11">
         <v>5</v>
       </c>
@@ -6470,7 +6589,7 @@
       </c>
       <c r="L279" s="4"/>
     </row>
-    <row r="280" spans="1:12" ht="45">
+    <row r="280" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="E280" s="11">
         <v>6</v>
       </c>
@@ -6482,10 +6601,10 @@
       </c>
       <c r="L280" s="4"/>
     </row>
-    <row r="281" spans="1:12">
+    <row r="281" spans="1:12" x14ac:dyDescent="0.25">
       <c r="L281" s="4"/>
     </row>
-    <row r="282" spans="1:12" ht="45">
+    <row r="282" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A282" s="11" t="s">
         <v>191</v>
       </c>
@@ -6498,9 +6617,12 @@
       <c r="F282" s="11" t="s">
         <v>41</v>
       </c>
+      <c r="K282" s="5" t="s">
+        <v>606</v>
+      </c>
       <c r="L282" s="4"/>
     </row>
-    <row r="283" spans="1:12" ht="30">
+    <row r="283" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="E283" s="11">
         <v>1</v>
       </c>
@@ -6512,7 +6634,7 @@
       </c>
       <c r="L283" s="4"/>
     </row>
-    <row r="284" spans="1:12" ht="30">
+    <row r="284" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="E284" s="11">
         <v>2</v>
       </c>
@@ -6524,7 +6646,7 @@
       </c>
       <c r="L284" s="4"/>
     </row>
-    <row r="285" spans="1:12" ht="60">
+    <row r="285" spans="1:12" ht="60" x14ac:dyDescent="0.25">
       <c r="E285" s="11">
         <v>3</v>
       </c>
@@ -6536,7 +6658,7 @@
       </c>
       <c r="L285" s="4"/>
     </row>
-    <row r="286" spans="1:12" ht="45">
+    <row r="286" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="E286" s="11">
         <v>4</v>
       </c>
@@ -6548,7 +6670,7 @@
       </c>
       <c r="L286" s="4"/>
     </row>
-    <row r="287" spans="1:12" ht="45">
+    <row r="287" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="E287" s="11">
         <v>5</v>
       </c>
@@ -6560,7 +6682,7 @@
       </c>
       <c r="L287" s="4"/>
     </row>
-    <row r="288" spans="1:12" ht="45">
+    <row r="288" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="E288" s="11">
         <v>6</v>
       </c>
@@ -6572,10 +6694,10 @@
       </c>
       <c r="L288" s="4"/>
     </row>
-    <row r="289" spans="1:12">
+    <row r="289" spans="1:12" x14ac:dyDescent="0.25">
       <c r="L289" s="4"/>
     </row>
-    <row r="290" spans="1:12" ht="45">
+    <row r="290" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A290" s="11" t="s">
         <v>192</v>
       </c>
@@ -6588,9 +6710,12 @@
       <c r="F290" s="11" t="s">
         <v>41</v>
       </c>
+      <c r="K290" s="5" t="s">
+        <v>606</v>
+      </c>
       <c r="L290" s="4"/>
     </row>
-    <row r="291" spans="1:12" ht="30">
+    <row r="291" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="F291" s="11" t="s">
         <v>22</v>
       </c>
@@ -6599,7 +6724,7 @@
       </c>
       <c r="L291" s="4"/>
     </row>
-    <row r="292" spans="1:12" ht="30">
+    <row r="292" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="F292" s="11" t="s">
         <v>23</v>
       </c>
@@ -6608,7 +6733,7 @@
       </c>
       <c r="L292" s="4"/>
     </row>
-    <row r="293" spans="1:12" ht="60">
+    <row r="293" spans="1:12" ht="60" x14ac:dyDescent="0.25">
       <c r="F293" s="11" t="s">
         <v>163</v>
       </c>
@@ -6617,7 +6742,7 @@
       </c>
       <c r="L293" s="4"/>
     </row>
-    <row r="294" spans="1:12" ht="45">
+    <row r="294" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="F294" s="11" t="s">
         <v>140</v>
       </c>
@@ -6626,7 +6751,7 @@
       </c>
       <c r="L294" s="4"/>
     </row>
-    <row r="295" spans="1:12" ht="45">
+    <row r="295" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="F295" s="11" t="s">
         <v>164</v>
       </c>
@@ -6635,7 +6760,7 @@
       </c>
       <c r="L295" s="4"/>
     </row>
-    <row r="296" spans="1:12" ht="45">
+    <row r="296" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="F296" s="11" t="s">
         <v>170</v>
       </c>
@@ -6644,10 +6769,10 @@
       </c>
       <c r="L296" s="4"/>
     </row>
-    <row r="297" spans="1:12">
+    <row r="297" spans="1:12" x14ac:dyDescent="0.25">
       <c r="L297" s="4"/>
     </row>
-    <row r="298" spans="1:12" ht="45">
+    <row r="298" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A298" s="11" t="s">
         <v>193</v>
       </c>
@@ -6660,9 +6785,12 @@
       <c r="F298" s="11" t="s">
         <v>41</v>
       </c>
+      <c r="K298" s="5" t="s">
+        <v>606</v>
+      </c>
       <c r="L298" s="4"/>
     </row>
-    <row r="299" spans="1:12" ht="30">
+    <row r="299" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="E299" s="11">
         <v>1</v>
       </c>
@@ -6677,7 +6805,7 @@
       </c>
       <c r="L299" s="4"/>
     </row>
-    <row r="300" spans="1:12" ht="30">
+    <row r="300" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="E300" s="11">
         <v>2</v>
       </c>
@@ -6692,7 +6820,7 @@
       </c>
       <c r="L300" s="4"/>
     </row>
-    <row r="301" spans="1:12">
+    <row r="301" spans="1:12" x14ac:dyDescent="0.25">
       <c r="E301" s="11">
         <v>3</v>
       </c>
@@ -6704,7 +6832,7 @@
       </c>
       <c r="L301" s="4"/>
     </row>
-    <row r="302" spans="1:12" ht="30">
+    <row r="302" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="E302" s="11">
         <v>4</v>
       </c>
@@ -6719,7 +6847,7 @@
       </c>
       <c r="L302" s="4"/>
     </row>
-    <row r="303" spans="1:12" ht="45">
+    <row r="303" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="E303" s="11">
         <v>5</v>
       </c>
@@ -6734,7 +6862,7 @@
       </c>
       <c r="L303" s="4"/>
     </row>
-    <row r="304" spans="1:12" ht="45">
+    <row r="304" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="E304" s="11">
         <v>6</v>
       </c>
@@ -6751,10 +6879,10 @@
         <v>12</v>
       </c>
     </row>
-    <row r="305" spans="1:12">
+    <row r="305" spans="1:12" x14ac:dyDescent="0.25">
       <c r="L305" s="4"/>
     </row>
-    <row r="306" spans="1:12" ht="45">
+    <row r="306" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A306" s="11" t="s">
         <v>194</v>
       </c>
@@ -6767,9 +6895,12 @@
       <c r="F306" s="11" t="s">
         <v>41</v>
       </c>
+      <c r="K306" s="5" t="s">
+        <v>606</v>
+      </c>
       <c r="L306" s="4"/>
     </row>
-    <row r="307" spans="1:12" ht="30">
+    <row r="307" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="E307" s="11">
         <v>1</v>
       </c>
@@ -6784,7 +6915,7 @@
       </c>
       <c r="L307" s="4"/>
     </row>
-    <row r="308" spans="1:12" ht="30">
+    <row r="308" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="E308" s="11">
         <v>2</v>
       </c>
@@ -6799,7 +6930,7 @@
       </c>
       <c r="L308" s="4"/>
     </row>
-    <row r="309" spans="1:12">
+    <row r="309" spans="1:12" x14ac:dyDescent="0.25">
       <c r="E309" s="11">
         <v>3</v>
       </c>
@@ -6811,7 +6942,7 @@
       </c>
       <c r="L309" s="4"/>
     </row>
-    <row r="310" spans="1:12" ht="30">
+    <row r="310" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="E310" s="11">
         <v>4</v>
       </c>
@@ -6826,7 +6957,7 @@
       </c>
       <c r="L310" s="4"/>
     </row>
-    <row r="311" spans="1:12" ht="45">
+    <row r="311" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="E311" s="11">
         <v>5</v>
       </c>
@@ -6841,7 +6972,7 @@
       </c>
       <c r="L311" s="4"/>
     </row>
-    <row r="312" spans="1:12" ht="45">
+    <row r="312" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="E312" s="11">
         <v>6</v>
       </c>
@@ -6858,10 +6989,10 @@
         <v>12</v>
       </c>
     </row>
-    <row r="313" spans="1:12">
+    <row r="313" spans="1:12" x14ac:dyDescent="0.25">
       <c r="L313" s="4"/>
     </row>
-    <row r="314" spans="1:12" ht="45">
+    <row r="314" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A314" s="11" t="s">
         <v>203</v>
       </c>
@@ -6874,9 +7005,12 @@
       <c r="F314" s="11" t="s">
         <v>41</v>
       </c>
+      <c r="K314" s="5" t="s">
+        <v>606</v>
+      </c>
       <c r="L314" s="4"/>
     </row>
-    <row r="315" spans="1:12" ht="30">
+    <row r="315" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="E315" s="11">
         <v>1</v>
       </c>
@@ -6888,7 +7022,7 @@
       </c>
       <c r="L315" s="4"/>
     </row>
-    <row r="316" spans="1:12" ht="30">
+    <row r="316" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="E316" s="11">
         <v>2</v>
       </c>
@@ -6900,7 +7034,7 @@
       </c>
       <c r="L316" s="4"/>
     </row>
-    <row r="317" spans="1:12" ht="30">
+    <row r="317" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="E317" s="11">
         <v>3</v>
       </c>
@@ -6912,7 +7046,7 @@
       </c>
       <c r="L317" s="4"/>
     </row>
-    <row r="318" spans="1:12" ht="150">
+    <row r="318" spans="1:12" ht="150" x14ac:dyDescent="0.25">
       <c r="E318" s="11">
         <v>4</v>
       </c>
@@ -6924,13 +7058,13 @@
       </c>
       <c r="L318" s="4"/>
     </row>
-    <row r="319" spans="1:12">
+    <row r="319" spans="1:12" x14ac:dyDescent="0.25">
       <c r="L319" s="4"/>
     </row>
-    <row r="320" spans="1:12">
+    <row r="320" spans="1:12" x14ac:dyDescent="0.25">
       <c r="L320" s="4"/>
     </row>
-    <row r="321" spans="1:12" ht="45">
+    <row r="321" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A321" s="11" t="s">
         <v>204</v>
       </c>
@@ -6943,9 +7077,12 @@
       <c r="F321" s="11" t="s">
         <v>41</v>
       </c>
+      <c r="K321" s="5" t="s">
+        <v>606</v>
+      </c>
       <c r="L321" s="4"/>
     </row>
-    <row r="322" spans="1:12" ht="30">
+    <row r="322" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="F322" s="11" t="s">
         <v>22</v>
       </c>
@@ -6954,7 +7091,7 @@
       </c>
       <c r="L322" s="4"/>
     </row>
-    <row r="323" spans="1:12" ht="30">
+    <row r="323" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="F323" s="11" t="s">
         <v>23</v>
       </c>
@@ -6963,7 +7100,7 @@
       </c>
       <c r="L323" s="4"/>
     </row>
-    <row r="324" spans="1:12" ht="30">
+    <row r="324" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="F324" s="11" t="s">
         <v>197</v>
       </c>
@@ -6972,7 +7109,7 @@
       </c>
       <c r="L324" s="4"/>
     </row>
-    <row r="325" spans="1:12" ht="150">
+    <row r="325" spans="1:12" ht="150" x14ac:dyDescent="0.25">
       <c r="F325" s="11" t="s">
         <v>198</v>
       </c>
@@ -6981,7 +7118,7 @@
       </c>
       <c r="L325" s="4"/>
     </row>
-    <row r="326" spans="1:12">
+    <row r="326" spans="1:12" x14ac:dyDescent="0.25">
       <c r="F326" s="11" t="s">
         <v>201</v>
       </c>
@@ -6990,12 +7127,12 @@
       </c>
       <c r="L326" s="4"/>
     </row>
-    <row r="327" spans="1:12">
+    <row r="327" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C327"/>
       <c r="D327" s="15"/>
       <c r="L327" s="4"/>
     </row>
-    <row r="328" spans="1:12" ht="45">
+    <row r="328" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A328" s="11" t="s">
         <v>205</v>
       </c>
@@ -7008,9 +7145,12 @@
       <c r="F328" s="11" t="s">
         <v>41</v>
       </c>
+      <c r="K328" s="5" t="s">
+        <v>606</v>
+      </c>
       <c r="L328" s="4"/>
     </row>
-    <row r="329" spans="1:12" ht="30">
+    <row r="329" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="F329" s="11" t="s">
         <v>22</v>
       </c>
@@ -7019,7 +7159,7 @@
       </c>
       <c r="L329" s="4"/>
     </row>
-    <row r="330" spans="1:12" ht="30">
+    <row r="330" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="F330" s="11" t="s">
         <v>23</v>
       </c>
@@ -7028,7 +7168,7 @@
       </c>
       <c r="L330" s="4"/>
     </row>
-    <row r="331" spans="1:12" ht="30">
+    <row r="331" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="F331" s="11" t="s">
         <v>197</v>
       </c>
@@ -7037,7 +7177,7 @@
       </c>
       <c r="L331" s="4"/>
     </row>
-    <row r="332" spans="1:12" ht="150">
+    <row r="332" spans="1:12" ht="150" x14ac:dyDescent="0.25">
       <c r="F332" s="11" t="s">
         <v>198</v>
       </c>
@@ -7046,7 +7186,7 @@
       </c>
       <c r="L332" s="4"/>
     </row>
-    <row r="333" spans="1:12" ht="30">
+    <row r="333" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="F333" s="11" t="s">
         <v>207</v>
       </c>
@@ -7055,15 +7195,15 @@
       </c>
       <c r="L333" s="4"/>
     </row>
-    <row r="334" spans="1:12">
+    <row r="334" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C334"/>
       <c r="D334" s="15"/>
       <c r="L334" s="4"/>
     </row>
-    <row r="335" spans="1:12">
+    <row r="335" spans="1:12" x14ac:dyDescent="0.25">
       <c r="L335" s="4"/>
     </row>
-    <row r="336" spans="1:12" ht="45">
+    <row r="336" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A336" s="11" t="s">
         <v>209</v>
       </c>
@@ -7076,9 +7216,12 @@
       <c r="F336" s="11" t="s">
         <v>41</v>
       </c>
+      <c r="K336" s="5" t="s">
+        <v>606</v>
+      </c>
       <c r="L336" s="4"/>
     </row>
-    <row r="337" spans="1:12" ht="30">
+    <row r="337" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="F337" s="11" t="s">
         <v>22</v>
       </c>
@@ -7087,7 +7230,7 @@
       </c>
       <c r="L337" s="4"/>
     </row>
-    <row r="338" spans="1:12" ht="30">
+    <row r="338" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="F338" s="11" t="s">
         <v>23</v>
       </c>
@@ -7096,7 +7239,7 @@
       </c>
       <c r="L338" s="4"/>
     </row>
-    <row r="339" spans="1:12" ht="30">
+    <row r="339" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="F339" s="11" t="s">
         <v>214</v>
       </c>
@@ -7105,7 +7248,7 @@
       </c>
       <c r="L339" s="4"/>
     </row>
-    <row r="340" spans="1:12" ht="150">
+    <row r="340" spans="1:12" ht="150" x14ac:dyDescent="0.25">
       <c r="F340" s="11" t="s">
         <v>198</v>
       </c>
@@ -7114,13 +7257,13 @@
       </c>
       <c r="L340" s="4"/>
     </row>
-    <row r="341" spans="1:12">
+    <row r="341" spans="1:12" x14ac:dyDescent="0.25">
       <c r="L341" s="4"/>
     </row>
-    <row r="342" spans="1:12">
+    <row r="342" spans="1:12" x14ac:dyDescent="0.25">
       <c r="L342" s="4"/>
     </row>
-    <row r="343" spans="1:12" ht="45">
+    <row r="343" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A343" s="11" t="s">
         <v>215</v>
       </c>
@@ -7133,9 +7276,12 @@
       <c r="F343" s="11" t="s">
         <v>41</v>
       </c>
+      <c r="K343" s="5" t="s">
+        <v>606</v>
+      </c>
       <c r="L343" s="4"/>
     </row>
-    <row r="344" spans="1:12" ht="30">
+    <row r="344" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="F344" s="11" t="s">
         <v>22</v>
       </c>
@@ -7144,7 +7290,7 @@
       </c>
       <c r="L344" s="4"/>
     </row>
-    <row r="345" spans="1:12" ht="30">
+    <row r="345" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="F345" s="11" t="s">
         <v>23</v>
       </c>
@@ -7153,7 +7299,7 @@
       </c>
       <c r="L345" s="4"/>
     </row>
-    <row r="346" spans="1:12" ht="30">
+    <row r="346" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="F346" s="11" t="s">
         <v>214</v>
       </c>
@@ -7162,7 +7308,7 @@
       </c>
       <c r="L346" s="4"/>
     </row>
-    <row r="347" spans="1:12" ht="150">
+    <row r="347" spans="1:12" ht="150" x14ac:dyDescent="0.25">
       <c r="F347" s="11" t="s">
         <v>198</v>
       </c>
@@ -7171,7 +7317,7 @@
       </c>
       <c r="L347" s="4"/>
     </row>
-    <row r="348" spans="1:12">
+    <row r="348" spans="1:12" x14ac:dyDescent="0.25">
       <c r="F348" s="11" t="s">
         <v>201</v>
       </c>
@@ -7180,12 +7326,12 @@
       </c>
       <c r="L348" s="4"/>
     </row>
-    <row r="349" spans="1:12">
+    <row r="349" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C349"/>
       <c r="D349" s="15"/>
       <c r="L349" s="4"/>
     </row>
-    <row r="350" spans="1:12" ht="45">
+    <row r="350" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A350" s="11" t="s">
         <v>216</v>
       </c>
@@ -7198,9 +7344,12 @@
       <c r="F350" s="11" t="s">
         <v>41</v>
       </c>
+      <c r="K350" s="5" t="s">
+        <v>606</v>
+      </c>
       <c r="L350" s="4"/>
     </row>
-    <row r="351" spans="1:12" ht="30">
+    <row r="351" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="F351" s="11" t="s">
         <v>22</v>
       </c>
@@ -7209,7 +7358,7 @@
       </c>
       <c r="L351" s="4"/>
     </row>
-    <row r="352" spans="1:12" ht="30">
+    <row r="352" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="F352" s="11" t="s">
         <v>23</v>
       </c>
@@ -7218,7 +7367,7 @@
       </c>
       <c r="L352" s="4"/>
     </row>
-    <row r="353" spans="1:12" ht="30">
+    <row r="353" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="F353" s="11" t="s">
         <v>213</v>
       </c>
@@ -7227,7 +7376,7 @@
       </c>
       <c r="L353" s="4"/>
     </row>
-    <row r="354" spans="1:12" ht="150">
+    <row r="354" spans="1:12" ht="150" x14ac:dyDescent="0.25">
       <c r="F354" s="11" t="s">
         <v>198</v>
       </c>
@@ -7236,7 +7385,7 @@
       </c>
       <c r="L354" s="4"/>
     </row>
-    <row r="355" spans="1:12" ht="30">
+    <row r="355" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="F355" s="11" t="s">
         <v>207</v>
       </c>
@@ -7245,16 +7394,16 @@
       </c>
       <c r="L355" s="4"/>
     </row>
-    <row r="356" spans="1:12">
+    <row r="356" spans="1:12" x14ac:dyDescent="0.25">
       <c r="L356" s="4"/>
     </row>
-    <row r="357" spans="1:12">
+    <row r="357" spans="1:12" x14ac:dyDescent="0.25">
       <c r="L357" s="4"/>
     </row>
-    <row r="358" spans="1:12">
+    <row r="358" spans="1:12" x14ac:dyDescent="0.25">
       <c r="L358" s="4"/>
     </row>
-    <row r="359" spans="1:12" ht="45">
+    <row r="359" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A359" s="11" t="s">
         <v>221</v>
       </c>
@@ -7269,7 +7418,7 @@
       </c>
       <c r="L359" s="4"/>
     </row>
-    <row r="360" spans="1:12" ht="30">
+    <row r="360" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="F360" s="11" t="s">
         <v>22</v>
       </c>
@@ -7278,7 +7427,7 @@
       </c>
       <c r="L360" s="4"/>
     </row>
-    <row r="361" spans="1:12" ht="30">
+    <row r="361" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="F361" s="11" t="s">
         <v>23</v>
       </c>
@@ -7287,7 +7436,7 @@
       </c>
       <c r="L361" s="4"/>
     </row>
-    <row r="362" spans="1:12" ht="30">
+    <row r="362" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="F362" s="11" t="s">
         <v>218</v>
       </c>
@@ -7296,7 +7445,7 @@
       </c>
       <c r="L362" s="4"/>
     </row>
-    <row r="363" spans="1:12" ht="150">
+    <row r="363" spans="1:12" ht="150" x14ac:dyDescent="0.25">
       <c r="F363" s="11" t="s">
         <v>198</v>
       </c>
@@ -7305,13 +7454,13 @@
       </c>
       <c r="L363" s="4"/>
     </row>
-    <row r="364" spans="1:12">
+    <row r="364" spans="1:12" x14ac:dyDescent="0.25">
       <c r="L364" s="4"/>
     </row>
-    <row r="365" spans="1:12">
+    <row r="365" spans="1:12" x14ac:dyDescent="0.25">
       <c r="L365" s="4"/>
     </row>
-    <row r="366" spans="1:12" ht="45">
+    <row r="366" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A366" s="11" t="s">
         <v>222</v>
       </c>
@@ -7326,7 +7475,7 @@
       </c>
       <c r="L366" s="4"/>
     </row>
-    <row r="367" spans="1:12" ht="30">
+    <row r="367" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="F367" s="11" t="s">
         <v>22</v>
       </c>
@@ -7335,7 +7484,7 @@
       </c>
       <c r="L367" s="4"/>
     </row>
-    <row r="368" spans="1:12" ht="30">
+    <row r="368" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="F368" s="11" t="s">
         <v>23</v>
       </c>
@@ -7344,7 +7493,7 @@
       </c>
       <c r="L368" s="4"/>
     </row>
-    <row r="369" spans="1:12" ht="30">
+    <row r="369" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="F369" s="11" t="s">
         <v>220</v>
       </c>
@@ -7353,7 +7502,7 @@
       </c>
       <c r="L369" s="4"/>
     </row>
-    <row r="370" spans="1:12" ht="150">
+    <row r="370" spans="1:12" ht="150" x14ac:dyDescent="0.25">
       <c r="F370" s="11" t="s">
         <v>198</v>
       </c>
@@ -7362,7 +7511,7 @@
       </c>
       <c r="L370" s="4"/>
     </row>
-    <row r="371" spans="1:12">
+    <row r="371" spans="1:12" x14ac:dyDescent="0.25">
       <c r="F371" s="11" t="s">
         <v>201</v>
       </c>
@@ -7371,12 +7520,12 @@
       </c>
       <c r="L371" s="4"/>
     </row>
-    <row r="372" spans="1:12">
+    <row r="372" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C372"/>
       <c r="D372" s="15"/>
       <c r="L372" s="4"/>
     </row>
-    <row r="373" spans="1:12" ht="45">
+    <row r="373" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A373" s="11" t="s">
         <v>223</v>
       </c>
@@ -7391,7 +7540,7 @@
       </c>
       <c r="L373" s="4"/>
     </row>
-    <row r="374" spans="1:12" ht="30">
+    <row r="374" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="F374" s="11" t="s">
         <v>22</v>
       </c>
@@ -7400,7 +7549,7 @@
       </c>
       <c r="L374" s="4"/>
     </row>
-    <row r="375" spans="1:12" ht="30">
+    <row r="375" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="F375" s="11" t="s">
         <v>23</v>
       </c>
@@ -7409,7 +7558,7 @@
       </c>
       <c r="L375" s="4"/>
     </row>
-    <row r="376" spans="1:12" ht="30">
+    <row r="376" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="F376" s="11" t="s">
         <v>220</v>
       </c>
@@ -7418,7 +7567,7 @@
       </c>
       <c r="L376" s="4"/>
     </row>
-    <row r="377" spans="1:12" ht="150">
+    <row r="377" spans="1:12" ht="150" x14ac:dyDescent="0.25">
       <c r="F377" s="11" t="s">
         <v>198</v>
       </c>
@@ -7427,7 +7576,7 @@
       </c>
       <c r="L377" s="4"/>
     </row>
-    <row r="378" spans="1:12" ht="30">
+    <row r="378" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="F378" s="11" t="s">
         <v>207</v>
       </c>
@@ -7436,10 +7585,10 @@
       </c>
       <c r="L378" s="4"/>
     </row>
-    <row r="379" spans="1:12">
+    <row r="379" spans="1:12" x14ac:dyDescent="0.25">
       <c r="L379" s="4"/>
     </row>
-    <row r="380" spans="1:12" ht="45">
+    <row r="380" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A380" s="11" t="s">
         <v>231</v>
       </c>
@@ -7454,7 +7603,7 @@
       </c>
       <c r="L380" s="4"/>
     </row>
-    <row r="381" spans="1:12" ht="30">
+    <row r="381" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="F381" s="11" t="s">
         <v>22</v>
       </c>
@@ -7463,7 +7612,7 @@
       </c>
       <c r="L381" s="4"/>
     </row>
-    <row r="382" spans="1:12" ht="30">
+    <row r="382" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="F382" s="15" t="s">
         <v>226</v>
       </c>
@@ -7472,7 +7621,7 @@
       </c>
       <c r="L382" s="4"/>
     </row>
-    <row r="383" spans="1:12" ht="30">
+    <row r="383" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="F383" s="15" t="s">
         <v>228</v>
       </c>
@@ -7481,13 +7630,13 @@
       </c>
       <c r="L383" s="4"/>
     </row>
-    <row r="384" spans="1:12">
+    <row r="384" spans="1:12" x14ac:dyDescent="0.25">
       <c r="L384" s="4"/>
     </row>
-    <row r="385" spans="1:12">
+    <row r="385" spans="1:12" x14ac:dyDescent="0.25">
       <c r="L385" s="4"/>
     </row>
-    <row r="386" spans="1:12" ht="45">
+    <row r="386" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A386" s="11" t="s">
         <v>233</v>
       </c>
@@ -7502,7 +7651,7 @@
       </c>
       <c r="L386" s="4"/>
     </row>
-    <row r="387" spans="1:12" ht="30">
+    <row r="387" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="F387" s="11" t="s">
         <v>22</v>
       </c>
@@ -7511,7 +7660,7 @@
       </c>
       <c r="L387" s="4"/>
     </row>
-    <row r="388" spans="1:12" ht="30">
+    <row r="388" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="F388" s="15" t="s">
         <v>234</v>
       </c>
@@ -7520,7 +7669,7 @@
       </c>
       <c r="L388" s="4"/>
     </row>
-    <row r="389" spans="1:12" ht="45">
+    <row r="389" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="F389" s="15" t="s">
         <v>236</v>
       </c>
@@ -7529,7 +7678,7 @@
       </c>
       <c r="L389" s="4"/>
     </row>
-    <row r="390" spans="1:12" ht="195">
+    <row r="390" spans="1:12" ht="195" x14ac:dyDescent="0.25">
       <c r="F390" s="15" t="s">
         <v>238</v>
       </c>
@@ -7538,7 +7687,7 @@
       </c>
       <c r="L390" s="4"/>
     </row>
-    <row r="391" spans="1:12" ht="30">
+    <row r="391" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="F391" s="15" t="s">
         <v>240</v>
       </c>
@@ -7547,7 +7696,7 @@
       </c>
       <c r="L391" s="4"/>
     </row>
-    <row r="392" spans="1:12" ht="30">
+    <row r="392" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="F392" s="15" t="s">
         <v>242</v>
       </c>
@@ -7556,13 +7705,13 @@
       </c>
       <c r="L392" s="4"/>
     </row>
-    <row r="393" spans="1:12">
+    <row r="393" spans="1:12" x14ac:dyDescent="0.25">
       <c r="L393" s="4"/>
     </row>
-    <row r="394" spans="1:12">
+    <row r="394" spans="1:12" x14ac:dyDescent="0.25">
       <c r="L394" s="4"/>
     </row>
-    <row r="395" spans="1:12" ht="45">
+    <row r="395" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A395" s="11" t="s">
         <v>244</v>
       </c>
@@ -7577,7 +7726,7 @@
       </c>
       <c r="L395" s="4"/>
     </row>
-    <row r="396" spans="1:12" ht="30">
+    <row r="396" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="F396" s="11" t="s">
         <v>22</v>
       </c>
@@ -7586,7 +7735,7 @@
       </c>
       <c r="L396" s="4"/>
     </row>
-    <row r="397" spans="1:12" ht="30">
+    <row r="397" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="F397" s="15" t="s">
         <v>234</v>
       </c>
@@ -7595,7 +7744,7 @@
       </c>
       <c r="L397" s="4"/>
     </row>
-    <row r="398" spans="1:12" ht="45">
+    <row r="398" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="F398" s="15" t="s">
         <v>316</v>
       </c>
@@ -7604,7 +7753,7 @@
       </c>
       <c r="L398" s="4"/>
     </row>
-    <row r="399" spans="1:12" ht="225">
+    <row r="399" spans="1:12" ht="225" x14ac:dyDescent="0.25">
       <c r="F399" s="15" t="s">
         <v>318</v>
       </c>
@@ -7613,7 +7762,7 @@
       </c>
       <c r="L399" s="4"/>
     </row>
-    <row r="400" spans="1:12" ht="30">
+    <row r="400" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="F400" s="15" t="s">
         <v>320</v>
       </c>
@@ -7622,15 +7771,15 @@
       </c>
       <c r="L400" s="4"/>
     </row>
-    <row r="401" spans="1:12">
+    <row r="401" spans="1:12" x14ac:dyDescent="0.25">
       <c r="F401" s="15"/>
       <c r="G401" s="15"/>
       <c r="L401" s="4"/>
     </row>
-    <row r="402" spans="1:12">
+    <row r="402" spans="1:12" x14ac:dyDescent="0.25">
       <c r="L402" s="4"/>
     </row>
-    <row r="403" spans="1:12" ht="45">
+    <row r="403" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A403" s="11" t="s">
         <v>357</v>
       </c>
@@ -7645,7 +7794,7 @@
       </c>
       <c r="L403" s="4"/>
     </row>
-    <row r="404" spans="1:12" ht="30">
+    <row r="404" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="F404" s="11" t="s">
         <v>22</v>
       </c>
@@ -7654,7 +7803,7 @@
       </c>
       <c r="L404" s="4"/>
     </row>
-    <row r="405" spans="1:12" ht="30">
+    <row r="405" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="F405" s="15" t="s">
         <v>234</v>
       </c>
@@ -7663,7 +7812,7 @@
       </c>
       <c r="L405" s="4"/>
     </row>
-    <row r="406" spans="1:12" ht="30">
+    <row r="406" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="F406" s="15" t="s">
         <v>323</v>
       </c>
@@ -7672,7 +7821,7 @@
       </c>
       <c r="L406" s="4"/>
     </row>
-    <row r="407" spans="1:12" ht="30">
+    <row r="407" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="F407" s="15" t="s">
         <v>327</v>
       </c>
@@ -7681,16 +7830,16 @@
       </c>
       <c r="L407" s="4"/>
     </row>
-    <row r="408" spans="1:12">
+    <row r="408" spans="1:12" x14ac:dyDescent="0.25">
       <c r="L408" s="4"/>
     </row>
-    <row r="409" spans="1:12">
+    <row r="409" spans="1:12" x14ac:dyDescent="0.25">
       <c r="L409" s="4"/>
     </row>
-    <row r="410" spans="1:12">
+    <row r="410" spans="1:12" x14ac:dyDescent="0.25">
       <c r="L410" s="4"/>
     </row>
-    <row r="411" spans="1:12" ht="45">
+    <row r="411" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A411" s="11" t="s">
         <v>358</v>
       </c>
@@ -7705,7 +7854,7 @@
       </c>
       <c r="L411" s="4"/>
     </row>
-    <row r="412" spans="1:12" ht="30">
+    <row r="412" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="F412" s="11" t="s">
         <v>22</v>
       </c>
@@ -7714,7 +7863,7 @@
       </c>
       <c r="L412" s="4"/>
     </row>
-    <row r="413" spans="1:12" ht="30">
+    <row r="413" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="F413" s="15" t="s">
         <v>234</v>
       </c>
@@ -7723,7 +7872,7 @@
       </c>
       <c r="L413" s="4"/>
     </row>
-    <row r="414" spans="1:12" ht="45">
+    <row r="414" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="F414" s="15" t="s">
         <v>316</v>
       </c>
@@ -7732,7 +7881,7 @@
       </c>
       <c r="L414" s="4"/>
     </row>
-    <row r="415" spans="1:12" ht="30">
+    <row r="415" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="F415" s="15" t="s">
         <v>323</v>
       </c>
@@ -7741,7 +7890,7 @@
       </c>
       <c r="L415" s="4"/>
     </row>
-    <row r="416" spans="1:12" ht="30">
+    <row r="416" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="F416" s="15" t="s">
         <v>324</v>
       </c>
@@ -7750,13 +7899,13 @@
       </c>
       <c r="L416" s="4"/>
     </row>
-    <row r="417" spans="1:12">
+    <row r="417" spans="1:12" x14ac:dyDescent="0.25">
       <c r="L417" s="4"/>
     </row>
-    <row r="418" spans="1:12">
+    <row r="418" spans="1:12" x14ac:dyDescent="0.25">
       <c r="L418" s="4"/>
     </row>
-    <row r="419" spans="1:12" ht="45">
+    <row r="419" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A419" s="11" t="s">
         <v>359</v>
       </c>
@@ -7771,7 +7920,7 @@
       </c>
       <c r="L419" s="4"/>
     </row>
-    <row r="420" spans="1:12" ht="30">
+    <row r="420" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="F420" s="11" t="s">
         <v>22</v>
       </c>
@@ -7780,7 +7929,7 @@
       </c>
       <c r="L420" s="4"/>
     </row>
-    <row r="421" spans="1:12" ht="30">
+    <row r="421" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="F421" s="15" t="s">
         <v>234</v>
       </c>
@@ -7789,7 +7938,7 @@
       </c>
       <c r="L421" s="4"/>
     </row>
-    <row r="422" spans="1:12" ht="45">
+    <row r="422" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="F422" s="15" t="s">
         <v>316</v>
       </c>
@@ -7798,7 +7947,7 @@
       </c>
       <c r="L422" s="4"/>
     </row>
-    <row r="423" spans="1:12" ht="30">
+    <row r="423" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="F423" s="15" t="s">
         <v>323</v>
       </c>
@@ -7807,7 +7956,7 @@
       </c>
       <c r="L423" s="4"/>
     </row>
-    <row r="424" spans="1:12" ht="30">
+    <row r="424" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="F424" s="15" t="s">
         <v>327</v>
       </c>
@@ -7816,10 +7965,10 @@
       </c>
       <c r="L424" s="4"/>
     </row>
-    <row r="425" spans="1:12">
+    <row r="425" spans="1:12" x14ac:dyDescent="0.25">
       <c r="L425" s="4"/>
     </row>
-    <row r="426" spans="1:12" ht="45">
+    <row r="426" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A426" s="11" t="s">
         <v>360</v>
       </c>
@@ -7834,7 +7983,7 @@
       </c>
       <c r="L426" s="4"/>
     </row>
-    <row r="427" spans="1:12" ht="30">
+    <row r="427" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="F427" s="11" t="s">
         <v>22</v>
       </c>
@@ -7843,7 +7992,7 @@
       </c>
       <c r="L427" s="4"/>
     </row>
-    <row r="428" spans="1:12" ht="30">
+    <row r="428" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="F428" s="15" t="s">
         <v>234</v>
       </c>
@@ -7852,7 +8001,7 @@
       </c>
       <c r="L428" s="4"/>
     </row>
-    <row r="429" spans="1:12" ht="45">
+    <row r="429" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="F429" s="15" t="s">
         <v>316</v>
       </c>
@@ -7861,7 +8010,7 @@
       </c>
       <c r="L429" s="4"/>
     </row>
-    <row r="430" spans="1:12" ht="30">
+    <row r="430" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="F430" s="15" t="s">
         <v>330</v>
       </c>
@@ -7870,7 +8019,7 @@
       </c>
       <c r="L430" s="4"/>
     </row>
-    <row r="431" spans="1:12" ht="30">
+    <row r="431" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="F431" s="15" t="s">
         <v>331</v>
       </c>
@@ -7879,18 +8028,18 @@
       </c>
       <c r="L431" s="4"/>
     </row>
-    <row r="432" spans="1:12">
+    <row r="432" spans="1:12" x14ac:dyDescent="0.25">
       <c r="F432"/>
       <c r="G432"/>
       <c r="L432" s="4"/>
     </row>
-    <row r="433" spans="1:12">
+    <row r="433" spans="1:12" x14ac:dyDescent="0.25">
       <c r="L433" s="4"/>
     </row>
-    <row r="434" spans="1:12">
+    <row r="434" spans="1:12" x14ac:dyDescent="0.25">
       <c r="L434" s="4"/>
     </row>
-    <row r="435" spans="1:12" ht="45">
+    <row r="435" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A435" s="11" t="s">
         <v>361</v>
       </c>
@@ -7905,7 +8054,7 @@
       </c>
       <c r="L435" s="4"/>
     </row>
-    <row r="436" spans="1:12" ht="30">
+    <row r="436" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="F436" s="11" t="s">
         <v>22</v>
       </c>
@@ -7914,7 +8063,7 @@
       </c>
       <c r="L436" s="4"/>
     </row>
-    <row r="437" spans="1:12" ht="30">
+    <row r="437" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="F437" s="15" t="s">
         <v>234</v>
       </c>
@@ -7923,7 +8072,7 @@
       </c>
       <c r="L437" s="4"/>
     </row>
-    <row r="438" spans="1:12" ht="45">
+    <row r="438" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="F438" s="15" t="s">
         <v>316</v>
       </c>
@@ -7932,7 +8081,7 @@
       </c>
       <c r="L438" s="4"/>
     </row>
-    <row r="439" spans="1:12" ht="30">
+    <row r="439" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="F439" s="15" t="s">
         <v>330</v>
       </c>
@@ -7941,7 +8090,7 @@
       </c>
       <c r="L439" s="4"/>
     </row>
-    <row r="440" spans="1:12" ht="30">
+    <row r="440" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="F440" s="15" t="s">
         <v>331</v>
       </c>
@@ -7950,15 +8099,15 @@
       </c>
       <c r="L440" s="4"/>
     </row>
-    <row r="441" spans="1:12">
+    <row r="441" spans="1:12" x14ac:dyDescent="0.25">
       <c r="F441"/>
       <c r="G441"/>
       <c r="L441" s="4"/>
     </row>
-    <row r="442" spans="1:12">
+    <row r="442" spans="1:12" x14ac:dyDescent="0.25">
       <c r="L442" s="4"/>
     </row>
-    <row r="443" spans="1:12" ht="45">
+    <row r="443" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A443" s="11" t="s">
         <v>362</v>
       </c>
@@ -7973,7 +8122,7 @@
       </c>
       <c r="L443" s="4"/>
     </row>
-    <row r="444" spans="1:12" ht="30">
+    <row r="444" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="F444" s="11" t="s">
         <v>22</v>
       </c>
@@ -7982,7 +8131,7 @@
       </c>
       <c r="L444" s="4"/>
     </row>
-    <row r="445" spans="1:12" ht="30">
+    <row r="445" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="F445" s="15" t="s">
         <v>234</v>
       </c>
@@ -7991,7 +8140,7 @@
       </c>
       <c r="L445" s="4"/>
     </row>
-    <row r="446" spans="1:12" ht="45">
+    <row r="446" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="F446" s="15" t="s">
         <v>334</v>
       </c>
@@ -8000,7 +8149,7 @@
       </c>
       <c r="L446" s="4"/>
     </row>
-    <row r="447" spans="1:12" ht="210">
+    <row r="447" spans="1:12" ht="210" x14ac:dyDescent="0.25">
       <c r="F447" s="15" t="s">
         <v>336</v>
       </c>
@@ -8009,10 +8158,10 @@
       </c>
       <c r="L447" s="4"/>
     </row>
-    <row r="448" spans="1:12">
+    <row r="448" spans="1:12" x14ac:dyDescent="0.25">
       <c r="L448" s="4"/>
     </row>
-    <row r="449" spans="1:12" ht="45">
+    <row r="449" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A449" s="11" t="s">
         <v>363</v>
       </c>
@@ -8027,7 +8176,7 @@
       </c>
       <c r="L449" s="4"/>
     </row>
-    <row r="450" spans="1:12" ht="30">
+    <row r="450" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="F450" s="11" t="s">
         <v>22</v>
       </c>
@@ -8036,7 +8185,7 @@
       </c>
       <c r="L450" s="4"/>
     </row>
-    <row r="451" spans="1:12" ht="30">
+    <row r="451" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="F451" s="15" t="s">
         <v>234</v>
       </c>
@@ -8045,7 +8194,7 @@
       </c>
       <c r="L451" s="4"/>
     </row>
-    <row r="452" spans="1:12" ht="45">
+    <row r="452" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="F452" s="15" t="s">
         <v>339</v>
       </c>
@@ -8054,7 +8203,7 @@
       </c>
       <c r="L452" s="4"/>
     </row>
-    <row r="453" spans="1:12" ht="30">
+    <row r="453" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="F453" s="15" t="s">
         <v>330</v>
       </c>
@@ -8063,7 +8212,7 @@
       </c>
       <c r="L453" s="4"/>
     </row>
-    <row r="454" spans="1:12" ht="30">
+    <row r="454" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="F454" s="15" t="s">
         <v>324</v>
       </c>
@@ -8072,13 +8221,13 @@
       </c>
       <c r="L454" s="4"/>
     </row>
-    <row r="455" spans="1:12">
+    <row r="455" spans="1:12" x14ac:dyDescent="0.25">
       <c r="L455" s="4"/>
     </row>
-    <row r="456" spans="1:12">
+    <row r="456" spans="1:12" x14ac:dyDescent="0.25">
       <c r="L456" s="4"/>
     </row>
-    <row r="457" spans="1:12" ht="45">
+    <row r="457" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A457" s="11" t="s">
         <v>364</v>
       </c>
@@ -8093,7 +8242,7 @@
       </c>
       <c r="L457" s="4"/>
     </row>
-    <row r="458" spans="1:12" ht="30">
+    <row r="458" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="F458" s="11" t="s">
         <v>22</v>
       </c>
@@ -8102,7 +8251,7 @@
       </c>
       <c r="L458" s="4"/>
     </row>
-    <row r="459" spans="1:12" ht="30">
+    <row r="459" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="F459" s="15" t="s">
         <v>234</v>
       </c>
@@ -8111,7 +8260,7 @@
       </c>
       <c r="L459" s="4"/>
     </row>
-    <row r="460" spans="1:12" ht="45">
+    <row r="460" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="F460" s="15" t="s">
         <v>342</v>
       </c>
@@ -8120,7 +8269,7 @@
       </c>
       <c r="L460" s="4"/>
     </row>
-    <row r="461" spans="1:12" ht="30">
+    <row r="461" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="F461" s="15" t="s">
         <v>330</v>
       </c>
@@ -8129,7 +8278,7 @@
       </c>
       <c r="L461" s="4"/>
     </row>
-    <row r="462" spans="1:12" ht="30">
+    <row r="462" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="F462" s="15" t="s">
         <v>331</v>
       </c>
@@ -8138,16 +8287,16 @@
       </c>
       <c r="L462" s="4"/>
     </row>
-    <row r="463" spans="1:12">
+    <row r="463" spans="1:12" x14ac:dyDescent="0.25">
       <c r="L463" s="4"/>
     </row>
-    <row r="464" spans="1:12">
+    <row r="464" spans="1:12" x14ac:dyDescent="0.25">
       <c r="L464" s="4"/>
     </row>
-    <row r="465" spans="1:12">
+    <row r="465" spans="1:12" x14ac:dyDescent="0.25">
       <c r="L465" s="4"/>
     </row>
-    <row r="466" spans="1:12" ht="45">
+    <row r="466" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A466" s="11" t="s">
         <v>366</v>
       </c>
@@ -8162,7 +8311,7 @@
       </c>
       <c r="L466" s="4"/>
     </row>
-    <row r="467" spans="1:12" ht="30">
+    <row r="467" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="F467" s="11" t="s">
         <v>22</v>
       </c>
@@ -8171,7 +8320,7 @@
       </c>
       <c r="L467" s="4"/>
     </row>
-    <row r="468" spans="1:12" ht="30">
+    <row r="468" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="F468" s="15" t="s">
         <v>234</v>
       </c>
@@ -8180,7 +8329,7 @@
       </c>
       <c r="L468" s="4"/>
     </row>
-    <row r="469" spans="1:12" ht="45">
+    <row r="469" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="F469" s="15" t="s">
         <v>342</v>
       </c>
@@ -8189,7 +8338,7 @@
       </c>
       <c r="L469" s="4"/>
     </row>
-    <row r="470" spans="1:12" ht="30">
+    <row r="470" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="F470" s="15" t="s">
         <v>330</v>
       </c>
@@ -8198,7 +8347,7 @@
       </c>
       <c r="L470" s="4"/>
     </row>
-    <row r="471" spans="1:12" ht="30">
+    <row r="471" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="F471" s="15" t="s">
         <v>327</v>
       </c>
@@ -8207,13 +8356,13 @@
       </c>
       <c r="L471" s="4"/>
     </row>
-    <row r="472" spans="1:12">
+    <row r="472" spans="1:12" x14ac:dyDescent="0.25">
       <c r="L472" s="4"/>
     </row>
-    <row r="473" spans="1:12">
+    <row r="473" spans="1:12" x14ac:dyDescent="0.25">
       <c r="L473" s="4"/>
     </row>
-    <row r="474" spans="1:12" ht="45">
+    <row r="474" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A474" s="11" t="s">
         <v>367</v>
       </c>
@@ -8228,7 +8377,7 @@
       </c>
       <c r="L474" s="4"/>
     </row>
-    <row r="475" spans="1:12" ht="30">
+    <row r="475" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="F475" s="11" t="s">
         <v>22</v>
       </c>
@@ -8237,7 +8386,7 @@
       </c>
       <c r="L475" s="4"/>
     </row>
-    <row r="476" spans="1:12" ht="30">
+    <row r="476" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="F476" s="15" t="s">
         <v>234</v>
       </c>
@@ -8246,7 +8395,7 @@
       </c>
       <c r="L476" s="4"/>
     </row>
-    <row r="477" spans="1:12" ht="45">
+    <row r="477" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="F477" s="15" t="s">
         <v>345</v>
       </c>
@@ -8255,7 +8404,7 @@
       </c>
       <c r="L477" s="4"/>
     </row>
-    <row r="478" spans="1:12" ht="45">
+    <row r="478" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="F478" s="15" t="s">
         <v>365</v>
       </c>
@@ -8264,15 +8413,15 @@
       </c>
       <c r="L478" s="4"/>
     </row>
-    <row r="479" spans="1:12">
+    <row r="479" spans="1:12" x14ac:dyDescent="0.25">
       <c r="F479" s="15"/>
       <c r="G479" s="15"/>
       <c r="L479" s="4"/>
     </row>
-    <row r="480" spans="1:12">
+    <row r="480" spans="1:12" x14ac:dyDescent="0.25">
       <c r="L480" s="4"/>
     </row>
-    <row r="481" spans="1:12" ht="45">
+    <row r="481" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A481" s="11" t="s">
         <v>369</v>
       </c>
@@ -8287,7 +8436,7 @@
       </c>
       <c r="L481" s="4"/>
     </row>
-    <row r="482" spans="1:12" ht="30">
+    <row r="482" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="F482" s="11" t="s">
         <v>22</v>
       </c>
@@ -8296,7 +8445,7 @@
       </c>
       <c r="L482" s="4"/>
     </row>
-    <row r="483" spans="1:12" ht="30">
+    <row r="483" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="F483" s="15" t="s">
         <v>234</v>
       </c>
@@ -8305,7 +8454,7 @@
       </c>
       <c r="L483" s="4"/>
     </row>
-    <row r="484" spans="1:12" ht="30">
+    <row r="484" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="F484" s="15" t="s">
         <v>348</v>
       </c>
@@ -8315,7 +8464,7 @@
       <c r="K484" s="4"/>
       <c r="L484" s="4"/>
     </row>
-    <row r="485" spans="1:12" ht="120">
+    <row r="485" spans="1:12" ht="120" x14ac:dyDescent="0.25">
       <c r="F485" s="15" t="s">
         <v>350</v>
       </c>
@@ -8325,15 +8474,15 @@
       <c r="K485" s="4"/>
       <c r="L485" s="4"/>
     </row>
-    <row r="486" spans="1:12">
+    <row r="486" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K486" s="4"/>
       <c r="L486" s="4"/>
     </row>
-    <row r="487" spans="1:12">
+    <row r="487" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K487" s="4"/>
       <c r="L487" s="4"/>
     </row>
-    <row r="488" spans="1:12" ht="45">
+    <row r="488" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A488" s="11" t="s">
         <v>373</v>
       </c>
@@ -8349,7 +8498,7 @@
       <c r="K488" s="4"/>
       <c r="L488" s="4"/>
     </row>
-    <row r="489" spans="1:12" ht="30">
+    <row r="489" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="F489" s="15" t="s">
         <v>234</v>
       </c>
@@ -8359,7 +8508,7 @@
       <c r="K489" s="4"/>
       <c r="L489" s="4"/>
     </row>
-    <row r="490" spans="1:12" ht="45">
+    <row r="490" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="F490" s="15" t="s">
         <v>353</v>
       </c>
@@ -8369,7 +8518,7 @@
       <c r="K490" s="4"/>
       <c r="L490" s="4"/>
     </row>
-    <row r="491" spans="1:12" ht="30">
+    <row r="491" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="F491" s="15" t="s">
         <v>368</v>
       </c>
@@ -8379,17 +8528,17 @@
       <c r="K491" s="4"/>
       <c r="L491" s="4"/>
     </row>
-    <row r="492" spans="1:12">
+    <row r="492" spans="1:12" x14ac:dyDescent="0.25">
       <c r="F492"/>
       <c r="G492"/>
       <c r="K492" s="4"/>
       <c r="L492" s="4"/>
     </row>
-    <row r="493" spans="1:12">
+    <row r="493" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K493" s="4"/>
       <c r="L493" s="4"/>
     </row>
-    <row r="494" spans="1:12" ht="45">
+    <row r="494" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A494" s="11" t="s">
         <v>382</v>
       </c>
@@ -8405,7 +8554,7 @@
       <c r="K494" s="4"/>
       <c r="L494" s="4"/>
     </row>
-    <row r="495" spans="1:12" ht="30">
+    <row r="495" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="F495" s="15" t="s">
         <v>234</v>
       </c>
@@ -8415,7 +8564,7 @@
       <c r="K495" s="4"/>
       <c r="L495" s="4"/>
     </row>
-    <row r="496" spans="1:12" ht="60">
+    <row r="496" spans="1:12" ht="60" x14ac:dyDescent="0.25">
       <c r="F496" s="15" t="s">
         <v>370</v>
       </c>
@@ -8425,19 +8574,19 @@
       <c r="K496" s="4"/>
       <c r="L496" s="4"/>
     </row>
-    <row r="497" spans="1:12">
+    <row r="497" spans="1:12" x14ac:dyDescent="0.25">
       <c r="F497" s="15"/>
       <c r="G497" s="15"/>
       <c r="K497" s="4"/>
       <c r="L497" s="4"/>
     </row>
-    <row r="498" spans="1:12">
+    <row r="498" spans="1:12" x14ac:dyDescent="0.25">
       <c r="F498"/>
       <c r="G498"/>
       <c r="K498" s="4"/>
       <c r="L498" s="4"/>
     </row>
-    <row r="499" spans="1:12" ht="45">
+    <row r="499" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A499" s="11" t="s">
         <v>385</v>
       </c>
@@ -8453,7 +8602,7 @@
       <c r="K499" s="4"/>
       <c r="L499" s="4"/>
     </row>
-    <row r="500" spans="1:12" ht="30">
+    <row r="500" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="F500" s="15" t="s">
         <v>234</v>
       </c>
@@ -8463,7 +8612,7 @@
       <c r="K500" s="4"/>
       <c r="L500" s="4"/>
     </row>
-    <row r="501" spans="1:12" ht="60">
+    <row r="501" spans="1:12" ht="60" x14ac:dyDescent="0.25">
       <c r="F501" s="15" t="s">
         <v>370</v>
       </c>
@@ -8473,11 +8622,11 @@
       <c r="K501" s="4"/>
       <c r="L501" s="4"/>
     </row>
-    <row r="502" spans="1:12">
+    <row r="502" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K502" s="4"/>
       <c r="L502" s="4"/>
     </row>
-    <row r="503" spans="1:12" ht="45">
+    <row r="503" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A503" s="11" t="s">
         <v>507</v>
       </c>
@@ -8493,7 +8642,7 @@
       <c r="K503" s="4"/>
       <c r="L503" s="4"/>
     </row>
-    <row r="504" spans="1:12" ht="30">
+    <row r="504" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="F504" s="15" t="s">
         <v>234</v>
       </c>
@@ -8503,7 +8652,7 @@
       <c r="K504" s="4"/>
       <c r="L504" s="4"/>
     </row>
-    <row r="505" spans="1:12" ht="60">
+    <row r="505" spans="1:12" ht="60" x14ac:dyDescent="0.25">
       <c r="F505" s="15" t="s">
         <v>370</v>
       </c>
@@ -8513,11 +8662,11 @@
       <c r="K505" s="4"/>
       <c r="L505" s="4"/>
     </row>
-    <row r="506" spans="1:12">
+    <row r="506" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K506" s="4"/>
       <c r="L506" s="4"/>
     </row>
-    <row r="507" spans="1:12" ht="45">
+    <row r="507" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A507" s="11" t="s">
         <v>385</v>
       </c>
@@ -8533,7 +8682,7 @@
       <c r="K507" s="4"/>
       <c r="L507" s="4"/>
     </row>
-    <row r="508" spans="1:12" ht="30">
+    <row r="508" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="F508" s="15" t="s">
         <v>234</v>
       </c>
@@ -8543,7 +8692,7 @@
       <c r="K508" s="4"/>
       <c r="L508" s="4"/>
     </row>
-    <row r="509" spans="1:12" ht="45">
+    <row r="509" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="F509" s="15" t="s">
         <v>377</v>
       </c>
@@ -8551,7 +8700,7 @@
       <c r="K509" s="4"/>
       <c r="L509" s="4"/>
     </row>
-    <row r="510" spans="1:12" ht="60">
+    <row r="510" spans="1:12" ht="60" x14ac:dyDescent="0.25">
       <c r="F510" s="11" t="s">
         <v>378</v>
       </c>
@@ -8561,7 +8710,7 @@
       <c r="K510" s="4"/>
       <c r="L510" s="4"/>
     </row>
-    <row r="511" spans="1:12">
+    <row r="511" spans="1:12" x14ac:dyDescent="0.25">
       <c r="F511" s="11" t="s">
         <v>380</v>
       </c>
@@ -8571,15 +8720,15 @@
       <c r="K511" s="4"/>
       <c r="L511" s="4"/>
     </row>
-    <row r="512" spans="1:12">
+    <row r="512" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K512" s="4"/>
       <c r="L512" s="4"/>
     </row>
-    <row r="513" spans="1:12">
+    <row r="513" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K513" s="4"/>
       <c r="L513" s="4"/>
     </row>
-    <row r="514" spans="1:12" ht="45">
+    <row r="514" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A514" s="11" t="s">
         <v>507</v>
       </c>
@@ -8595,7 +8744,7 @@
       <c r="K514" s="4"/>
       <c r="L514" s="4"/>
     </row>
-    <row r="515" spans="1:12" ht="30">
+    <row r="515" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="F515" s="15" t="s">
         <v>234</v>
       </c>
@@ -8605,7 +8754,7 @@
       <c r="K515" s="4"/>
       <c r="L515" s="4"/>
     </row>
-    <row r="516" spans="1:12" ht="45">
+    <row r="516" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="F516" s="15" t="s">
         <v>383</v>
       </c>
@@ -8615,7 +8764,7 @@
       <c r="K516" s="4"/>
       <c r="L516" s="4"/>
     </row>
-    <row r="517" spans="1:12" ht="45">
+    <row r="517" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="F517" s="11" t="s">
         <v>388</v>
       </c>
@@ -8625,7 +8774,7 @@
       <c r="K517" s="4"/>
       <c r="L517" s="4"/>
     </row>
-    <row r="518" spans="1:12" ht="30">
+    <row r="518" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="F518" s="11" t="s">
         <v>390</v>
       </c>
@@ -8635,7 +8784,7 @@
       <c r="K518" s="4"/>
       <c r="L518" s="4"/>
     </row>
-    <row r="519" spans="1:12" ht="30">
+    <row r="519" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="F519" s="11" t="s">
         <v>392</v>
       </c>
@@ -8645,11 +8794,11 @@
       <c r="K519" s="4"/>
       <c r="L519" s="4"/>
     </row>
-    <row r="520" spans="1:12">
+    <row r="520" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K520" s="4"/>
       <c r="L520" s="4"/>
     </row>
-    <row r="521" spans="1:12" ht="45">
+    <row r="521" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A521" s="11" t="s">
         <v>413</v>
       </c>
@@ -8665,7 +8814,7 @@
       <c r="K521" s="4"/>
       <c r="L521" s="4"/>
     </row>
-    <row r="522" spans="1:12" ht="30">
+    <row r="522" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="F522" s="15" t="s">
         <v>234</v>
       </c>
@@ -8675,7 +8824,7 @@
       <c r="K522" s="4"/>
       <c r="L522" s="4"/>
     </row>
-    <row r="523" spans="1:12" ht="45">
+    <row r="523" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="F523" s="15" t="s">
         <v>383</v>
       </c>
@@ -8685,7 +8834,7 @@
       <c r="K523" s="4"/>
       <c r="L523" s="4"/>
     </row>
-    <row r="524" spans="1:12" ht="30">
+    <row r="524" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="F524" s="11" t="s">
         <v>390</v>
       </c>
@@ -8695,7 +8844,7 @@
       <c r="K524" s="4"/>
       <c r="L524" s="4"/>
     </row>
-    <row r="525" spans="1:12" ht="30">
+    <row r="525" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="F525" s="11" t="s">
         <v>395</v>
       </c>
@@ -8705,7 +8854,7 @@
       <c r="K525" s="4"/>
       <c r="L525" s="4"/>
     </row>
-    <row r="526" spans="1:12" ht="30">
+    <row r="526" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="F526" s="11" t="s">
         <v>397</v>
       </c>
@@ -8715,7 +8864,7 @@
       <c r="K526" s="4"/>
       <c r="L526" s="4"/>
     </row>
-    <row r="527" spans="1:12" ht="30">
+    <row r="527" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="F527" s="11" t="s">
         <v>399</v>
       </c>
@@ -8725,15 +8874,15 @@
       <c r="K527" s="4"/>
       <c r="L527" s="4"/>
     </row>
-    <row r="528" spans="1:12">
+    <row r="528" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K528" s="4"/>
       <c r="L528" s="4"/>
     </row>
-    <row r="529" spans="1:12">
+    <row r="529" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K529" s="4"/>
       <c r="L529" s="4"/>
     </row>
-    <row r="530" spans="1:12" ht="45">
+    <row r="530" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A530" s="11" t="s">
         <v>418</v>
       </c>
@@ -8749,7 +8898,7 @@
       <c r="K530" s="4"/>
       <c r="L530" s="4"/>
     </row>
-    <row r="531" spans="1:12" ht="30">
+    <row r="531" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="F531" s="15" t="s">
         <v>234</v>
       </c>
@@ -8759,7 +8908,7 @@
       <c r="K531" s="4"/>
       <c r="L531" s="4"/>
     </row>
-    <row r="532" spans="1:12" ht="45">
+    <row r="532" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="F532" s="15" t="s">
         <v>383</v>
       </c>
@@ -8769,7 +8918,7 @@
       <c r="K532" s="4"/>
       <c r="L532" s="4"/>
     </row>
-    <row r="533" spans="1:12" ht="30">
+    <row r="533" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="F533" s="11" t="s">
         <v>390</v>
       </c>
@@ -8779,7 +8928,7 @@
       <c r="K533" s="4"/>
       <c r="L533" s="4"/>
     </row>
-    <row r="534" spans="1:12" ht="30">
+    <row r="534" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="F534" s="11" t="s">
         <v>402</v>
       </c>
@@ -8789,7 +8938,7 @@
       <c r="K534" s="4"/>
       <c r="L534" s="4"/>
     </row>
-    <row r="535" spans="1:12" ht="30">
+    <row r="535" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="F535" s="11" t="s">
         <v>404</v>
       </c>
@@ -8799,7 +8948,7 @@
       <c r="K535" s="4"/>
       <c r="L535" s="4"/>
     </row>
-    <row r="536" spans="1:12" ht="30">
+    <row r="536" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="F536" s="11" t="s">
         <v>406</v>
       </c>
@@ -8809,7 +8958,7 @@
       <c r="K536" s="4"/>
       <c r="L536" s="4"/>
     </row>
-    <row r="537" spans="1:12" ht="45">
+    <row r="537" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="F537" s="11" t="s">
         <v>408</v>
       </c>
@@ -8819,23 +8968,23 @@
       <c r="K537" s="4"/>
       <c r="L537" s="4"/>
     </row>
-    <row r="538" spans="1:12">
+    <row r="538" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K538" s="4"/>
       <c r="L538" s="4"/>
     </row>
-    <row r="539" spans="1:12">
+    <row r="539" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K539" s="4"/>
       <c r="L539" s="4"/>
     </row>
-    <row r="540" spans="1:12">
+    <row r="540" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K540" s="4"/>
       <c r="L540" s="4"/>
     </row>
-    <row r="541" spans="1:12">
+    <row r="541" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K541" s="4"/>
       <c r="L541" s="4"/>
     </row>
-    <row r="542" spans="1:12" ht="45">
+    <row r="542" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A542" s="11" t="s">
         <v>508</v>
       </c>
@@ -8851,7 +9000,7 @@
       <c r="K542" s="4"/>
       <c r="L542" s="4"/>
     </row>
-    <row r="543" spans="1:12" ht="30">
+    <row r="543" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="F543" s="15" t="s">
         <v>234</v>
       </c>
@@ -8861,7 +9010,7 @@
       <c r="K543" s="4"/>
       <c r="L543" s="4"/>
     </row>
-    <row r="544" spans="1:12" ht="45">
+    <row r="544" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="F544" s="15" t="s">
         <v>383</v>
       </c>
@@ -8871,7 +9020,7 @@
       <c r="K544" s="4"/>
       <c r="L544" s="4"/>
     </row>
-    <row r="545" spans="1:12" ht="30">
+    <row r="545" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="F545" s="11" t="s">
         <v>390</v>
       </c>
@@ -8881,7 +9030,7 @@
       <c r="K545" s="4"/>
       <c r="L545" s="4"/>
     </row>
-    <row r="546" spans="1:12" ht="30">
+    <row r="546" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="F546" s="11" t="s">
         <v>411</v>
       </c>
@@ -8891,15 +9040,15 @@
       <c r="K546" s="4"/>
       <c r="L546" s="4"/>
     </row>
-    <row r="547" spans="1:12">
+    <row r="547" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K547" s="4"/>
       <c r="L547" s="4"/>
     </row>
-    <row r="548" spans="1:12">
+    <row r="548" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K548" s="4"/>
       <c r="L548" s="4"/>
     </row>
-    <row r="549" spans="1:12" ht="45">
+    <row r="549" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A549" s="11" t="s">
         <v>509</v>
       </c>
@@ -8915,7 +9064,7 @@
       <c r="K549" s="4"/>
       <c r="L549" s="4"/>
     </row>
-    <row r="550" spans="1:12" ht="30">
+    <row r="550" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="F550" s="15" t="s">
         <v>234</v>
       </c>
@@ -8925,7 +9074,7 @@
       <c r="K550" s="4"/>
       <c r="L550" s="4"/>
     </row>
-    <row r="551" spans="1:12" ht="45">
+    <row r="551" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="F551" s="15" t="s">
         <v>383</v>
       </c>
@@ -8935,7 +9084,7 @@
       <c r="K551" s="4"/>
       <c r="L551" s="4"/>
     </row>
-    <row r="552" spans="1:12" ht="30">
+    <row r="552" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="F552" s="11" t="s">
         <v>390</v>
       </c>
@@ -8945,7 +9094,7 @@
       <c r="K552" s="4"/>
       <c r="L552" s="4"/>
     </row>
-    <row r="553" spans="1:12" ht="30">
+    <row r="553" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="F553" s="11" t="s">
         <v>411</v>
       </c>
@@ -8955,23 +9104,23 @@
       <c r="K553" s="4"/>
       <c r="L553" s="4"/>
     </row>
-    <row r="554" spans="1:12">
+    <row r="554" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K554" s="4"/>
       <c r="L554" s="4"/>
     </row>
-    <row r="555" spans="1:12">
+    <row r="555" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K555" s="4"/>
       <c r="L555" s="4"/>
     </row>
-    <row r="556" spans="1:12">
+    <row r="556" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K556" s="4"/>
       <c r="L556" s="4"/>
     </row>
-    <row r="557" spans="1:12">
+    <row r="557" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K557" s="4"/>
       <c r="L557" s="4"/>
     </row>
-    <row r="558" spans="1:12" ht="45">
+    <row r="558" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A558" s="11" t="s">
         <v>510</v>
       </c>
@@ -8987,7 +9136,7 @@
       <c r="K558" s="4"/>
       <c r="L558" s="4"/>
     </row>
-    <row r="559" spans="1:12" ht="30">
+    <row r="559" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="F559" s="15" t="s">
         <v>234</v>
       </c>
@@ -8997,7 +9146,7 @@
       <c r="K559" s="4"/>
       <c r="L559" s="4"/>
     </row>
-    <row r="560" spans="1:12" ht="45">
+    <row r="560" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="F560" s="15" t="s">
         <v>383</v>
       </c>
@@ -9007,7 +9156,7 @@
       <c r="K560" s="4"/>
       <c r="L560" s="4"/>
     </row>
-    <row r="561" spans="1:12" ht="30">
+    <row r="561" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="F561" s="11" t="s">
         <v>390</v>
       </c>
@@ -9017,7 +9166,7 @@
       <c r="K561" s="4"/>
       <c r="L561" s="4"/>
     </row>
-    <row r="562" spans="1:12" ht="30">
+    <row r="562" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="F562" s="11" t="s">
         <v>411</v>
       </c>
@@ -9027,7 +9176,7 @@
       <c r="K562" s="4"/>
       <c r="L562" s="4"/>
     </row>
-    <row r="563" spans="1:12" ht="30">
+    <row r="563" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="F563" s="11" t="s">
         <v>416</v>
       </c>
@@ -9037,15 +9186,15 @@
       <c r="K563" s="4"/>
       <c r="L563" s="4"/>
     </row>
-    <row r="564" spans="1:12">
+    <row r="564" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K564" s="4"/>
       <c r="L564" s="4"/>
     </row>
-    <row r="565" spans="1:12">
+    <row r="565" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K565" s="4"/>
       <c r="L565" s="4"/>
     </row>
-    <row r="566" spans="1:12" ht="45">
+    <row r="566" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A566" s="11" t="s">
         <v>511</v>
       </c>
@@ -9064,7 +9213,7 @@
       <c r="K566" s="4"/>
       <c r="L566" s="4"/>
     </row>
-    <row r="567" spans="1:12" ht="30">
+    <row r="567" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="F567" s="15" t="s">
         <v>234</v>
       </c>
@@ -9074,7 +9223,7 @@
       <c r="K567" s="4"/>
       <c r="L567" s="4"/>
     </row>
-    <row r="568" spans="1:12" ht="45">
+    <row r="568" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="F568" s="15" t="s">
         <v>419</v>
       </c>
@@ -9084,7 +9233,7 @@
       <c r="K568" s="4"/>
       <c r="L568" s="4"/>
     </row>
-    <row r="569" spans="1:12" ht="120">
+    <row r="569" spans="1:12" ht="120" x14ac:dyDescent="0.25">
       <c r="F569" s="11" t="s">
         <v>421</v>
       </c>
@@ -9094,15 +9243,15 @@
       <c r="K569" s="4"/>
       <c r="L569" s="4"/>
     </row>
-    <row r="570" spans="1:12">
+    <row r="570" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K570" s="4"/>
       <c r="L570" s="4"/>
     </row>
-    <row r="571" spans="1:12">
+    <row r="571" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K571" s="4"/>
       <c r="L571" s="4"/>
     </row>
-    <row r="572" spans="1:12" ht="45">
+    <row r="572" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A572" s="11" t="s">
         <v>512</v>
       </c>
@@ -9121,7 +9270,7 @@
       <c r="K572" s="4"/>
       <c r="L572" s="4"/>
     </row>
-    <row r="573" spans="1:12" ht="30">
+    <row r="573" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="F573" s="15" t="s">
         <v>234</v>
       </c>
@@ -9131,7 +9280,7 @@
       <c r="K573" s="4"/>
       <c r="L573" s="4"/>
     </row>
-    <row r="574" spans="1:12" ht="45">
+    <row r="574" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="F574" s="15" t="s">
         <v>419</v>
       </c>
@@ -9141,7 +9290,7 @@
       <c r="K574" s="4"/>
       <c r="L574" s="4"/>
     </row>
-    <row r="575" spans="1:12" ht="120">
+    <row r="575" spans="1:12" ht="120" x14ac:dyDescent="0.25">
       <c r="F575" s="11" t="s">
         <v>437</v>
       </c>
@@ -9151,7 +9300,7 @@
       <c r="K575" s="4"/>
       <c r="L575" s="4"/>
     </row>
-    <row r="576" spans="1:12" ht="30">
+    <row r="576" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="F576" s="11" t="s">
         <v>431</v>
       </c>
@@ -9161,7 +9310,7 @@
       <c r="K576" s="4"/>
       <c r="L576" s="4"/>
     </row>
-    <row r="577" spans="1:12" ht="30">
+    <row r="577" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="F577" s="11" t="s">
         <v>430</v>
       </c>
@@ -9171,7 +9320,7 @@
       <c r="K577" s="4"/>
       <c r="L577" s="4"/>
     </row>
-    <row r="578" spans="1:12">
+    <row r="578" spans="1:12" x14ac:dyDescent="0.25">
       <c r="F578" s="11" t="s">
         <v>439</v>
       </c>
@@ -9181,12 +9330,12 @@
       <c r="K578" s="4"/>
       <c r="L578" s="4"/>
     </row>
-    <row r="579" spans="1:12">
+    <row r="579" spans="1:12" x14ac:dyDescent="0.25">
       <c r="D579" s="18"/>
       <c r="K579" s="4"/>
       <c r="L579" s="4"/>
     </row>
-    <row r="580" spans="1:12" ht="45">
+    <row r="580" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A580" s="11" t="s">
         <v>513</v>
       </c>
@@ -9205,7 +9354,7 @@
       <c r="K580" s="4"/>
       <c r="L580" s="4"/>
     </row>
-    <row r="581" spans="1:12" ht="30">
+    <row r="581" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="F581" s="15" t="s">
         <v>234</v>
       </c>
@@ -9215,7 +9364,7 @@
       <c r="K581" s="4"/>
       <c r="L581" s="4"/>
     </row>
-    <row r="582" spans="1:12" ht="45">
+    <row r="582" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="F582" s="15" t="s">
         <v>419</v>
       </c>
@@ -9225,7 +9374,7 @@
       <c r="K582" s="4"/>
       <c r="L582" s="4"/>
     </row>
-    <row r="583" spans="1:12" ht="120">
+    <row r="583" spans="1:12" ht="120" x14ac:dyDescent="0.25">
       <c r="F583" s="11" t="s">
         <v>436</v>
       </c>
@@ -9235,7 +9384,7 @@
       <c r="K583" s="4"/>
       <c r="L583" s="4"/>
     </row>
-    <row r="584" spans="1:12" ht="30">
+    <row r="584" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="F584" s="11" t="s">
         <v>430</v>
       </c>
@@ -9245,7 +9394,7 @@
       <c r="K584" s="4"/>
       <c r="L584" s="4"/>
     </row>
-    <row r="585" spans="1:12" ht="30">
+    <row r="585" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="F585" s="11" t="s">
         <v>429</v>
       </c>
@@ -9255,7 +9404,7 @@
       <c r="K585" s="4"/>
       <c r="L585" s="4"/>
     </row>
-    <row r="586" spans="1:12">
+    <row r="586" spans="1:12" x14ac:dyDescent="0.25">
       <c r="F586" s="11" t="s">
         <v>439</v>
       </c>
@@ -9265,13 +9414,13 @@
       <c r="K586" s="4"/>
       <c r="L586" s="4"/>
     </row>
-    <row r="587" spans="1:12">
+    <row r="587" spans="1:12" x14ac:dyDescent="0.25">
       <c r="F587" s="5"/>
       <c r="G587" s="5"/>
       <c r="K587" s="4"/>
       <c r="L587" s="4"/>
     </row>
-    <row r="588" spans="1:12" ht="45">
+    <row r="588" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A588" s="11" t="s">
         <v>514</v>
       </c>
@@ -9290,7 +9439,7 @@
       <c r="K588" s="4"/>
       <c r="L588" s="4"/>
     </row>
-    <row r="589" spans="1:12" ht="30">
+    <row r="589" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="F589" s="15" t="s">
         <v>234</v>
       </c>
@@ -9300,7 +9449,7 @@
       <c r="K589" s="4"/>
       <c r="L589" s="4"/>
     </row>
-    <row r="590" spans="1:12" ht="45">
+    <row r="590" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="F590" s="15" t="s">
         <v>419</v>
       </c>
@@ -9310,7 +9459,7 @@
       <c r="K590" s="4"/>
       <c r="L590" s="4"/>
     </row>
-    <row r="591" spans="1:12" ht="120">
+    <row r="591" spans="1:12" ht="120" x14ac:dyDescent="0.25">
       <c r="F591" s="11" t="s">
         <v>435</v>
       </c>
@@ -9320,7 +9469,7 @@
       <c r="K591" s="4"/>
       <c r="L591" s="4"/>
     </row>
-    <row r="592" spans="1:12" ht="30">
+    <row r="592" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="F592" s="11" t="s">
         <v>429</v>
       </c>
@@ -9330,7 +9479,7 @@
       <c r="K592" s="4"/>
       <c r="L592" s="4"/>
     </row>
-    <row r="593" spans="1:12">
+    <row r="593" spans="1:12" x14ac:dyDescent="0.25">
       <c r="F593" s="11" t="s">
         <v>439</v>
       </c>
@@ -9340,7 +9489,7 @@
       <c r="K593" s="4"/>
       <c r="L593" s="4"/>
     </row>
-    <row r="594" spans="1:12">
+    <row r="594" spans="1:12" x14ac:dyDescent="0.25">
       <c r="F594" s="11" t="s">
         <v>441</v>
       </c>
@@ -9350,17 +9499,17 @@
       <c r="K594" s="4"/>
       <c r="L594" s="4"/>
     </row>
-    <row r="595" spans="1:12">
+    <row r="595" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K595" s="4"/>
       <c r="L595" s="4"/>
     </row>
-    <row r="596" spans="1:12">
+    <row r="596" spans="1:12" x14ac:dyDescent="0.25">
       <c r="F596" s="5"/>
       <c r="G596" s="5"/>
       <c r="K596" s="4"/>
       <c r="L596" s="4"/>
     </row>
-    <row r="597" spans="1:12" ht="45">
+    <row r="597" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A597" s="11" t="s">
         <v>424</v>
       </c>
@@ -9379,7 +9528,7 @@
       <c r="K597" s="4"/>
       <c r="L597" s="4"/>
     </row>
-    <row r="598" spans="1:12" ht="30">
+    <row r="598" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="F598" s="15" t="s">
         <v>234</v>
       </c>
@@ -9389,7 +9538,7 @@
       <c r="K598" s="4"/>
       <c r="L598" s="4"/>
     </row>
-    <row r="599" spans="1:12" ht="45">
+    <row r="599" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="F599" s="15" t="s">
         <v>419</v>
       </c>
@@ -9399,7 +9548,7 @@
       <c r="K599" s="4"/>
       <c r="L599" s="4"/>
     </row>
-    <row r="600" spans="1:12" ht="120">
+    <row r="600" spans="1:12" ht="120" x14ac:dyDescent="0.25">
       <c r="F600" s="11" t="s">
         <v>421</v>
       </c>
@@ -9409,7 +9558,7 @@
       <c r="K600" s="4"/>
       <c r="L600" s="4"/>
     </row>
-    <row r="601" spans="1:12" ht="30">
+    <row r="601" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="F601" s="11" t="s">
         <v>429</v>
       </c>
@@ -9419,7 +9568,7 @@
       <c r="K601" s="4"/>
       <c r="L601" s="4"/>
     </row>
-    <row r="602" spans="1:12">
+    <row r="602" spans="1:12" x14ac:dyDescent="0.25">
       <c r="F602" s="11" t="s">
         <v>439</v>
       </c>
@@ -9429,7 +9578,7 @@
       <c r="K602" s="4"/>
       <c r="L602" s="4"/>
     </row>
-    <row r="603" spans="1:12">
+    <row r="603" spans="1:12" x14ac:dyDescent="0.25">
       <c r="F603" s="11" t="s">
         <v>441</v>
       </c>
@@ -9439,15 +9588,15 @@
       <c r="K603" s="4"/>
       <c r="L603" s="4"/>
     </row>
-    <row r="604" spans="1:12">
+    <row r="604" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K604" s="4"/>
       <c r="L604" s="4"/>
     </row>
-    <row r="605" spans="1:12">
+    <row r="605" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K605" s="4"/>
       <c r="L605" s="4"/>
     </row>
-    <row r="606" spans="1:12" ht="45">
+    <row r="606" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A606" s="11" t="s">
         <v>427</v>
       </c>
@@ -9466,7 +9615,7 @@
       <c r="K606" s="4"/>
       <c r="L606" s="4"/>
     </row>
-    <row r="607" spans="1:12" ht="30">
+    <row r="607" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="F607" s="15" t="s">
         <v>234</v>
       </c>
@@ -9476,7 +9625,7 @@
       <c r="K607" s="4"/>
       <c r="L607" s="4"/>
     </row>
-    <row r="608" spans="1:12" ht="45">
+    <row r="608" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="F608" s="15" t="s">
         <v>419</v>
       </c>
@@ -9486,7 +9635,7 @@
       <c r="K608" s="4"/>
       <c r="L608" s="4"/>
     </row>
-    <row r="609" spans="1:12" ht="120">
+    <row r="609" spans="1:12" ht="120" x14ac:dyDescent="0.25">
       <c r="F609" s="11" t="s">
         <v>421</v>
       </c>
@@ -9496,7 +9645,7 @@
       <c r="K609" s="4"/>
       <c r="L609" s="4"/>
     </row>
-    <row r="610" spans="1:12" ht="30">
+    <row r="610" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="F610" s="11" t="s">
         <v>429</v>
       </c>
@@ -9506,7 +9655,7 @@
       <c r="K610" s="4"/>
       <c r="L610" s="4"/>
     </row>
-    <row r="611" spans="1:12">
+    <row r="611" spans="1:12" x14ac:dyDescent="0.25">
       <c r="F611" s="11" t="s">
         <v>439</v>
       </c>
@@ -9516,7 +9665,7 @@
       <c r="K611" s="4"/>
       <c r="L611" s="4"/>
     </row>
-    <row r="612" spans="1:12">
+    <row r="612" spans="1:12" x14ac:dyDescent="0.25">
       <c r="F612" s="11" t="s">
         <v>441</v>
       </c>
@@ -9526,11 +9675,11 @@
       <c r="K612" s="4"/>
       <c r="L612" s="4"/>
     </row>
-    <row r="613" spans="1:12">
+    <row r="613" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K613" s="4"/>
       <c r="L613" s="4"/>
     </row>
-    <row r="614" spans="1:12" ht="45">
+    <row r="614" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A614" s="11" t="s">
         <v>515</v>
       </c>
@@ -9549,7 +9698,7 @@
       <c r="K614" s="4"/>
       <c r="L614" s="4"/>
     </row>
-    <row r="615" spans="1:12" ht="30">
+    <row r="615" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="F615" s="15" t="s">
         <v>234</v>
       </c>
@@ -9559,7 +9708,7 @@
       <c r="K615" s="4"/>
       <c r="L615" s="4"/>
     </row>
-    <row r="616" spans="1:12" ht="45">
+    <row r="616" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="F616" s="15" t="s">
         <v>444</v>
       </c>
@@ -9569,7 +9718,7 @@
       <c r="K616" s="4"/>
       <c r="L616" s="4"/>
     </row>
-    <row r="617" spans="1:12" ht="75">
+    <row r="617" spans="1:12" ht="75" x14ac:dyDescent="0.25">
       <c r="F617" s="11" t="s">
         <v>446</v>
       </c>
@@ -9579,11 +9728,11 @@
       <c r="K617" s="4"/>
       <c r="L617" s="4"/>
     </row>
-    <row r="618" spans="1:12">
+    <row r="618" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K618" s="4"/>
       <c r="L618" s="4"/>
     </row>
-    <row r="619" spans="1:12" ht="45">
+    <row r="619" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A619" s="11" t="s">
         <v>516</v>
       </c>
@@ -9602,7 +9751,7 @@
       <c r="K619" s="4"/>
       <c r="L619" s="4"/>
     </row>
-    <row r="620" spans="1:12" ht="30">
+    <row r="620" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="F620" s="15" t="s">
         <v>234</v>
       </c>
@@ -9612,7 +9761,7 @@
       <c r="K620" s="4"/>
       <c r="L620" s="4"/>
     </row>
-    <row r="621" spans="1:12" ht="45">
+    <row r="621" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="F621" s="15" t="s">
         <v>444</v>
       </c>
@@ -9622,7 +9771,7 @@
       <c r="K621" s="4"/>
       <c r="L621" s="4"/>
     </row>
-    <row r="622" spans="1:12" ht="75">
+    <row r="622" spans="1:12" ht="75" x14ac:dyDescent="0.25">
       <c r="F622" s="11" t="s">
         <v>454</v>
       </c>
@@ -9632,19 +9781,19 @@
       <c r="K622" s="4"/>
       <c r="L622" s="4"/>
     </row>
-    <row r="623" spans="1:12">
+    <row r="623" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K623" s="4"/>
       <c r="L623" s="4"/>
     </row>
-    <row r="624" spans="1:12">
+    <row r="624" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K624" s="4"/>
       <c r="L624" s="4"/>
     </row>
-    <row r="625" spans="1:12">
+    <row r="625" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K625" s="4"/>
       <c r="L625" s="4"/>
     </row>
-    <row r="626" spans="1:12" ht="45">
+    <row r="626" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A626" s="11" t="s">
         <v>443</v>
       </c>
@@ -9663,7 +9812,7 @@
       <c r="K626" s="4"/>
       <c r="L626" s="4"/>
     </row>
-    <row r="627" spans="1:12" ht="30">
+    <row r="627" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="F627" s="15" t="s">
         <v>234</v>
       </c>
@@ -9673,7 +9822,7 @@
       <c r="K627" s="4"/>
       <c r="L627" s="4"/>
     </row>
-    <row r="628" spans="1:12" ht="45">
+    <row r="628" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="F628" s="15" t="s">
         <v>444</v>
       </c>
@@ -9683,7 +9832,7 @@
       <c r="K628" s="4"/>
       <c r="L628" s="4"/>
     </row>
-    <row r="629" spans="1:12" ht="75">
+    <row r="629" spans="1:12" ht="75" x14ac:dyDescent="0.25">
       <c r="F629" s="11" t="s">
         <v>453</v>
       </c>
@@ -9693,15 +9842,15 @@
       <c r="K629" s="4"/>
       <c r="L629" s="4"/>
     </row>
-    <row r="630" spans="1:12">
+    <row r="630" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K630" s="4"/>
       <c r="L630" s="4"/>
     </row>
-    <row r="631" spans="1:12">
+    <row r="631" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K631" s="4"/>
       <c r="L631" s="4"/>
     </row>
-    <row r="632" spans="1:12" ht="45">
+    <row r="632" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A632" s="11" t="s">
         <v>517</v>
       </c>
@@ -9720,7 +9869,7 @@
       <c r="K632" s="4"/>
       <c r="L632" s="4"/>
     </row>
-    <row r="633" spans="1:12" ht="30">
+    <row r="633" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="F633" s="15" t="s">
         <v>234</v>
       </c>
@@ -9730,7 +9879,7 @@
       <c r="K633" s="4"/>
       <c r="L633" s="4"/>
     </row>
-    <row r="634" spans="1:12" ht="45">
+    <row r="634" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="F634" s="15" t="s">
         <v>444</v>
       </c>
@@ -9740,7 +9889,7 @@
       <c r="K634" s="4"/>
       <c r="L634" s="4"/>
     </row>
-    <row r="635" spans="1:12" ht="75">
+    <row r="635" spans="1:12" ht="75" x14ac:dyDescent="0.25">
       <c r="F635" s="11" t="s">
         <v>452</v>
       </c>
@@ -9750,15 +9899,15 @@
       <c r="K635" s="4"/>
       <c r="L635" s="4"/>
     </row>
-    <row r="636" spans="1:12">
+    <row r="636" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K636" s="4"/>
       <c r="L636" s="4"/>
     </row>
-    <row r="637" spans="1:12">
+    <row r="637" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K637" s="4"/>
       <c r="L637" s="4"/>
     </row>
-    <row r="638" spans="1:12" ht="45">
+    <row r="638" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A638" s="11" t="s">
         <v>518</v>
       </c>
@@ -9777,7 +9926,7 @@
       <c r="K638" s="4"/>
       <c r="L638" s="4"/>
     </row>
-    <row r="639" spans="1:12" ht="30">
+    <row r="639" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="F639" s="15" t="s">
         <v>234</v>
       </c>
@@ -9787,7 +9936,7 @@
       <c r="K639" s="4"/>
       <c r="L639" s="4"/>
     </row>
-    <row r="640" spans="1:12" ht="45">
+    <row r="640" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="F640" s="15" t="s">
         <v>455</v>
       </c>
@@ -9797,7 +9946,7 @@
       <c r="K640" s="4"/>
       <c r="L640" s="4"/>
     </row>
-    <row r="641" spans="1:12" ht="30">
+    <row r="641" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="F641" s="11" t="s">
         <v>457</v>
       </c>
@@ -9807,19 +9956,19 @@
       <c r="K641" s="4"/>
       <c r="L641" s="4"/>
     </row>
-    <row r="642" spans="1:12">
+    <row r="642" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K642" s="4"/>
       <c r="L642" s="4"/>
     </row>
-    <row r="643" spans="1:12">
+    <row r="643" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K643" s="4"/>
       <c r="L643" s="4"/>
     </row>
-    <row r="644" spans="1:12">
+    <row r="644" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K644" s="4"/>
       <c r="L644" s="4"/>
     </row>
-    <row r="645" spans="1:12" ht="45">
+    <row r="645" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A645" s="11" t="s">
         <v>519</v>
       </c>
@@ -9838,7 +9987,7 @@
       <c r="K645" s="4"/>
       <c r="L645" s="4"/>
     </row>
-    <row r="646" spans="1:12" ht="30">
+    <row r="646" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="F646" s="15" t="s">
         <v>234</v>
       </c>
@@ -9848,7 +9997,7 @@
       <c r="K646" s="4"/>
       <c r="L646" s="4"/>
     </row>
-    <row r="647" spans="1:12" ht="45">
+    <row r="647" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="F647" s="15" t="s">
         <v>455</v>
       </c>
@@ -9858,7 +10007,7 @@
       <c r="K647" s="4"/>
       <c r="L647" s="4"/>
     </row>
-    <row r="648" spans="1:12" ht="30">
+    <row r="648" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="F648" s="11" t="s">
         <v>461</v>
       </c>
@@ -9871,19 +10020,19 @@
       <c r="K648" s="4"/>
       <c r="L648" s="4"/>
     </row>
-    <row r="649" spans="1:12">
+    <row r="649" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K649" s="4"/>
       <c r="L649" s="4"/>
     </row>
-    <row r="650" spans="1:12">
+    <row r="650" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K650" s="4"/>
       <c r="L650" s="4"/>
     </row>
-    <row r="651" spans="1:12">
+    <row r="651" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K651" s="4"/>
       <c r="L651" s="4"/>
     </row>
-    <row r="652" spans="1:12" ht="45">
+    <row r="652" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A652" s="11" t="s">
         <v>520</v>
       </c>
@@ -9902,7 +10051,7 @@
       <c r="K652" s="4"/>
       <c r="L652" s="4"/>
     </row>
-    <row r="653" spans="1:12" ht="30">
+    <row r="653" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="F653" s="15" t="s">
         <v>234</v>
       </c>
@@ -9912,7 +10061,7 @@
       <c r="K653" s="4"/>
       <c r="L653" s="4"/>
     </row>
-    <row r="654" spans="1:12" ht="45">
+    <row r="654" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="F654" s="15" t="s">
         <v>463</v>
       </c>
@@ -9922,7 +10071,7 @@
       <c r="K654" s="4"/>
       <c r="L654" s="4"/>
     </row>
-    <row r="655" spans="1:12" ht="240">
+    <row r="655" spans="1:12" ht="240" x14ac:dyDescent="0.25">
       <c r="F655" s="11" t="s">
         <v>466</v>
       </c>
@@ -9932,15 +10081,15 @@
       <c r="K655" s="4"/>
       <c r="L655" s="4"/>
     </row>
-    <row r="656" spans="1:12">
+    <row r="656" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K656" s="4"/>
       <c r="L656" s="4"/>
     </row>
-    <row r="657" spans="1:12">
+    <row r="657" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K657" s="4"/>
       <c r="L657" s="4"/>
     </row>
-    <row r="658" spans="1:12" ht="45">
+    <row r="658" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A658" s="11" t="s">
         <v>521</v>
       </c>
@@ -9959,7 +10108,7 @@
       <c r="K658" s="4"/>
       <c r="L658" s="4"/>
     </row>
-    <row r="659" spans="1:12" ht="30">
+    <row r="659" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="F659" s="15" t="s">
         <v>234</v>
       </c>
@@ -9969,7 +10118,7 @@
       <c r="K659" s="4"/>
       <c r="L659" s="4"/>
     </row>
-    <row r="660" spans="1:12" ht="45">
+    <row r="660" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="F660" s="15" t="s">
         <v>463</v>
       </c>
@@ -9979,7 +10128,7 @@
       <c r="K660" s="4"/>
       <c r="L660" s="4"/>
     </row>
-    <row r="661" spans="1:12" ht="240">
+    <row r="661" spans="1:12" ht="240" x14ac:dyDescent="0.25">
       <c r="F661" s="11" t="s">
         <v>468</v>
       </c>
@@ -9989,19 +10138,19 @@
       <c r="K661" s="4"/>
       <c r="L661" s="4"/>
     </row>
-    <row r="662" spans="1:12">
+    <row r="662" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K662" s="4"/>
       <c r="L662" s="4"/>
     </row>
-    <row r="663" spans="1:12">
+    <row r="663" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K663" s="4"/>
       <c r="L663" s="4"/>
     </row>
-    <row r="664" spans="1:12">
+    <row r="664" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K664" s="4"/>
       <c r="L664" s="4"/>
     </row>
-    <row r="665" spans="1:12" ht="45">
+    <row r="665" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A665" s="11" t="s">
         <v>522</v>
       </c>
@@ -10020,7 +10169,7 @@
       <c r="K665" s="4"/>
       <c r="L665" s="4"/>
     </row>
-    <row r="666" spans="1:12" ht="30">
+    <row r="666" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="F666" s="15" t="s">
         <v>234</v>
       </c>
@@ -10030,7 +10179,7 @@
       <c r="K666" s="4"/>
       <c r="L666" s="4"/>
     </row>
-    <row r="667" spans="1:12" ht="45">
+    <row r="667" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="F667" s="15" t="s">
         <v>463</v>
       </c>
@@ -10040,7 +10189,7 @@
       <c r="K667" s="4"/>
       <c r="L667" s="4"/>
     </row>
-    <row r="668" spans="1:12" ht="240">
+    <row r="668" spans="1:12" ht="240" x14ac:dyDescent="0.25">
       <c r="F668" s="11" t="s">
         <v>469</v>
       </c>
@@ -10050,15 +10199,15 @@
       <c r="K668" s="4"/>
       <c r="L668" s="4"/>
     </row>
-    <row r="669" spans="1:12">
+    <row r="669" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K669" s="4"/>
       <c r="L669" s="4"/>
     </row>
-    <row r="670" spans="1:12">
+    <row r="670" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K670" s="4"/>
       <c r="L670" s="4"/>
     </row>
-    <row r="671" spans="1:12" ht="45">
+    <row r="671" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A671" s="11" t="s">
         <v>523</v>
       </c>
@@ -10077,7 +10226,7 @@
       <c r="K671" s="4"/>
       <c r="L671" s="4"/>
     </row>
-    <row r="672" spans="1:12" ht="30">
+    <row r="672" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="F672" s="15" t="s">
         <v>234</v>
       </c>
@@ -10087,7 +10236,7 @@
       <c r="K672" s="4"/>
       <c r="L672" s="4"/>
     </row>
-    <row r="673" spans="1:12" ht="45">
+    <row r="673" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="F673" s="15" t="s">
         <v>463</v>
       </c>
@@ -10097,7 +10246,7 @@
       <c r="K673" s="4"/>
       <c r="L673" s="4"/>
     </row>
-    <row r="674" spans="1:12" ht="240">
+    <row r="674" spans="1:12" ht="240" x14ac:dyDescent="0.25">
       <c r="F674" s="11" t="s">
         <v>471</v>
       </c>
@@ -10107,15 +10256,15 @@
       <c r="K674" s="4"/>
       <c r="L674" s="4"/>
     </row>
-    <row r="675" spans="1:12">
+    <row r="675" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K675" s="4"/>
       <c r="L675" s="4"/>
     </row>
-    <row r="676" spans="1:12">
+    <row r="676" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K676" s="4"/>
       <c r="L676" s="4"/>
     </row>
-    <row r="677" spans="1:12" ht="45">
+    <row r="677" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A677" s="11" t="s">
         <v>524</v>
       </c>
@@ -10134,7 +10283,7 @@
       <c r="K677" s="4"/>
       <c r="L677" s="4"/>
     </row>
-    <row r="678" spans="1:12" ht="30">
+    <row r="678" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="F678" s="15" t="s">
         <v>234</v>
       </c>
@@ -10144,7 +10293,7 @@
       <c r="K678" s="4"/>
       <c r="L678" s="4"/>
     </row>
-    <row r="679" spans="1:12" ht="45">
+    <row r="679" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="F679" s="15" t="s">
         <v>463</v>
       </c>
@@ -10154,7 +10303,7 @@
       <c r="K679" s="4"/>
       <c r="L679" s="4"/>
     </row>
-    <row r="680" spans="1:12" ht="240">
+    <row r="680" spans="1:12" ht="240" x14ac:dyDescent="0.25">
       <c r="F680" s="11" t="s">
         <v>472</v>
       </c>
@@ -10164,15 +10313,15 @@
       <c r="K680" s="4"/>
       <c r="L680" s="4"/>
     </row>
-    <row r="681" spans="1:12">
+    <row r="681" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K681" s="4"/>
       <c r="L681" s="4"/>
     </row>
-    <row r="682" spans="1:12">
+    <row r="682" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K682" s="4"/>
       <c r="L682" s="4"/>
     </row>
-    <row r="683" spans="1:12" ht="45">
+    <row r="683" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A683" s="11" t="s">
         <v>525</v>
       </c>
@@ -10191,7 +10340,7 @@
       <c r="K683" s="4"/>
       <c r="L683" s="4"/>
     </row>
-    <row r="684" spans="1:12" ht="30">
+    <row r="684" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="F684" s="15" t="s">
         <v>234</v>
       </c>
@@ -10201,7 +10350,7 @@
       <c r="K684" s="4"/>
       <c r="L684" s="4"/>
     </row>
-    <row r="685" spans="1:12" ht="45">
+    <row r="685" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="F685" s="15" t="s">
         <v>474</v>
       </c>
@@ -10214,7 +10363,7 @@
       <c r="K685" s="4"/>
       <c r="L685" s="4"/>
     </row>
-    <row r="686" spans="1:12" ht="45">
+    <row r="686" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="F686" s="11" t="s">
         <v>480</v>
       </c>
@@ -10224,15 +10373,15 @@
       <c r="K686" s="4"/>
       <c r="L686" s="4"/>
     </row>
-    <row r="687" spans="1:12">
+    <row r="687" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K687" s="4"/>
       <c r="L687" s="4"/>
     </row>
-    <row r="688" spans="1:12">
+    <row r="688" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K688" s="4"/>
       <c r="L688" s="4"/>
     </row>
-    <row r="689" spans="1:12" ht="45">
+    <row r="689" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A689" s="11" t="s">
         <v>526</v>
       </c>
@@ -10251,7 +10400,7 @@
       <c r="K689" s="4"/>
       <c r="L689" s="4"/>
     </row>
-    <row r="690" spans="1:12" ht="30">
+    <row r="690" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="F690" s="15" t="s">
         <v>234</v>
       </c>
@@ -10261,7 +10410,7 @@
       <c r="K690" s="4"/>
       <c r="L690" s="4"/>
     </row>
-    <row r="691" spans="1:12" ht="45">
+    <row r="691" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="F691" s="15" t="s">
         <v>474</v>
       </c>
@@ -10270,7 +10419,7 @@
       </c>
       <c r="L691" s="4"/>
     </row>
-    <row r="692" spans="1:12" ht="45">
+    <row r="692" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="F692" s="11" t="s">
         <v>481</v>
       </c>
@@ -10279,13 +10428,13 @@
       </c>
       <c r="L692" s="4"/>
     </row>
-    <row r="693" spans="1:12">
+    <row r="693" spans="1:12" x14ac:dyDescent="0.25">
       <c r="L693" s="4"/>
     </row>
-    <row r="694" spans="1:12">
+    <row r="694" spans="1:12" x14ac:dyDescent="0.25">
       <c r="L694" s="4"/>
     </row>
-    <row r="695" spans="1:12" ht="45">
+    <row r="695" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A695" s="11" t="s">
         <v>527</v>
       </c>
@@ -10303,7 +10452,7 @@
       </c>
       <c r="L695" s="4"/>
     </row>
-    <row r="696" spans="1:12" ht="30">
+    <row r="696" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="F696" s="15" t="s">
         <v>234</v>
       </c>
@@ -10312,7 +10461,7 @@
       </c>
       <c r="L696" s="4"/>
     </row>
-    <row r="697" spans="1:12" ht="45">
+    <row r="697" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="F697" s="15" t="s">
         <v>474</v>
       </c>
@@ -10321,7 +10470,7 @@
       </c>
       <c r="L697" s="4"/>
     </row>
-    <row r="698" spans="1:12" ht="45">
+    <row r="698" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="F698" s="11" t="s">
         <v>482</v>
       </c>
@@ -10330,13 +10479,13 @@
       </c>
       <c r="L698" s="4"/>
     </row>
-    <row r="699" spans="1:12">
+    <row r="699" spans="1:12" x14ac:dyDescent="0.25">
       <c r="L699" s="4"/>
     </row>
-    <row r="700" spans="1:12">
+    <row r="700" spans="1:12" x14ac:dyDescent="0.25">
       <c r="L700" s="4"/>
     </row>
-    <row r="701" spans="1:12" ht="45">
+    <row r="701" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A701" s="11" t="s">
         <v>528</v>
       </c>
@@ -10354,7 +10503,7 @@
       </c>
       <c r="L701" s="4"/>
     </row>
-    <row r="702" spans="1:12" ht="30">
+    <row r="702" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="F702" s="15" t="s">
         <v>234</v>
       </c>
@@ -10363,7 +10512,7 @@
       </c>
       <c r="L702" s="4"/>
     </row>
-    <row r="703" spans="1:12" ht="45">
+    <row r="703" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="F703" s="15" t="s">
         <v>474</v>
       </c>
@@ -10372,7 +10521,7 @@
       </c>
       <c r="L703" s="4"/>
     </row>
-    <row r="704" spans="1:12" ht="45">
+    <row r="704" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="F704" s="11" t="s">
         <v>483</v>
       </c>
@@ -10381,13 +10530,13 @@
       </c>
       <c r="L704" s="4"/>
     </row>
-    <row r="705" spans="1:12">
+    <row r="705" spans="1:12" x14ac:dyDescent="0.25">
       <c r="L705" s="4"/>
     </row>
-    <row r="706" spans="1:12">
+    <row r="706" spans="1:12" x14ac:dyDescent="0.25">
       <c r="L706" s="4"/>
     </row>
-    <row r="707" spans="1:12" ht="45">
+    <row r="707" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A707" s="11" t="s">
         <v>529</v>
       </c>
@@ -10405,7 +10554,7 @@
       </c>
       <c r="L707" s="4"/>
     </row>
-    <row r="708" spans="1:12" ht="30">
+    <row r="708" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="F708" s="15" t="s">
         <v>234</v>
       </c>
@@ -10414,7 +10563,7 @@
       </c>
       <c r="L708" s="4"/>
     </row>
-    <row r="709" spans="1:12" ht="45">
+    <row r="709" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="F709" s="15" t="s">
         <v>474</v>
       </c>
@@ -10423,7 +10572,7 @@
       </c>
       <c r="L709" s="4"/>
     </row>
-    <row r="710" spans="1:12" ht="45">
+    <row r="710" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="F710" s="11" t="s">
         <v>484</v>
       </c>
@@ -10432,13 +10581,13 @@
       </c>
       <c r="L710" s="4"/>
     </row>
-    <row r="711" spans="1:12">
+    <row r="711" spans="1:12" x14ac:dyDescent="0.25">
       <c r="L711" s="4"/>
     </row>
-    <row r="712" spans="1:12">
+    <row r="712" spans="1:12" x14ac:dyDescent="0.25">
       <c r="L712" s="4"/>
     </row>
-    <row r="713" spans="1:12" ht="45">
+    <row r="713" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A713" s="11" t="s">
         <v>530</v>
       </c>
@@ -10456,7 +10605,7 @@
       </c>
       <c r="L713" s="4"/>
     </row>
-    <row r="714" spans="1:12" ht="30">
+    <row r="714" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="F714" s="15" t="s">
         <v>234</v>
       </c>
@@ -10465,7 +10614,7 @@
       </c>
       <c r="L714" s="4"/>
     </row>
-    <row r="715" spans="1:12" ht="45">
+    <row r="715" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="F715" s="15" t="s">
         <v>474</v>
       </c>
@@ -10474,7 +10623,7 @@
       </c>
       <c r="L715" s="4"/>
     </row>
-    <row r="716" spans="1:12" ht="45">
+    <row r="716" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="F716" s="11" t="s">
         <v>484</v>
       </c>
@@ -10483,10 +10632,10 @@
       </c>
       <c r="L716" s="4"/>
     </row>
-    <row r="717" spans="1:12">
+    <row r="717" spans="1:12" x14ac:dyDescent="0.25">
       <c r="L717" s="4"/>
     </row>
-    <row r="718" spans="1:12" ht="45">
+    <row r="718" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A718" s="11" t="s">
         <v>531</v>
       </c>
@@ -10504,7 +10653,7 @@
       </c>
       <c r="L718" s="4"/>
     </row>
-    <row r="719" spans="1:12" ht="30">
+    <row r="719" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="F719" s="15" t="s">
         <v>234</v>
       </c>
@@ -10513,7 +10662,7 @@
       </c>
       <c r="L719" s="4"/>
     </row>
-    <row r="720" spans="1:12" ht="45">
+    <row r="720" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="F720" s="15" t="s">
         <v>486</v>
       </c>
@@ -10522,7 +10671,7 @@
       </c>
       <c r="L720" s="4"/>
     </row>
-    <row r="721" spans="1:12" ht="30">
+    <row r="721" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="F721" s="11" t="s">
         <v>489</v>
       </c>
@@ -10531,10 +10680,10 @@
       </c>
       <c r="L721" s="4"/>
     </row>
-    <row r="722" spans="1:12">
+    <row r="722" spans="1:12" x14ac:dyDescent="0.25">
       <c r="L722" s="4"/>
     </row>
-    <row r="723" spans="1:12" ht="45">
+    <row r="723" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A723" s="11" t="s">
         <v>532</v>
       </c>
@@ -10552,7 +10701,7 @@
       </c>
       <c r="L723" s="4"/>
     </row>
-    <row r="724" spans="1:12" ht="30">
+    <row r="724" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="F724" s="15" t="s">
         <v>234</v>
       </c>
@@ -10561,7 +10710,7 @@
       </c>
       <c r="L724" s="4"/>
     </row>
-    <row r="725" spans="1:12" ht="45">
+    <row r="725" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="F725" s="15" t="s">
         <v>486</v>
       </c>
@@ -10570,7 +10719,7 @@
       </c>
       <c r="L725" s="4"/>
     </row>
-    <row r="726" spans="1:12" ht="30">
+    <row r="726" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="F726" s="11" t="s">
         <v>489</v>
       </c>
@@ -10579,7 +10728,7 @@
       </c>
       <c r="L726" s="4"/>
     </row>
-    <row r="727" spans="1:12" ht="45">
+    <row r="727" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="F727" s="11" t="s">
         <v>492</v>
       </c>
@@ -10588,7 +10737,7 @@
       </c>
       <c r="L727" s="4"/>
     </row>
-    <row r="728" spans="1:12" ht="30">
+    <row r="728" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="F728" s="11" t="s">
         <v>494</v>
       </c>
@@ -10597,13 +10746,13 @@
       </c>
       <c r="L728" s="4"/>
     </row>
-    <row r="729" spans="1:12">
+    <row r="729" spans="1:12" x14ac:dyDescent="0.25">
       <c r="L729" s="4"/>
     </row>
-    <row r="730" spans="1:12">
+    <row r="730" spans="1:12" x14ac:dyDescent="0.25">
       <c r="L730" s="4"/>
     </row>
-    <row r="731" spans="1:12" ht="45">
+    <row r="731" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A731" s="11" t="s">
         <v>533</v>
       </c>
@@ -10621,7 +10770,7 @@
       </c>
       <c r="L731" s="4"/>
     </row>
-    <row r="732" spans="1:12" ht="30">
+    <row r="732" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="F732" s="15" t="s">
         <v>234</v>
       </c>
@@ -10630,7 +10779,7 @@
       </c>
       <c r="L732" s="4"/>
     </row>
-    <row r="733" spans="1:12" ht="45">
+    <row r="733" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="F733" s="15" t="s">
         <v>497</v>
       </c>
@@ -10639,7 +10788,7 @@
       </c>
       <c r="L733" s="4"/>
     </row>
-    <row r="734" spans="1:12" ht="30">
+    <row r="734" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="F734" s="11" t="s">
         <v>498</v>
       </c>
@@ -10648,10 +10797,10 @@
       </c>
       <c r="L734" s="4"/>
     </row>
-    <row r="735" spans="1:12">
+    <row r="735" spans="1:12" x14ac:dyDescent="0.25">
       <c r="L735" s="4"/>
     </row>
-    <row r="739" spans="1:7" ht="45">
+    <row r="739" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A739" s="11" t="s">
         <v>534</v>
       </c>
@@ -10668,7 +10817,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="740" spans="1:7" ht="30">
+    <row r="740" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="F740" s="15" t="s">
         <v>234</v>
       </c>
@@ -10676,7 +10825,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="741" spans="1:7" ht="45">
+    <row r="741" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="F741" s="15" t="s">
         <v>486</v>
       </c>
@@ -10684,7 +10833,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="742" spans="1:7" ht="30">
+    <row r="742" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="F742" s="11" t="s">
         <v>489</v>
       </c>
@@ -10692,7 +10841,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="743" spans="1:7" ht="45">
+    <row r="743" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="F743" s="11" t="s">
         <v>492</v>
       </c>
@@ -10700,7 +10849,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="744" spans="1:7" ht="30">
+    <row r="744" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="F744" s="11" t="s">
         <v>494</v>
       </c>
@@ -10708,7 +10857,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="747" spans="1:7" ht="45">
+    <row r="747" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A747" s="11" t="s">
         <v>535</v>
       </c>
@@ -10725,7 +10874,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="748" spans="1:7" ht="30">
+    <row r="748" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="F748" s="15" t="s">
         <v>234</v>
       </c>
@@ -10733,7 +10882,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="749" spans="1:7" ht="45">
+    <row r="749" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="F749" s="15" t="s">
         <v>486</v>
       </c>
@@ -10741,7 +10890,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="750" spans="1:7" ht="30">
+    <row r="750" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="F750" s="11" t="s">
         <v>489</v>
       </c>
@@ -10749,7 +10898,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="751" spans="1:7" ht="45">
+    <row r="751" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="F751" s="11" t="s">
         <v>492</v>
       </c>
@@ -10757,7 +10906,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="752" spans="1:7" ht="30">
+    <row r="752" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="F752" s="11" t="s">
         <v>494</v>
       </c>
@@ -10765,7 +10914,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="755" spans="1:7" ht="45">
+    <row r="755" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A755" s="11" t="s">
         <v>536</v>
       </c>
@@ -10782,7 +10931,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="756" spans="1:7" ht="30">
+    <row r="756" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="F756" s="15" t="s">
         <v>234</v>
       </c>
@@ -10790,7 +10939,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="757" spans="1:7" ht="45">
+    <row r="757" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="F757" s="15" t="s">
         <v>486</v>
       </c>
@@ -10798,7 +10947,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="758" spans="1:7" ht="30">
+    <row r="758" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="F758" s="11" t="s">
         <v>489</v>
       </c>
@@ -10806,7 +10955,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="759" spans="1:7" ht="45">
+    <row r="759" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="F759" s="11" t="s">
         <v>492</v>
       </c>
@@ -10814,7 +10963,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="760" spans="1:7" ht="30">
+    <row r="760" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="F760" s="11" t="s">
         <v>494</v>
       </c>
@@ -10822,7 +10971,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="763" spans="1:7" ht="45">
+    <row r="763" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A763" s="11" t="s">
         <v>537</v>
       </c>
@@ -10839,7 +10988,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="764" spans="1:7" ht="30">
+    <row r="764" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="F764" s="15" t="s">
         <v>234</v>
       </c>
@@ -10847,7 +10996,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="765" spans="1:7" ht="30">
+    <row r="765" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="F765" s="15" t="s">
         <v>502</v>
       </c>
@@ -10855,7 +11004,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="766" spans="1:7" ht="30">
+    <row r="766" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="F766" s="11" t="s">
         <v>489</v>
       </c>
@@ -10863,7 +11012,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="767" spans="1:7" ht="45">
+    <row r="767" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="F767" s="11" t="s">
         <v>492</v>
       </c>
@@ -10871,7 +11020,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="768" spans="1:7" ht="30">
+    <row r="768" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="F768" s="11" t="s">
         <v>494</v>
       </c>
@@ -10879,7 +11028,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="771" spans="1:7" ht="45">
+    <row r="771" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A771" s="11" t="s">
         <v>538</v>
       </c>
@@ -10896,7 +11045,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="772" spans="1:7" ht="30">
+    <row r="772" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="F772" s="15" t="s">
         <v>234</v>
       </c>
@@ -10904,7 +11053,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="773" spans="1:7" ht="30">
+    <row r="773" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="F773" s="15" t="s">
         <v>503</v>
       </c>
@@ -10912,7 +11061,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="774" spans="1:7" ht="30">
+    <row r="774" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="F774" s="11" t="s">
         <v>489</v>
       </c>
@@ -10920,7 +11069,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="775" spans="1:7" ht="45">
+    <row r="775" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="F775" s="11" t="s">
         <v>492</v>
       </c>
@@ -10928,7 +11077,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="776" spans="1:7" ht="30">
+    <row r="776" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="F776" s="11" t="s">
         <v>494</v>
       </c>
@@ -10936,7 +11085,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="779" spans="1:7" ht="45">
+    <row r="779" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A779" s="11" t="s">
         <v>539</v>
       </c>
@@ -10953,7 +11102,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="780" spans="1:7" ht="30">
+    <row r="780" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="F780" s="15" t="s">
         <v>234</v>
       </c>
@@ -10961,7 +11110,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="781" spans="1:7" ht="30">
+    <row r="781" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="F781" s="15" t="s">
         <v>504</v>
       </c>
@@ -10969,7 +11118,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="782" spans="1:7" ht="60">
+    <row r="782" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="F782" s="11" t="s">
         <v>505</v>
       </c>
@@ -10977,7 +11126,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="784" spans="1:7" ht="45">
+    <row r="784" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A784" s="11" t="s">
         <v>543</v>
       </c>
@@ -10994,7 +11143,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="785" spans="6:7" ht="30">
+    <row r="785" spans="6:7" ht="30" x14ac:dyDescent="0.25">
       <c r="F785" s="15" t="s">
         <v>234</v>
       </c>
@@ -11002,7 +11151,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="786" spans="6:7" ht="30">
+    <row r="786" spans="6:7" ht="30" x14ac:dyDescent="0.25">
       <c r="F786" s="15" t="s">
         <v>504</v>
       </c>
@@ -11010,7 +11159,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="787" spans="6:7" ht="60">
+    <row r="787" spans="6:7" ht="60" x14ac:dyDescent="0.25">
       <c r="F787" s="11" t="s">
         <v>505</v>
       </c>
@@ -11025,19 +11174,19 @@
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <dataValidations count="5">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C663:C664 C670 C676 C682 C688 C694 C700 C706 C712 C727:C730 C735:C737 C743:C745 C751:C753 C759:C761 C767:C769 C775:C777 C783">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C663:C664 C670 C676 C682 C688 C694 C700 C706 C712 C727:C730 C735:C737 C743:C745 C751:C753 C759:C761 C767:C769 C775:C777 C783" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"Nithya VS, Poonima John, Prapancha, Preethi Pathrose, Parvathy P, Semin Das, Sangeetha, Rijo J Patric"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B143 B149 B141 B159 B165 B168 B2 B336 B342:B343 B14:B16 B184 B8 B312 B349:B350 B22:B25 B30:B32 B196 B57 B314 B38:B40 B320:B321 B64 B66 B210 B216 B48 B306 B327:B328 B334 B74 B80:B82 B174 B176 B189 B203 B221:B222 B151 B157 B88:B89 B95 B97 B103 B105 B111:B112 B121 B133 B127 B135 B282 B298 B304 B227 B232 B248:B249 B292 B239:B241 B251 B265:B266 B258 B274 B294 B290 B359 B365:B366 B372:B373 B380">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B143 B149 B141 B159 B165 B168 B2 B336 B342:B343 B14:B16 B184 B8 B312 B349:B350 B22:B25 B30:B32 B196 B57 B314 B38:B40 B320:B321 B64 B66 B210 B216 B48 B306 B327:B328 B334 B74 B80:B82 B174 B176 B189 B203 B221:B222 B151 B157 B88:B89 B95 B97 B103 B105 B111:B112 B121 B133 B127 B135 B282 B298 B304 B227 B232 B248:B249 B292 B239:B241 B251 B265:B266 B258 B274 B294 B290 B359 B365:B366 B372:B373 B380" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>"CAS/ Appointment, Out Patient, Care Desk, EMR, Lab &amp; General Billing, Pharmacy Billing, Lab Results, Radiology, Insurance Desk, Casualty, MRD, In Patient, Nursing Station, Theatre, Indent, Store Management"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K484:K690">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K484:K690" xr:uid="{00000000-0002-0000-0000-000002000000}">
       <formula1>"Leona, Parvathy, Raziya, Rijo"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C66:C118 K2:K47 C2:C54 C57:C64 K64:K483 C121:C662 C665:C669 C671:C675 C677:C681 C683:C687 C689:C693 C695:C699 C701:C705 C707:C711 C713:C726 C731:C734 C739:C742 C747:C750 C755:C758 C763:C766 C771:C774 C779:C782 C784:C787">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C66:C118 C784:C787 C2:C54 C57:C64 K57 C121:C662 C665:C669 C671:C675 C677:C681 C683:C687 C689:C693 C695:C699 C701:C705 C707:C711 C713:C726 C731:C734 C739:C742 C747:C750 C755:C758 C763:C766 C771:C774 C779:C782 K2:K48 J105:K105 K64:K104 J112 K106:K483" xr:uid="{00000000-0002-0000-0000-000003000000}">
       <formula1>"Nithya VS, Poonima John, Prapancha, Preethi Pathrose, Semin Das, Sangeetha, Rijo J Patric"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L2:L48 L64:L735">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L2:L48 L64:L735" xr:uid="{00000000-0002-0000-0000-000004000000}">
       <formula1>"Pass, Fail, Blocked"</formula1>
     </dataValidation>
   </dataValidations>
@@ -11047,14 +11196,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:F136"/>
   <sheetViews>
     <sheetView topLeftCell="A31" workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="16.7109375" customWidth="1"/>
     <col min="2" max="3" width="29.140625" customWidth="1"/>
@@ -11063,7 +11212,7 @@
     <col min="6" max="6" width="33.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>245</v>
       </c>
@@ -11081,13 +11230,13 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="45">
+    <row r="2" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="B2" s="15" t="s">
         <v>249</v>
       </c>
       <c r="C2" s="15"/>
     </row>
-    <row r="3" spans="1:6" ht="45">
+    <row r="3" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="C3">
         <v>1</v>
       </c>
@@ -11098,7 +11247,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="75">
+    <row r="4" spans="1:6" ht="75" x14ac:dyDescent="0.25">
       <c r="C4">
         <v>2</v>
       </c>
@@ -11109,7 +11258,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="105">
+    <row r="5" spans="1:6" ht="105" x14ac:dyDescent="0.25">
       <c r="C5">
         <v>3</v>
       </c>
@@ -11120,7 +11269,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="30">
+    <row r="6" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="C6">
         <v>4</v>
       </c>
@@ -11131,7 +11280,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="45">
+    <row r="7" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>258</v>
       </c>
@@ -11140,7 +11289,7 @@
       </c>
       <c r="C7" s="15"/>
     </row>
-    <row r="8" spans="1:6" ht="45">
+    <row r="8" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="C8">
         <v>1</v>
       </c>
@@ -11151,7 +11300,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="75">
+    <row r="9" spans="1:6" ht="75" x14ac:dyDescent="0.25">
       <c r="C9">
         <v>2</v>
       </c>
@@ -11162,7 +11311,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="105">
+    <row r="10" spans="1:6" ht="105" x14ac:dyDescent="0.25">
       <c r="C10">
         <v>3</v>
       </c>
@@ -11173,7 +11322,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="30">
+    <row r="11" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="C11">
         <v>4</v>
       </c>
@@ -11184,7 +11333,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="45">
+    <row r="12" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="C12">
         <v>5</v>
       </c>
@@ -11198,7 +11347,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="45">
+    <row r="13" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>262</v>
       </c>
@@ -11215,7 +11364,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="75">
+    <row r="14" spans="1:6" ht="75" x14ac:dyDescent="0.25">
       <c r="C14">
         <v>2</v>
       </c>
@@ -11226,7 +11375,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="105">
+    <row r="15" spans="1:6" ht="105" x14ac:dyDescent="0.25">
       <c r="C15">
         <v>3</v>
       </c>
@@ -11237,7 +11386,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="45">
+    <row r="16" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="C16">
         <v>4</v>
       </c>
@@ -11248,7 +11397,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="45">
+    <row r="17" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>266</v>
       </c>
@@ -11265,7 +11414,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="75">
+    <row r="18" spans="1:5" ht="75" x14ac:dyDescent="0.25">
       <c r="C18">
         <v>2</v>
       </c>
@@ -11276,7 +11425,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="105">
+    <row r="19" spans="1:5" ht="105" x14ac:dyDescent="0.25">
       <c r="C19">
         <v>3</v>
       </c>
@@ -11287,7 +11436,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="45">
+    <row r="20" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="C20">
         <v>4</v>
       </c>
@@ -11298,7 +11447,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="60">
+    <row r="21" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="C21">
         <v>5</v>
       </c>
@@ -11309,7 +11458,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="22" spans="1:5" ht="45">
+    <row r="22" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>270</v>
       </c>
@@ -11326,7 +11475,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="23" spans="1:5" ht="75">
+    <row r="23" spans="1:5" ht="75" x14ac:dyDescent="0.25">
       <c r="C23">
         <v>2</v>
       </c>
@@ -11337,7 +11486,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="24" spans="1:5" ht="105">
+    <row r="24" spans="1:5" ht="105" x14ac:dyDescent="0.25">
       <c r="C24">
         <v>3</v>
       </c>
@@ -11348,7 +11497,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="25" spans="1:5" ht="45">
+    <row r="25" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="C25">
         <v>4</v>
       </c>
@@ -11359,7 +11508,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="26" spans="1:5" ht="45">
+    <row r="26" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>274</v>
       </c>
@@ -11376,7 +11525,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="27" spans="1:5" ht="75">
+    <row r="27" spans="1:5" ht="75" x14ac:dyDescent="0.25">
       <c r="C27">
         <v>2</v>
       </c>
@@ -11387,7 +11536,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="28" spans="1:5" ht="105">
+    <row r="28" spans="1:5" ht="105" x14ac:dyDescent="0.25">
       <c r="C28">
         <v>3</v>
       </c>
@@ -11398,7 +11547,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="29" spans="1:5" ht="45">
+    <row r="29" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="C29">
         <v>4</v>
       </c>
@@ -11409,7 +11558,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="30" spans="1:5" ht="45">
+    <row r="30" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="C30">
         <v>5</v>
       </c>
@@ -11420,7 +11569,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="31" spans="1:5" ht="45">
+    <row r="31" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="C31">
         <v>6</v>
       </c>
@@ -11431,7 +11580,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="33" spans="1:5" ht="45">
+    <row r="33" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>280</v>
       </c>
@@ -11448,7 +11597,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="34" spans="1:5" ht="75">
+    <row r="34" spans="1:5" ht="75" x14ac:dyDescent="0.25">
       <c r="C34">
         <v>2</v>
       </c>
@@ -11459,7 +11608,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="35" spans="1:5" ht="105">
+    <row r="35" spans="1:5" ht="105" x14ac:dyDescent="0.25">
       <c r="C35">
         <v>3</v>
       </c>
@@ -11470,7 +11619,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="36" spans="1:5" ht="45">
+    <row r="36" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="C36">
         <v>4</v>
       </c>
@@ -11481,7 +11630,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="37" spans="1:5" ht="45">
+    <row r="37" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>284</v>
       </c>
@@ -11498,7 +11647,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="38" spans="1:5" ht="75">
+    <row r="38" spans="1:5" ht="75" x14ac:dyDescent="0.25">
       <c r="C38">
         <v>2</v>
       </c>
@@ -11509,7 +11658,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="39" spans="1:5" ht="105">
+    <row r="39" spans="1:5" ht="105" x14ac:dyDescent="0.25">
       <c r="C39">
         <v>3</v>
       </c>
@@ -11520,7 +11669,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="40" spans="1:5" ht="45">
+    <row r="40" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="C40">
         <v>4</v>
       </c>
@@ -11531,7 +11680,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="41" spans="1:5" ht="45">
+    <row r="41" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="C41">
         <v>5</v>
       </c>
@@ -11542,7 +11691,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="43" spans="1:5" ht="45">
+    <row r="43" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>288</v>
       </c>
@@ -11559,7 +11708,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="44" spans="1:5" ht="75">
+    <row r="44" spans="1:5" ht="75" x14ac:dyDescent="0.25">
       <c r="C44">
         <v>2</v>
       </c>
@@ -11570,7 +11719,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="45" spans="1:5" ht="105">
+    <row r="45" spans="1:5" ht="105" x14ac:dyDescent="0.25">
       <c r="C45">
         <v>3</v>
       </c>
@@ -11581,7 +11730,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="46" spans="1:5" ht="45">
+    <row r="46" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="C46">
         <v>4</v>
       </c>
@@ -11592,7 +11741,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="47" spans="1:5" ht="180">
+    <row r="47" spans="1:5" ht="180" x14ac:dyDescent="0.25">
       <c r="C47">
         <v>5</v>
       </c>
@@ -11603,7 +11752,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="48" spans="1:5" ht="45">
+    <row r="48" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>295</v>
       </c>
@@ -11620,7 +11769,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="49" spans="1:5" ht="75">
+    <row r="49" spans="1:5" ht="75" x14ac:dyDescent="0.25">
       <c r="C49">
         <v>2</v>
       </c>
@@ -11631,7 +11780,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="50" spans="1:5" ht="105">
+    <row r="50" spans="1:5" ht="105" x14ac:dyDescent="0.25">
       <c r="C50">
         <v>3</v>
       </c>
@@ -11642,7 +11791,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="51" spans="1:5" ht="45">
+    <row r="51" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="C51">
         <v>4</v>
       </c>
@@ -11653,7 +11802,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="52" spans="1:5" ht="180">
+    <row r="52" spans="1:5" ht="180" x14ac:dyDescent="0.25">
       <c r="C52">
         <v>5</v>
       </c>
@@ -11664,7 +11813,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="53" spans="1:5" ht="60">
+    <row r="53" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="C53">
         <v>6</v>
       </c>
@@ -11675,7 +11824,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="54" spans="1:5" ht="30">
+    <row r="54" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>295</v>
       </c>
@@ -11690,7 +11839,7 @@
       </c>
       <c r="E54" s="15"/>
     </row>
-    <row r="55" spans="1:5" ht="75">
+    <row r="55" spans="1:5" ht="75" x14ac:dyDescent="0.25">
       <c r="C55">
         <v>2</v>
       </c>
@@ -11701,7 +11850,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="56" spans="1:5" ht="30">
+    <row r="56" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="C56">
         <v>3</v>
       </c>
@@ -11712,7 +11861,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="57" spans="1:5" ht="45">
+    <row r="57" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>295</v>
       </c>
@@ -11727,7 +11876,7 @@
       </c>
       <c r="E57" s="15"/>
     </row>
-    <row r="58" spans="1:5" ht="75">
+    <row r="58" spans="1:5" ht="75" x14ac:dyDescent="0.25">
       <c r="C58">
         <v>2</v>
       </c>
@@ -11738,7 +11887,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="59" spans="1:5" ht="60">
+    <row r="59" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="C59">
         <v>3</v>
       </c>
@@ -11749,12 +11898,12 @@
         <v>307</v>
       </c>
     </row>
-    <row r="60" spans="1:5">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C60" s="17" t="s">
         <v>308</v>
       </c>
     </row>
-    <row r="61" spans="1:5" ht="45">
+    <row r="61" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>309</v>
       </c>
@@ -11768,7 +11917,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="62" spans="1:5" ht="60">
+    <row r="62" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="D62" s="15" t="s">
         <v>226</v>
       </c>
@@ -11776,7 +11925,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="63" spans="1:5" ht="30">
+    <row r="63" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="D63" s="15" t="s">
         <v>228</v>
       </c>
@@ -11784,7 +11933,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="65" spans="1:5" ht="45">
+    <row r="65" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>309</v>
       </c>
@@ -11798,7 +11947,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="66" spans="1:5" ht="60">
+    <row r="66" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="D66" s="15" t="s">
         <v>226</v>
       </c>
@@ -11806,7 +11955,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="67" spans="1:5" ht="30">
+    <row r="67" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="D67" s="15" t="s">
         <v>310</v>
       </c>
@@ -11814,7 +11963,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="69" spans="1:5" ht="30">
+    <row r="69" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>2</v>
       </c>
@@ -11828,7 +11977,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="70" spans="1:5" ht="60">
+    <row r="70" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="D70" s="15" t="s">
         <v>226</v>
       </c>
@@ -11836,7 +11985,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="71" spans="1:5" ht="165">
+    <row r="71" spans="1:5" ht="165" x14ac:dyDescent="0.25">
       <c r="D71" s="15" t="s">
         <v>312</v>
       </c>
@@ -11844,7 +11993,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="72" spans="1:5" ht="30">
+    <row r="72" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="D72" s="15" t="s">
         <v>313</v>
       </c>
@@ -11852,7 +12001,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="73" spans="1:5" ht="45">
+    <row r="73" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>3</v>
       </c>
@@ -11866,7 +12015,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="74" spans="1:5" ht="75">
+    <row r="74" spans="1:5" ht="75" x14ac:dyDescent="0.25">
       <c r="D74" s="15" t="s">
         <v>236</v>
       </c>
@@ -11874,7 +12023,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="75" spans="1:5" ht="210">
+    <row r="75" spans="1:5" ht="210" x14ac:dyDescent="0.25">
       <c r="D75" s="15" t="s">
         <v>238</v>
       </c>
@@ -11882,7 +12031,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="76" spans="1:5" ht="30">
+    <row r="76" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="D76" s="15" t="s">
         <v>240</v>
       </c>
@@ -11890,7 +12039,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="77" spans="1:5" ht="30">
+    <row r="77" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="D77" s="15" t="s">
         <v>242</v>
       </c>
@@ -11898,7 +12047,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="79" spans="1:5" ht="30">
+    <row r="79" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A79" s="15">
         <v>4</v>
       </c>
@@ -11912,7 +12061,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="80" spans="1:5" ht="60">
+    <row r="80" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="D80" s="15" t="s">
         <v>316</v>
       </c>
@@ -11920,7 +12069,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="81" spans="1:5" ht="240">
+    <row r="81" spans="1:5" ht="240" x14ac:dyDescent="0.25">
       <c r="D81" s="15" t="s">
         <v>318</v>
       </c>
@@ -11928,7 +12077,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="82" spans="1:5" ht="30">
+    <row r="82" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="D82" s="15" t="s">
         <v>320</v>
       </c>
@@ -11936,7 +12085,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="83" spans="1:5" ht="60">
+    <row r="83" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>5</v>
       </c>
@@ -11950,7 +12099,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="84" spans="1:5" ht="60">
+    <row r="84" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="D84" s="15" t="s">
         <v>316</v>
       </c>
@@ -11958,7 +12107,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="85" spans="1:5" ht="45">
+    <row r="85" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="D85" s="15" t="s">
         <v>323</v>
       </c>
@@ -11966,7 +12115,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="86" spans="1:5" ht="30">
+    <row r="86" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="D86" s="15" t="s">
         <v>324</v>
       </c>
@@ -11974,7 +12123,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="88" spans="1:5" ht="30">
+    <row r="88" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>6</v>
       </c>
@@ -11988,7 +12137,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="89" spans="1:5" ht="60">
+    <row r="89" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="D89" s="15" t="s">
         <v>316</v>
       </c>
@@ -11996,7 +12145,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="90" spans="1:5" ht="45">
+    <row r="90" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="D90" s="15" t="s">
         <v>323</v>
       </c>
@@ -12004,7 +12153,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="91" spans="1:5" ht="30">
+    <row r="91" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="D91" s="15" t="s">
         <v>327</v>
       </c>
@@ -12012,7 +12161,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="93" spans="1:5" ht="30">
+    <row r="93" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>7</v>
       </c>
@@ -12026,7 +12175,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="94" spans="1:5" ht="60">
+    <row r="94" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="D94" s="15" t="s">
         <v>316</v>
       </c>
@@ -12034,7 +12183,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="95" spans="1:5" ht="45">
+    <row r="95" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="D95" s="15" t="s">
         <v>330</v>
       </c>
@@ -12042,7 +12191,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="96" spans="1:5" ht="30">
+    <row r="96" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="D96" s="15" t="s">
         <v>331</v>
       </c>
@@ -12050,7 +12199,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="98" spans="1:5" ht="30">
+    <row r="98" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>8.8888888888888797E+104</v>
       </c>
@@ -12064,7 +12213,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="99" spans="1:5" ht="60">
+    <row r="99" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="D99" s="15" t="s">
         <v>334</v>
       </c>
@@ -12072,7 +12221,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="100" spans="1:5" ht="225">
+    <row r="100" spans="1:5" ht="225" x14ac:dyDescent="0.25">
       <c r="D100" s="15" t="s">
         <v>336</v>
       </c>
@@ -12080,7 +12229,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="102" spans="1:5" ht="45">
+    <row r="102" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A102">
         <v>9</v>
       </c>
@@ -12094,7 +12243,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="103" spans="1:5" ht="60">
+    <row r="103" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="D103" s="15" t="s">
         <v>339</v>
       </c>
@@ -12102,7 +12251,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="104" spans="1:5" ht="45">
+    <row r="104" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="D104" s="15" t="s">
         <v>330</v>
       </c>
@@ -12110,7 +12259,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="105" spans="1:5" ht="30">
+    <row r="105" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="D105" s="15" t="s">
         <v>324</v>
       </c>
@@ -12118,7 +12267,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="108" spans="1:5" ht="30">
+    <row r="108" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A108">
         <v>10</v>
       </c>
@@ -12132,7 +12281,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="109" spans="1:5" ht="60">
+    <row r="109" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="D109" s="15" t="s">
         <v>342</v>
       </c>
@@ -12140,7 +12289,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="110" spans="1:5" ht="45">
+    <row r="110" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="D110" s="15" t="s">
         <v>330</v>
       </c>
@@ -12148,7 +12297,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="111" spans="1:5" ht="30">
+    <row r="111" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="D111" s="15" t="s">
         <v>331</v>
       </c>
@@ -12156,7 +12305,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="112" spans="1:5" ht="30">
+    <row r="112" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A112">
         <v>11</v>
       </c>
@@ -12170,7 +12319,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="113" spans="1:5" ht="60">
+    <row r="113" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="D113" s="15" t="s">
         <v>342</v>
       </c>
@@ -12178,7 +12327,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="114" spans="1:5" ht="45">
+    <row r="114" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="D114" s="15" t="s">
         <v>330</v>
       </c>
@@ -12186,7 +12335,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="115" spans="1:5" ht="30">
+    <row r="115" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="D115" s="15" t="s">
         <v>327</v>
       </c>
@@ -12194,7 +12343,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="118" spans="1:5" ht="30">
+    <row r="118" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A118">
         <v>12</v>
       </c>
@@ -12208,7 +12357,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="119" spans="1:5" ht="60">
+    <row r="119" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="D119" s="15" t="s">
         <v>345</v>
       </c>
@@ -12216,7 +12365,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="120" spans="1:5" ht="45">
+    <row r="120" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="D120" s="15" t="s">
         <v>346</v>
       </c>
@@ -12224,7 +12373,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="121" spans="1:5" ht="30">
+    <row r="121" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A121">
         <v>13</v>
       </c>
@@ -12238,7 +12387,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="122" spans="1:5" ht="60">
+    <row r="122" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="D122" s="15" t="s">
         <v>348</v>
       </c>
@@ -12246,7 +12395,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="123" spans="1:5" ht="150">
+    <row r="123" spans="1:5" ht="150" x14ac:dyDescent="0.25">
       <c r="D123" s="15" t="s">
         <v>350</v>
       </c>
@@ -12254,7 +12403,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="126" spans="1:5" ht="30">
+    <row r="126" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A126">
         <v>13</v>
       </c>
@@ -12268,7 +12417,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="127" spans="1:5" ht="60">
+    <row r="127" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="D127" s="15" t="s">
         <v>353</v>
       </c>
@@ -12276,7 +12425,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="128" spans="1:5" ht="45">
+    <row r="128" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="D128" s="15" t="s">
         <v>355</v>
       </c>
@@ -12284,17 +12433,17 @@
         <v>356</v>
       </c>
     </row>
-    <row r="131" spans="1:1">
+    <row r="131" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>375</v>
       </c>
     </row>
-    <row r="134" spans="1:1" ht="45">
+    <row r="134" spans="1:1" ht="45" x14ac:dyDescent="0.25">
       <c r="A134" s="15" t="s">
         <v>414</v>
       </c>
     </row>
-    <row r="136" spans="1:1">
+    <row r="136" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>476</v>
       </c>
@@ -12305,119 +12454,119 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:A21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="63.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>564</v>
       </c>
     </row>
-    <row r="2" spans="1:1">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>566</v>
       </c>
     </row>
-    <row r="3" spans="1:1">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>567</v>
       </c>
     </row>
-    <row r="4" spans="1:1">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>568</v>
       </c>
     </row>
-    <row r="5" spans="1:1">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>570</v>
       </c>
     </row>
-    <row r="6" spans="1:1">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>571</v>
       </c>
     </row>
-    <row r="7" spans="1:1">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" s="17" t="s">
         <v>572</v>
       </c>
     </row>
-    <row r="8" spans="1:1">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" s="17" t="s">
         <v>579</v>
       </c>
     </row>
-    <row r="9" spans="1:1">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>573</v>
       </c>
     </row>
-    <row r="10" spans="1:1">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>574</v>
       </c>
     </row>
-    <row r="11" spans="1:1">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>576</v>
       </c>
     </row>
-    <row r="12" spans="1:1">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>578</v>
       </c>
     </row>
-    <row r="13" spans="1:1">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>585</v>
       </c>
     </row>
-    <row r="14" spans="1:1">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>581</v>
       </c>
     </row>
-    <row r="15" spans="1:1">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>582</v>
       </c>
     </row>
-    <row r="16" spans="1:1">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>586</v>
       </c>
     </row>
-    <row r="17" spans="1:1">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>587</v>
       </c>
     </row>
-    <row r="18" spans="1:1">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>588</v>
       </c>
     </row>
-    <row r="19" spans="1:1">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>590</v>
       </c>
     </row>
-    <row r="20" spans="1:1">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>592</v>
       </c>
     </row>
-    <row r="21" spans="1:1">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>593</v>
       </c>

--- a/Test Execution/Sangeetha/Testcase- Insurance .xlsx
+++ b/Test Execution/Sangeetha/Testcase- Insurance .xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Projects\Mediware\Mediware-Repository\Test Execution\Sangeetha\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{388D3EC9-332C-4989-A320-2F9C9423DAFD}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6255467D-CAB3-44F8-9E90-50A6269E64CE}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2015" uniqueCount="607">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2027" uniqueCount="607">
   <si>
     <t>Test Case ID</t>
   </si>
@@ -662,9 +662,6 @@
   </si>
   <si>
     <t>MED_ Insurance_TC_041</t>
-  </si>
-  <si>
-    <t>Verify that user is able to reconcile op bils in first review</t>
   </si>
   <si>
     <t>Search page should be displayed</t>
@@ -2267,6 +2264,9 @@
   </si>
   <si>
     <t>Preethi Pathrose</t>
+  </si>
+  <si>
+    <t>Verify that user is able to reconcile op bills in first review</t>
   </si>
 </sst>
 </file>
@@ -2796,9 +2796,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:S787"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="66" zoomScaleNormal="66" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A344" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K350" sqref="K350"/>
+    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A83" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G383" sqref="G383"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2890,7 +2890,7 @@
       <c r="I2" s="11"/>
       <c r="J2" s="12"/>
       <c r="K2" s="5" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="L2" s="4"/>
       <c r="M2" s="4"/>
@@ -2906,7 +2906,7 @@
       </c>
       <c r="S2" s="6">
         <f>COUNTIF(L:L,"Pass")</f>
-        <v>19</v>
+        <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:19" s="13" customFormat="1" ht="30" x14ac:dyDescent="0.25">
@@ -2924,10 +2924,10 @@
         <v>24</v>
       </c>
       <c r="H3" s="11" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="I3" s="11" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="J3" s="12"/>
       <c r="K3" s="5"/>
@@ -2938,7 +2938,7 @@
       </c>
       <c r="P3" s="4">
         <f>COUNTA(L:L)-1</f>
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="R3" s="5" t="s">
         <v>14</v>
@@ -2963,7 +2963,7 @@
         <v>25</v>
       </c>
       <c r="H4" s="11" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="I4" s="11"/>
       <c r="J4" s="12"/>
@@ -2979,7 +2979,7 @@
       </c>
       <c r="S4" s="6">
         <f>COUNTIF(L:L,"Blocked")</f>
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:19" ht="150" x14ac:dyDescent="0.25">
@@ -2993,7 +2993,7 @@
         <v>26</v>
       </c>
       <c r="H5" s="11" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="L5" s="4"/>
       <c r="R5" s="7" t="s">
@@ -3018,7 +3018,7 @@
         <v>14</v>
       </c>
       <c r="M6" s="19" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="R6" s="7"/>
       <c r="S6" s="6"/>
@@ -3039,13 +3039,13 @@
         <v>46</v>
       </c>
       <c r="D8" s="11" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="F8" s="11" t="s">
         <v>29</v>
       </c>
       <c r="K8" s="5" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="L8" s="4"/>
     </row>
@@ -3060,10 +3060,10 @@
         <v>24</v>
       </c>
       <c r="H9" s="11" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="I9" s="11" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="L9" s="4"/>
     </row>
@@ -3078,7 +3078,7 @@
         <v>25</v>
       </c>
       <c r="H10" s="11" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="L10" s="4"/>
     </row>
@@ -3093,7 +3093,7 @@
         <v>61</v>
       </c>
       <c r="H11" s="11" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="L11" s="4"/>
     </row>
@@ -3108,10 +3108,10 @@
         <v>156</v>
       </c>
       <c r="H12" s="11" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="I12" s="11" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="L12" s="4"/>
     </row>
@@ -3126,7 +3126,7 @@
         <v>64</v>
       </c>
       <c r="H13" s="11" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="L13" s="4"/>
     </row>
@@ -3141,7 +3141,7 @@
         <v>66</v>
       </c>
       <c r="H14" s="11" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="L14" s="4" t="s">
         <v>12</v>
@@ -3168,7 +3168,7 @@
       </c>
       <c r="I16" s="14"/>
       <c r="K16" s="5" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="L16" s="4"/>
     </row>
@@ -3183,10 +3183,10 @@
         <v>24</v>
       </c>
       <c r="H17" s="11" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="I17" s="11" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="L17" s="4"/>
     </row>
@@ -3201,7 +3201,7 @@
         <v>25</v>
       </c>
       <c r="H18" s="11" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="L18" s="4"/>
     </row>
@@ -3216,7 +3216,7 @@
         <v>61</v>
       </c>
       <c r="H19" s="11" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="L19" s="4"/>
     </row>
@@ -3231,10 +3231,10 @@
         <v>156</v>
       </c>
       <c r="H20" s="11" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="I20" s="11" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="L20" s="4"/>
     </row>
@@ -3249,7 +3249,7 @@
         <v>64</v>
       </c>
       <c r="H21" s="11" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="L21" s="4"/>
     </row>
@@ -3264,7 +3264,7 @@
         <v>66</v>
       </c>
       <c r="H22" s="11" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="L22" s="4"/>
     </row>
@@ -3279,7 +3279,7 @@
         <v>69</v>
       </c>
       <c r="H23" s="11" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="L23" s="4" t="s">
         <v>12</v>
@@ -3302,7 +3302,7 @@
         <v>41</v>
       </c>
       <c r="K25" s="5" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="L25" s="4"/>
     </row>
@@ -3317,7 +3317,7 @@
         <v>24</v>
       </c>
       <c r="H26" s="11" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="L26" s="4"/>
     </row>
@@ -3332,7 +3332,7 @@
         <v>25</v>
       </c>
       <c r="H27" s="11" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="L27" s="4"/>
     </row>
@@ -3344,13 +3344,13 @@
         <v>31</v>
       </c>
       <c r="G28" s="11" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="H28" s="11" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="I28" s="11" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="L28" s="4"/>
     </row>
@@ -3365,7 +3365,7 @@
         <v>91</v>
       </c>
       <c r="H29" s="11" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="L29" s="4"/>
     </row>
@@ -3380,7 +3380,7 @@
         <v>93</v>
       </c>
       <c r="H30" s="11" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="L30" s="4" t="s">
         <v>12</v>
@@ -3397,16 +3397,16 @@
         <v>46</v>
       </c>
       <c r="D32" s="11" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="F32" s="11" t="s">
         <v>41</v>
       </c>
       <c r="H32" s="11" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="K32" s="5" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="L32" s="4"/>
     </row>
@@ -3421,7 +3421,7 @@
         <v>24</v>
       </c>
       <c r="H33" s="11" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="L33" s="4"/>
     </row>
@@ -3436,7 +3436,7 @@
         <v>25</v>
       </c>
       <c r="H34" s="11" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="L34" s="4"/>
     </row>
@@ -3448,10 +3448,10 @@
         <v>31</v>
       </c>
       <c r="G35" s="11" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="H35" s="11" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="L35" s="4"/>
     </row>
@@ -3466,7 +3466,7 @@
         <v>53</v>
       </c>
       <c r="H36" s="11" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="L36" s="4"/>
     </row>
@@ -3475,16 +3475,16 @@
         <v>5</v>
       </c>
       <c r="F37" s="11" t="s">
+        <v>551</v>
+      </c>
+      <c r="G37" s="11" t="s">
+        <v>550</v>
+      </c>
+      <c r="H37" s="11" t="s">
+        <v>543</v>
+      </c>
+      <c r="I37" s="11" t="s">
         <v>552</v>
-      </c>
-      <c r="G37" s="11" t="s">
-        <v>551</v>
-      </c>
-      <c r="H37" s="11" t="s">
-        <v>544</v>
-      </c>
-      <c r="I37" s="11" t="s">
-        <v>553</v>
       </c>
       <c r="L37" s="4"/>
     </row>
@@ -3499,7 +3499,7 @@
         <v>79</v>
       </c>
       <c r="H38" s="11" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="L38" s="4" t="s">
         <v>12</v>
@@ -3522,7 +3522,7 @@
         <v>41</v>
       </c>
       <c r="K40" s="5" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="L40" s="4"/>
     </row>
@@ -3537,7 +3537,7 @@
         <v>24</v>
       </c>
       <c r="H41" s="11" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="L41" s="4"/>
     </row>
@@ -3552,7 +3552,7 @@
         <v>25</v>
       </c>
       <c r="H42" s="11" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="L42" s="4"/>
     </row>
@@ -3567,7 +3567,7 @@
         <v>32</v>
       </c>
       <c r="H43" s="11" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="L43" s="4"/>
     </row>
@@ -3582,7 +3582,7 @@
         <v>53</v>
       </c>
       <c r="H44" s="11" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="L44" s="4"/>
     </row>
@@ -3594,10 +3594,10 @@
         <v>164</v>
       </c>
       <c r="G45" s="11" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="H45" s="11" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="L45" s="4"/>
     </row>
@@ -3612,7 +3612,7 @@
         <v>86</v>
       </c>
       <c r="H46" s="11" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="L46" s="4" t="s">
         <v>12</v>
@@ -3635,7 +3635,7 @@
         <v>41</v>
       </c>
       <c r="K48" s="5" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="L48" s="4"/>
     </row>
@@ -3719,7 +3719,7 @@
         <v>41</v>
       </c>
       <c r="K57" s="5" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
     </row>
     <row r="58" spans="1:12" ht="30" x14ac:dyDescent="0.25">
@@ -3733,7 +3733,7 @@
         <v>24</v>
       </c>
       <c r="H58" s="11" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
     </row>
     <row r="59" spans="1:12" ht="30" x14ac:dyDescent="0.25">
@@ -3747,7 +3747,7 @@
         <v>25</v>
       </c>
       <c r="H59" s="11" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
     </row>
     <row r="60" spans="1:12" ht="60" x14ac:dyDescent="0.25">
@@ -3761,7 +3761,7 @@
         <v>32</v>
       </c>
       <c r="H60" s="11" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
     </row>
     <row r="61" spans="1:12" ht="45" x14ac:dyDescent="0.25">
@@ -3775,7 +3775,7 @@
         <v>53</v>
       </c>
       <c r="H61" s="11" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
     </row>
     <row r="62" spans="1:12" ht="45" x14ac:dyDescent="0.25">
@@ -3786,13 +3786,13 @@
         <v>55</v>
       </c>
       <c r="G62" s="11" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="H62" s="11" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="I62" s="11" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
     </row>
     <row r="63" spans="1:12" ht="30" x14ac:dyDescent="0.25">
@@ -3806,7 +3806,7 @@
         <v>59</v>
       </c>
       <c r="H63" s="11" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
     </row>
     <row r="64" spans="1:12" ht="45" x14ac:dyDescent="0.25">
@@ -3820,7 +3820,7 @@
         <v>98</v>
       </c>
       <c r="H64" s="11" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="L64" s="4" t="s">
         <v>12</v>
@@ -3843,7 +3843,7 @@
         <v>142</v>
       </c>
       <c r="K66" s="5" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="L66" s="4"/>
     </row>
@@ -3858,7 +3858,7 @@
         <v>24</v>
       </c>
       <c r="H67" s="11" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="L67" s="4"/>
     </row>
@@ -3873,7 +3873,7 @@
         <v>25</v>
       </c>
       <c r="H68" s="11" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="L68" s="4"/>
     </row>
@@ -3888,7 +3888,7 @@
         <v>32</v>
       </c>
       <c r="H69" s="11" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="L69" s="4"/>
     </row>
@@ -3903,7 +3903,7 @@
         <v>53</v>
       </c>
       <c r="H70" s="11" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="L70" s="4"/>
     </row>
@@ -3915,13 +3915,13 @@
         <v>55</v>
       </c>
       <c r="G71" s="11" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="H71" s="11" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="I71" s="11" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="L71" s="4"/>
     </row>
@@ -3936,7 +3936,7 @@
         <v>84</v>
       </c>
       <c r="H72" s="11" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="L72" s="4" t="s">
         <v>12</v>
@@ -3959,10 +3959,10 @@
         <v>143</v>
       </c>
       <c r="H74" s="11" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="K74" s="5" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="L74" s="4"/>
     </row>
@@ -3977,7 +3977,7 @@
         <v>24</v>
       </c>
       <c r="H75" s="11" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="L75" s="4"/>
     </row>
@@ -3992,7 +3992,7 @@
         <v>25</v>
       </c>
       <c r="H76" s="11" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="L76" s="4"/>
     </row>
@@ -4007,7 +4007,7 @@
         <v>32</v>
       </c>
       <c r="H77" s="11" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="L77" s="4"/>
     </row>
@@ -4016,13 +4016,13 @@
         <v>4</v>
       </c>
       <c r="F78" s="11" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="G78" s="11" t="s">
         <v>53</v>
       </c>
       <c r="H78" s="11" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="L78" s="4"/>
     </row>
@@ -4034,17 +4034,17 @@
         <v>55</v>
       </c>
       <c r="G79" s="11" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="H79" s="11" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="J79" s="11" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="L79" s="4"/>
       <c r="M79" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
     </row>
     <row r="80" spans="1:13" ht="30" x14ac:dyDescent="0.25">
@@ -4058,16 +4058,16 @@
         <v>60</v>
       </c>
       <c r="H80" s="11" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="J80" s="11" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="L80" s="4" t="s">
         <v>12</v>
       </c>
       <c r="M80" s="19" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
     </row>
     <row r="81" spans="1:12" x14ac:dyDescent="0.25">
@@ -4081,16 +4081,16 @@
         <v>46</v>
       </c>
       <c r="D82" s="11" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="F82" s="11" t="s">
         <v>30</v>
       </c>
       <c r="H82" s="11" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="K82" s="5" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="L82" s="4"/>
     </row>
@@ -4105,7 +4105,7 @@
         <v>24</v>
       </c>
       <c r="H83" s="11" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="L83" s="4"/>
     </row>
@@ -4120,7 +4120,7 @@
         <v>25</v>
       </c>
       <c r="H84" s="11" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="L84" s="4"/>
     </row>
@@ -4135,7 +4135,7 @@
         <v>32</v>
       </c>
       <c r="H85" s="11" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="L85" s="4"/>
     </row>
@@ -4144,13 +4144,13 @@
         <v>4</v>
       </c>
       <c r="F86" s="11" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="G86" s="11" t="s">
         <v>34</v>
       </c>
       <c r="H86" s="11" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="L86" s="4"/>
     </row>
@@ -4165,7 +4165,7 @@
         <v>36</v>
       </c>
       <c r="H87" s="11" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="L87" s="4" t="s">
         <v>12</v>
@@ -4188,10 +4188,10 @@
         <v>70</v>
       </c>
       <c r="F89" s="11" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="K89" s="5" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="L89" s="4"/>
     </row>
@@ -4283,13 +4283,13 @@
         <v>46</v>
       </c>
       <c r="D97" s="11" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="F97" s="11" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="K97" s="5" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="L97" s="4"/>
     </row>
@@ -4378,10 +4378,10 @@
         <v>41</v>
       </c>
       <c r="H105" s="11" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="K105" s="5" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="L105" s="4"/>
     </row>
@@ -4396,7 +4396,7 @@
         <v>24</v>
       </c>
       <c r="H106" s="11" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="L106" s="4"/>
     </row>
@@ -4411,7 +4411,7 @@
         <v>25</v>
       </c>
       <c r="H107" s="11" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="L107" s="4"/>
     </row>
@@ -4426,7 +4426,7 @@
         <v>32</v>
       </c>
       <c r="H108" s="11" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="L108" s="4"/>
     </row>
@@ -4441,7 +4441,7 @@
         <v>34</v>
       </c>
       <c r="H109" s="11" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="L109" s="4"/>
     </row>
@@ -4456,7 +4456,7 @@
         <v>43</v>
       </c>
       <c r="H110" s="11" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="L110" s="4" t="s">
         <v>12</v>
@@ -4473,13 +4473,13 @@
         <v>46</v>
       </c>
       <c r="D112" s="11" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="F112" s="11" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="K112" s="5" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="L112" s="4"/>
     </row>
@@ -4583,10 +4583,10 @@
         <v>50</v>
       </c>
       <c r="F121" s="11" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="K121" s="5" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="L121" s="4"/>
     </row>
@@ -4601,7 +4601,7 @@
         <v>24</v>
       </c>
       <c r="H122" s="11" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="L122" s="4"/>
     </row>
@@ -4616,7 +4616,7 @@
         <v>25</v>
       </c>
       <c r="H123" s="11" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="L123" s="4"/>
     </row>
@@ -4631,7 +4631,7 @@
         <v>32</v>
       </c>
       <c r="H124" s="11" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="L124" s="4"/>
     </row>
@@ -4646,7 +4646,7 @@
         <v>53</v>
       </c>
       <c r="H125" s="11" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="L125" s="4" t="s">
         <v>12</v>
@@ -4666,10 +4666,10 @@
         <v>77</v>
       </c>
       <c r="F127" s="11" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="K127" s="5" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="L127" s="4"/>
     </row>
@@ -4758,13 +4758,13 @@
         <v>46</v>
       </c>
       <c r="D135" s="11" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="F135" s="11" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="K135" s="5" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="L135" s="4"/>
     </row>
@@ -4853,13 +4853,13 @@
         <v>46</v>
       </c>
       <c r="D143" s="11" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="F143" s="11" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="K143" s="5" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="L143" s="4"/>
     </row>
@@ -4948,13 +4948,13 @@
         <v>46</v>
       </c>
       <c r="D151" s="11" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="F151" s="11" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="K151" s="5" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="L151" s="4"/>
     </row>
@@ -5046,10 +5046,10 @@
         <v>80</v>
       </c>
       <c r="F159" s="11" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="K159" s="5" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="L159" s="4"/>
     </row>
@@ -5144,10 +5144,10 @@
         <v>110</v>
       </c>
       <c r="F168" s="11" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="K168" s="5" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="L168" s="4"/>
     </row>
@@ -5233,7 +5233,7 @@
         <v>41</v>
       </c>
       <c r="K176" s="5" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="L176" s="4"/>
     </row>
@@ -5307,7 +5307,7 @@
         <v>41</v>
       </c>
       <c r="K184" s="5" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="L184" s="4"/>
     </row>
@@ -5366,7 +5366,7 @@
         <v>41</v>
       </c>
       <c r="K189" s="5" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="L189" s="4"/>
     </row>
@@ -5381,7 +5381,7 @@
         <v>24</v>
       </c>
       <c r="H190" s="11" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="L190" s="4"/>
     </row>
@@ -5396,7 +5396,7 @@
         <v>25</v>
       </c>
       <c r="H191" s="11" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="L191" s="4"/>
     </row>
@@ -5411,7 +5411,7 @@
         <v>120</v>
       </c>
       <c r="H192" s="11" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="L192" s="4"/>
     </row>
@@ -5426,16 +5426,16 @@
         <v>121</v>
       </c>
       <c r="H193" s="11" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="I193" s="11" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="L193" s="4" t="s">
         <v>14</v>
       </c>
       <c r="M193" s="19" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
     </row>
     <row r="194" spans="1:13" x14ac:dyDescent="0.25">
@@ -5460,7 +5460,7 @@
         <v>41</v>
       </c>
       <c r="K196" s="5" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="L196" s="4"/>
     </row>
@@ -5475,7 +5475,7 @@
         <v>24</v>
       </c>
       <c r="H197" s="11" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="L197" s="4"/>
     </row>
@@ -5490,7 +5490,7 @@
         <v>25</v>
       </c>
       <c r="H198" s="11" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="L198" s="4"/>
     </row>
@@ -5505,7 +5505,7 @@
         <v>124</v>
       </c>
       <c r="H199" s="11" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="L199" s="4"/>
     </row>
@@ -5520,10 +5520,10 @@
         <v>126</v>
       </c>
       <c r="H200" s="11" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="I200" s="11" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="L200" s="4" t="s">
         <v>14</v>
@@ -5549,7 +5549,7 @@
         <v>131</v>
       </c>
       <c r="K203" s="5" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="L203" s="4"/>
     </row>
@@ -5564,7 +5564,7 @@
         <v>24</v>
       </c>
       <c r="H204" s="11" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="L204" s="4"/>
     </row>
@@ -5579,7 +5579,7 @@
         <v>25</v>
       </c>
       <c r="H205" s="11" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="L205" s="4"/>
     </row>
@@ -5594,7 +5594,7 @@
         <v>124</v>
       </c>
       <c r="H206" s="11" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="L206" s="4"/>
     </row>
@@ -5609,7 +5609,7 @@
         <v>179</v>
       </c>
       <c r="H207" s="11" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="L207" s="4"/>
     </row>
@@ -5624,10 +5624,10 @@
         <v>126</v>
       </c>
       <c r="H208" s="11" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="I208" s="11" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="L208" s="4" t="s">
         <v>12</v>
@@ -5646,13 +5646,13 @@
         <v>46</v>
       </c>
       <c r="D210" s="11" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="F210" s="11" t="s">
         <v>41</v>
       </c>
       <c r="K210" s="5" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="L210" s="4"/>
     </row>
@@ -5704,7 +5704,7 @@
         <v>41</v>
       </c>
       <c r="K216" s="5" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="L216" s="4"/>
     </row>
@@ -5719,7 +5719,7 @@
         <v>24</v>
       </c>
       <c r="H217" s="11" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="L217" s="4"/>
     </row>
@@ -5734,7 +5734,7 @@
         <v>25</v>
       </c>
       <c r="H218" s="11" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="L218" s="4"/>
     </row>
@@ -5749,7 +5749,7 @@
         <v>136</v>
       </c>
       <c r="H219" s="11" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="L219" s="4" t="s">
         <v>14</v>
@@ -5766,7 +5766,7 @@
         <v>146</v>
       </c>
       <c r="H220" s="11" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="L220" s="4"/>
     </row>
@@ -5789,7 +5789,7 @@
         <v>41</v>
       </c>
       <c r="K222" s="5" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="L222" s="4"/>
     </row>
@@ -5804,7 +5804,7 @@
         <v>24</v>
       </c>
       <c r="H223" s="11" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="L223" s="4"/>
     </row>
@@ -5819,7 +5819,7 @@
         <v>25</v>
       </c>
       <c r="H224" s="11" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="L224" s="4"/>
     </row>
@@ -5834,7 +5834,7 @@
         <v>148</v>
       </c>
       <c r="H225" s="11" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="L225" s="4" t="s">
         <v>12</v>
@@ -5858,7 +5858,7 @@
       </c>
       <c r="J227" s="12"/>
       <c r="K227" s="5" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="L227" s="4"/>
     </row>
@@ -5920,7 +5920,7 @@
         <v>150</v>
       </c>
       <c r="K232" s="5" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="L232" s="4"/>
     </row>
@@ -5935,7 +5935,7 @@
         <v>24</v>
       </c>
       <c r="H233" s="11" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="L233" s="4"/>
     </row>
@@ -5950,7 +5950,7 @@
         <v>25</v>
       </c>
       <c r="H234" s="11" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="I234" s="14"/>
       <c r="L234" s="4"/>
@@ -5966,7 +5966,7 @@
         <v>151</v>
       </c>
       <c r="H235" s="11" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="L235" s="4"/>
     </row>
@@ -5981,7 +5981,7 @@
         <v>154</v>
       </c>
       <c r="H236" s="11" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="L236" s="4"/>
     </row>
@@ -5996,10 +5996,10 @@
         <v>156</v>
       </c>
       <c r="H237" s="11" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="I237" s="11" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="L237" s="4"/>
     </row>
@@ -6014,7 +6014,7 @@
         <v>64</v>
       </c>
       <c r="H238" s="11" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="L238" s="4"/>
     </row>
@@ -6029,7 +6029,7 @@
         <v>158</v>
       </c>
       <c r="H239" s="11" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="L239" s="4" t="s">
         <v>12</v>
@@ -6055,7 +6055,7 @@
         <v>150</v>
       </c>
       <c r="K241" s="5" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="L241" s="4"/>
     </row>
@@ -6070,7 +6070,7 @@
         <v>24</v>
       </c>
       <c r="H242" s="11" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="L242" s="4"/>
     </row>
@@ -6085,7 +6085,7 @@
         <v>25</v>
       </c>
       <c r="H243" s="11" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="I243" s="14"/>
       <c r="L243" s="4"/>
@@ -6101,7 +6101,7 @@
         <v>151</v>
       </c>
       <c r="H244" s="11" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="L244" s="4"/>
     </row>
@@ -6116,7 +6116,7 @@
         <v>154</v>
       </c>
       <c r="H245" s="11" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="L245" s="4"/>
     </row>
@@ -6131,10 +6131,10 @@
         <v>156</v>
       </c>
       <c r="H246" s="11" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="I246" s="11" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="L246" s="4"/>
     </row>
@@ -6149,7 +6149,7 @@
         <v>161</v>
       </c>
       <c r="H247" s="11" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="L247" s="4"/>
     </row>
@@ -6164,7 +6164,7 @@
         <v>158</v>
       </c>
       <c r="H248" s="11" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="L248" s="4" t="s">
         <v>12</v>
@@ -6193,7 +6193,7 @@
         <v>150</v>
       </c>
       <c r="K251" s="5" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="L251" s="4"/>
     </row>
@@ -6208,7 +6208,7 @@
         <v>24</v>
       </c>
       <c r="H252" s="11" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="L252" s="4"/>
     </row>
@@ -6223,7 +6223,7 @@
         <v>25</v>
       </c>
       <c r="H253" s="11" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="I253" s="14"/>
       <c r="L253" s="4"/>
@@ -6239,7 +6239,7 @@
         <v>151</v>
       </c>
       <c r="H254" s="11" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="L254" s="4"/>
     </row>
@@ -6254,7 +6254,7 @@
         <v>154</v>
       </c>
       <c r="H255" s="11" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="L255" s="4"/>
     </row>
@@ -6269,13 +6269,13 @@
         <v>93</v>
       </c>
       <c r="H256" s="11" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="L256" s="4" t="s">
         <v>14</v>
       </c>
       <c r="M256" s="19" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
     </row>
     <row r="257" spans="1:12" x14ac:dyDescent="0.25">
@@ -6298,7 +6298,7 @@
         <v>150</v>
       </c>
       <c r="K258" s="5" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="L258" s="4"/>
     </row>
@@ -6313,7 +6313,7 @@
         <v>24</v>
       </c>
       <c r="H259" s="11" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="L259" s="4"/>
     </row>
@@ -6328,7 +6328,7 @@
         <v>25</v>
       </c>
       <c r="H260" s="11" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="I260" s="14"/>
       <c r="L260" s="4"/>
@@ -6344,7 +6344,7 @@
         <v>151</v>
       </c>
       <c r="H261" s="11" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="L261" s="4"/>
     </row>
@@ -6359,7 +6359,7 @@
         <v>154</v>
       </c>
       <c r="H262" s="11" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="L262" s="4"/>
     </row>
@@ -6374,7 +6374,7 @@
         <v>156</v>
       </c>
       <c r="H263" s="11" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="L263" s="4"/>
     </row>
@@ -6389,7 +6389,7 @@
         <v>168</v>
       </c>
       <c r="H264" s="11" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="L264" s="4" t="s">
         <v>12</v>
@@ -6412,7 +6412,7 @@
         <v>41</v>
       </c>
       <c r="K266" s="5" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="L266" s="4"/>
     </row>
@@ -6427,7 +6427,7 @@
         <v>24</v>
       </c>
       <c r="H267" s="11" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="L267" s="4"/>
     </row>
@@ -6442,7 +6442,7 @@
         <v>25</v>
       </c>
       <c r="H268" s="11" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="L268" s="4"/>
     </row>
@@ -6457,7 +6457,7 @@
         <v>32</v>
       </c>
       <c r="H269" s="11" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="L269" s="4"/>
     </row>
@@ -6472,7 +6472,7 @@
         <v>53</v>
       </c>
       <c r="H270" s="11" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="L270" s="4"/>
     </row>
@@ -6487,7 +6487,7 @@
         <v>56</v>
       </c>
       <c r="H271" s="11" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="L271" s="4"/>
     </row>
@@ -6502,7 +6502,7 @@
         <v>86</v>
       </c>
       <c r="H272" s="11" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="L272" s="4" t="s">
         <v>12</v>
@@ -6525,7 +6525,7 @@
         <v>41</v>
       </c>
       <c r="K274" s="5" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="L274" s="4"/>
     </row>
@@ -6612,13 +6612,13 @@
         <v>46</v>
       </c>
       <c r="D282" s="11" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="F282" s="11" t="s">
         <v>41</v>
       </c>
       <c r="K282" s="5" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="L282" s="4"/>
     </row>
@@ -6711,7 +6711,7 @@
         <v>41</v>
       </c>
       <c r="K290" s="5" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="L290" s="4"/>
     </row>
@@ -6786,7 +6786,7 @@
         <v>41</v>
       </c>
       <c r="K298" s="5" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="L298" s="4"/>
     </row>
@@ -6801,7 +6801,7 @@
         <v>24</v>
       </c>
       <c r="H299" s="11" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="L299" s="4"/>
     </row>
@@ -6816,7 +6816,7 @@
         <v>25</v>
       </c>
       <c r="H300" s="11" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="L300" s="4"/>
     </row>
@@ -6828,7 +6828,7 @@
         <v>163</v>
       </c>
       <c r="H301" s="11" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="L301" s="4"/>
     </row>
@@ -6843,7 +6843,7 @@
         <v>53</v>
       </c>
       <c r="H302" s="11" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="L302" s="4"/>
     </row>
@@ -6858,7 +6858,7 @@
         <v>56</v>
       </c>
       <c r="H303" s="11" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="L303" s="4"/>
     </row>
@@ -6873,7 +6873,7 @@
         <v>84</v>
       </c>
       <c r="H304" s="11" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="L304" s="4" t="s">
         <v>12</v>
@@ -6896,7 +6896,7 @@
         <v>41</v>
       </c>
       <c r="K306" s="5" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="L306" s="4"/>
     </row>
@@ -6911,7 +6911,7 @@
         <v>24</v>
       </c>
       <c r="H307" s="11" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="L307" s="4"/>
     </row>
@@ -6926,7 +6926,7 @@
         <v>25</v>
       </c>
       <c r="H308" s="11" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="L308" s="4"/>
     </row>
@@ -6938,7 +6938,7 @@
         <v>163</v>
       </c>
       <c r="H309" s="11" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="L309" s="4"/>
     </row>
@@ -6953,7 +6953,7 @@
         <v>53</v>
       </c>
       <c r="H310" s="11" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="L310" s="4"/>
     </row>
@@ -6968,7 +6968,7 @@
         <v>56</v>
       </c>
       <c r="H311" s="11" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="L311" s="4"/>
     </row>
@@ -6983,7 +6983,7 @@
         <v>183</v>
       </c>
       <c r="H312" s="11" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="L312" s="4" t="s">
         <v>12</v>
@@ -6994,19 +6994,19 @@
     </row>
     <row r="314" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A314" s="11" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C314" s="5" t="s">
         <v>46</v>
       </c>
       <c r="D314" s="11" t="s">
-        <v>195</v>
+        <v>606</v>
       </c>
       <c r="F314" s="11" t="s">
         <v>41</v>
       </c>
       <c r="K314" s="5" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="L314" s="4"/>
     </row>
@@ -7039,10 +7039,10 @@
         <v>3</v>
       </c>
       <c r="F317" s="11" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="G317" s="11" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="L317" s="4"/>
     </row>
@@ -7051,12 +7051,14 @@
         <v>4</v>
       </c>
       <c r="F318" s="11" t="s">
+        <v>197</v>
+      </c>
+      <c r="G318" s="11" t="s">
         <v>198</v>
       </c>
-      <c r="G318" s="11" t="s">
-        <v>199</v>
-      </c>
-      <c r="L318" s="4"/>
+      <c r="L318" s="4" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="319" spans="1:12" x14ac:dyDescent="0.25">
       <c r="L319" s="4"/>
@@ -7066,19 +7068,19 @@
     </row>
     <row r="321" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A321" s="11" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C321" s="5" t="s">
         <v>46</v>
       </c>
       <c r="D321" s="11" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="F321" s="11" t="s">
         <v>41</v>
       </c>
       <c r="K321" s="5" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="L321" s="4"/>
     </row>
@@ -7102,28 +7104,30 @@
     </row>
     <row r="324" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="F324" s="11" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="G324" s="11" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="L324" s="4"/>
     </row>
     <row r="325" spans="1:12" ht="150" x14ac:dyDescent="0.25">
       <c r="F325" s="11" t="s">
+        <v>197</v>
+      </c>
+      <c r="G325" s="11" t="s">
         <v>198</v>
       </c>
-      <c r="G325" s="11" t="s">
-        <v>199</v>
-      </c>
-      <c r="L325" s="4"/>
+      <c r="L325" s="4" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="326" spans="1:12" x14ac:dyDescent="0.25">
       <c r="F326" s="11" t="s">
+        <v>200</v>
+      </c>
+      <c r="G326" s="11" t="s">
         <v>201</v>
-      </c>
-      <c r="G326" s="11" t="s">
-        <v>202</v>
       </c>
       <c r="L326" s="4"/>
     </row>
@@ -7134,19 +7138,19 @@
     </row>
     <row r="328" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A328" s="11" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C328" s="5" t="s">
         <v>46</v>
       </c>
       <c r="D328" s="11" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="F328" s="11" t="s">
         <v>41</v>
       </c>
       <c r="K328" s="5" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="L328" s="4"/>
     </row>
@@ -7170,30 +7174,32 @@
     </row>
     <row r="331" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="F331" s="11" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="G331" s="11" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="L331" s="4"/>
     </row>
     <row r="332" spans="1:12" ht="150" x14ac:dyDescent="0.25">
       <c r="F332" s="11" t="s">
+        <v>197</v>
+      </c>
+      <c r="G332" s="11" t="s">
         <v>198</v>
-      </c>
-      <c r="G332" s="11" t="s">
-        <v>199</v>
       </c>
       <c r="L332" s="4"/>
     </row>
     <row r="333" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="F333" s="11" t="s">
+        <v>206</v>
+      </c>
+      <c r="G333" s="11" t="s">
         <v>207</v>
       </c>
-      <c r="G333" s="11" t="s">
-        <v>208</v>
-      </c>
-      <c r="L333" s="4"/>
+      <c r="L333" s="4" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="334" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C334"/>
@@ -7205,19 +7211,19 @@
     </row>
     <row r="336" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A336" s="11" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C336" s="5" t="s">
         <v>46</v>
       </c>
       <c r="D336" s="11" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="F336" s="11" t="s">
         <v>41</v>
       </c>
       <c r="K336" s="5" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="L336" s="4"/>
     </row>
@@ -7241,21 +7247,23 @@
     </row>
     <row r="339" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="F339" s="11" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="G339" s="11" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="L339" s="4"/>
     </row>
     <row r="340" spans="1:12" ht="150" x14ac:dyDescent="0.25">
       <c r="F340" s="11" t="s">
+        <v>197</v>
+      </c>
+      <c r="G340" s="11" t="s">
         <v>198</v>
       </c>
-      <c r="G340" s="11" t="s">
-        <v>199</v>
-      </c>
-      <c r="L340" s="4"/>
+      <c r="L340" s="4" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="341" spans="1:12" x14ac:dyDescent="0.25">
       <c r="L341" s="4"/>
@@ -7265,19 +7273,19 @@
     </row>
     <row r="343" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A343" s="11" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C343" s="5" t="s">
         <v>46</v>
       </c>
       <c r="D343" s="11" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="F343" s="11" t="s">
         <v>41</v>
       </c>
       <c r="K343" s="5" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="L343" s="4"/>
     </row>
@@ -7301,28 +7309,30 @@
     </row>
     <row r="346" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="F346" s="11" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="G346" s="11" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="L346" s="4"/>
     </row>
     <row r="347" spans="1:12" ht="150" x14ac:dyDescent="0.25">
       <c r="F347" s="11" t="s">
+        <v>197</v>
+      </c>
+      <c r="G347" s="11" t="s">
         <v>198</v>
       </c>
-      <c r="G347" s="11" t="s">
-        <v>199</v>
-      </c>
-      <c r="L347" s="4"/>
+      <c r="L347" s="4" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="348" spans="1:12" x14ac:dyDescent="0.25">
       <c r="F348" s="11" t="s">
+        <v>200</v>
+      </c>
+      <c r="G348" s="11" t="s">
         <v>201</v>
-      </c>
-      <c r="G348" s="11" t="s">
-        <v>202</v>
       </c>
       <c r="L348" s="4"/>
     </row>
@@ -7333,19 +7343,19 @@
     </row>
     <row r="350" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A350" s="11" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C350" s="5" t="s">
         <v>46</v>
       </c>
       <c r="D350" s="11" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="F350" s="11" t="s">
         <v>41</v>
       </c>
       <c r="K350" s="5" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="L350" s="4"/>
     </row>
@@ -7369,30 +7379,32 @@
     </row>
     <row r="353" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="F353" s="11" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="G353" s="11" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="L353" s="4"/>
     </row>
     <row r="354" spans="1:12" ht="150" x14ac:dyDescent="0.25">
       <c r="F354" s="11" t="s">
+        <v>197</v>
+      </c>
+      <c r="G354" s="11" t="s">
         <v>198</v>
-      </c>
-      <c r="G354" s="11" t="s">
-        <v>199</v>
       </c>
       <c r="L354" s="4"/>
     </row>
     <row r="355" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="F355" s="11" t="s">
+        <v>206</v>
+      </c>
+      <c r="G355" s="11" t="s">
         <v>207</v>
       </c>
-      <c r="G355" s="11" t="s">
-        <v>208</v>
-      </c>
-      <c r="L355" s="4"/>
+      <c r="L355" s="4" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="356" spans="1:12" x14ac:dyDescent="0.25">
       <c r="L356" s="4"/>
@@ -7405,16 +7417,19 @@
     </row>
     <row r="359" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A359" s="11" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C359" s="5" t="s">
         <v>46</v>
       </c>
       <c r="D359" s="11" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="F359" s="11" t="s">
         <v>41</v>
+      </c>
+      <c r="K359" s="5" t="s">
+        <v>605</v>
       </c>
       <c r="L359" s="4"/>
     </row>
@@ -7438,21 +7453,23 @@
     </row>
     <row r="362" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="F362" s="11" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="G362" s="11" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="L362" s="4"/>
     </row>
     <row r="363" spans="1:12" ht="150" x14ac:dyDescent="0.25">
       <c r="F363" s="11" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="G363" s="11" t="s">
-        <v>219</v>
-      </c>
-      <c r="L363" s="4"/>
+        <v>218</v>
+      </c>
+      <c r="L363" s="4" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="364" spans="1:12" x14ac:dyDescent="0.25">
       <c r="L364" s="4"/>
@@ -7462,16 +7479,19 @@
     </row>
     <row r="366" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A366" s="11" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C366" s="5" t="s">
         <v>46</v>
       </c>
       <c r="D366" s="11" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="F366" s="11" t="s">
         <v>41</v>
+      </c>
+      <c r="K366" s="5" t="s">
+        <v>605</v>
       </c>
       <c r="L366" s="4"/>
     </row>
@@ -7480,7 +7500,7 @@
         <v>22</v>
       </c>
       <c r="G367" s="11" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="L367" s="4"/>
     </row>
@@ -7495,30 +7515,32 @@
     </row>
     <row r="369" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="F369" s="11" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="G369" s="11" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="L369" s="4"/>
     </row>
     <row r="370" spans="1:12" ht="150" x14ac:dyDescent="0.25">
       <c r="F370" s="11" t="s">
+        <v>197</v>
+      </c>
+      <c r="G370" s="11" t="s">
         <v>198</v>
-      </c>
-      <c r="G370" s="11" t="s">
-        <v>199</v>
       </c>
       <c r="L370" s="4"/>
     </row>
     <row r="371" spans="1:12" x14ac:dyDescent="0.25">
       <c r="F371" s="11" t="s">
+        <v>200</v>
+      </c>
+      <c r="G371" s="11" t="s">
         <v>201</v>
       </c>
-      <c r="G371" s="11" t="s">
-        <v>202</v>
-      </c>
-      <c r="L371" s="4"/>
+      <c r="L371" s="4" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="372" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C372"/>
@@ -7527,16 +7549,19 @@
     </row>
     <row r="373" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A373" s="11" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C373" s="5" t="s">
         <v>46</v>
       </c>
       <c r="D373" s="11" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="F373" s="11" t="s">
         <v>41</v>
+      </c>
+      <c r="K373" s="5" t="s">
+        <v>605</v>
       </c>
       <c r="L373" s="4"/>
     </row>
@@ -7560,43 +7585,45 @@
     </row>
     <row r="376" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="F376" s="11" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="G376" s="11" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="L376" s="4"/>
     </row>
     <row r="377" spans="1:12" ht="150" x14ac:dyDescent="0.25">
       <c r="F377" s="11" t="s">
+        <v>197</v>
+      </c>
+      <c r="G377" s="11" t="s">
         <v>198</v>
-      </c>
-      <c r="G377" s="11" t="s">
-        <v>199</v>
       </c>
       <c r="L377" s="4"/>
     </row>
     <row r="378" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="F378" s="11" t="s">
+        <v>206</v>
+      </c>
+      <c r="G378" s="11" t="s">
         <v>207</v>
       </c>
-      <c r="G378" s="11" t="s">
-        <v>208</v>
-      </c>
-      <c r="L378" s="4"/>
+      <c r="L378" s="4" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="379" spans="1:12" x14ac:dyDescent="0.25">
       <c r="L379" s="4"/>
     </row>
     <row r="380" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A380" s="11" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C380" s="5" t="s">
         <v>46</v>
       </c>
       <c r="D380" s="11" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="F380" s="11" t="s">
         <v>41</v>
@@ -7614,19 +7641,19 @@
     </row>
     <row r="382" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="F382" s="15" t="s">
+        <v>225</v>
+      </c>
+      <c r="G382" s="15" t="s">
         <v>226</v>
-      </c>
-      <c r="G382" s="15" t="s">
-        <v>227</v>
       </c>
       <c r="L382" s="4"/>
     </row>
     <row r="383" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="F383" s="15" t="s">
+        <v>227</v>
+      </c>
+      <c r="G383" s="15" t="s">
         <v>228</v>
-      </c>
-      <c r="G383" s="15" t="s">
-        <v>229</v>
       </c>
       <c r="L383" s="4"/>
     </row>
@@ -7638,13 +7665,13 @@
     </row>
     <row r="386" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A386" s="11" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C386" s="5" t="s">
         <v>46</v>
       </c>
       <c r="D386" s="15" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="F386" s="11" t="s">
         <v>41</v>
@@ -7662,46 +7689,46 @@
     </row>
     <row r="388" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="F388" s="15" t="s">
+        <v>233</v>
+      </c>
+      <c r="G388" s="15" t="s">
         <v>234</v>
-      </c>
-      <c r="G388" s="15" t="s">
-        <v>235</v>
       </c>
       <c r="L388" s="4"/>
     </row>
     <row r="389" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="F389" s="15" t="s">
+        <v>235</v>
+      </c>
+      <c r="G389" s="15" t="s">
         <v>236</v>
-      </c>
-      <c r="G389" s="15" t="s">
-        <v>237</v>
       </c>
       <c r="L389" s="4"/>
     </row>
     <row r="390" spans="1:12" ht="195" x14ac:dyDescent="0.25">
       <c r="F390" s="15" t="s">
+        <v>237</v>
+      </c>
+      <c r="G390" s="15" t="s">
         <v>238</v>
-      </c>
-      <c r="G390" s="15" t="s">
-        <v>239</v>
       </c>
       <c r="L390" s="4"/>
     </row>
     <row r="391" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="F391" s="15" t="s">
+        <v>239</v>
+      </c>
+      <c r="G391" s="15" t="s">
         <v>240</v>
-      </c>
-      <c r="G391" s="15" t="s">
-        <v>241</v>
       </c>
       <c r="L391" s="4"/>
     </row>
     <row r="392" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="F392" s="15" t="s">
+        <v>241</v>
+      </c>
+      <c r="G392" s="15" t="s">
         <v>242</v>
-      </c>
-      <c r="G392" s="15" t="s">
-        <v>243</v>
       </c>
       <c r="L392" s="4"/>
     </row>
@@ -7713,13 +7740,13 @@
     </row>
     <row r="395" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A395" s="11" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C395" s="5" t="s">
         <v>46</v>
       </c>
       <c r="D395" s="15" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="F395" s="11" t="s">
         <v>41</v>
@@ -7737,37 +7764,37 @@
     </row>
     <row r="397" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="F397" s="15" t="s">
+        <v>233</v>
+      </c>
+      <c r="G397" s="15" t="s">
         <v>234</v>
-      </c>
-      <c r="G397" s="15" t="s">
-        <v>235</v>
       </c>
       <c r="L397" s="4"/>
     </row>
     <row r="398" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="F398" s="15" t="s">
+        <v>315</v>
+      </c>
+      <c r="G398" s="15" t="s">
         <v>316</v>
-      </c>
-      <c r="G398" s="15" t="s">
-        <v>317</v>
       </c>
       <c r="L398" s="4"/>
     </row>
     <row r="399" spans="1:12" ht="225" x14ac:dyDescent="0.25">
       <c r="F399" s="15" t="s">
+        <v>317</v>
+      </c>
+      <c r="G399" s="15" t="s">
         <v>318</v>
-      </c>
-      <c r="G399" s="15" t="s">
-        <v>319</v>
       </c>
       <c r="L399" s="4"/>
     </row>
     <row r="400" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="F400" s="15" t="s">
+        <v>319</v>
+      </c>
+      <c r="G400" s="15" t="s">
         <v>320</v>
-      </c>
-      <c r="G400" s="15" t="s">
-        <v>321</v>
       </c>
       <c r="L400" s="4"/>
     </row>
@@ -7781,13 +7808,13 @@
     </row>
     <row r="403" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A403" s="11" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="C403" s="5" t="s">
         <v>46</v>
       </c>
       <c r="D403" s="15" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="F403" s="11" t="s">
         <v>41</v>
@@ -7805,28 +7832,28 @@
     </row>
     <row r="405" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="F405" s="15" t="s">
+        <v>233</v>
+      </c>
+      <c r="G405" s="15" t="s">
         <v>234</v>
-      </c>
-      <c r="G405" s="15" t="s">
-        <v>235</v>
       </c>
       <c r="L405" s="4"/>
     </row>
     <row r="406" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="F406" s="15" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="G406" s="15" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="L406" s="4"/>
     </row>
     <row r="407" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="F407" s="15" t="s">
+        <v>326</v>
+      </c>
+      <c r="G407" s="15" t="s">
         <v>327</v>
-      </c>
-      <c r="G407" s="15" t="s">
-        <v>328</v>
       </c>
       <c r="L407" s="4"/>
     </row>
@@ -7841,13 +7868,13 @@
     </row>
     <row r="411" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A411" s="11" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="C411" s="5" t="s">
         <v>46</v>
       </c>
       <c r="D411" s="15" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="F411" s="11" t="s">
         <v>41</v>
@@ -7865,37 +7892,37 @@
     </row>
     <row r="413" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="F413" s="15" t="s">
+        <v>233</v>
+      </c>
+      <c r="G413" s="15" t="s">
         <v>234</v>
-      </c>
-      <c r="G413" s="15" t="s">
-        <v>235</v>
       </c>
       <c r="L413" s="4"/>
     </row>
     <row r="414" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="F414" s="15" t="s">
+        <v>315</v>
+      </c>
+      <c r="G414" s="15" t="s">
         <v>316</v>
-      </c>
-      <c r="G414" s="15" t="s">
-        <v>317</v>
       </c>
       <c r="L414" s="4"/>
     </row>
     <row r="415" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="F415" s="15" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="G415" s="15" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="L415" s="4"/>
     </row>
     <row r="416" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="F416" s="15" t="s">
+        <v>323</v>
+      </c>
+      <c r="G416" s="15" t="s">
         <v>324</v>
-      </c>
-      <c r="G416" s="15" t="s">
-        <v>325</v>
       </c>
       <c r="L416" s="4"/>
     </row>
@@ -7907,13 +7934,13 @@
     </row>
     <row r="419" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A419" s="11" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="C419" s="5" t="s">
         <v>46</v>
       </c>
       <c r="D419" s="15" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="F419" s="11" t="s">
         <v>41</v>
@@ -7931,37 +7958,37 @@
     </row>
     <row r="421" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="F421" s="15" t="s">
+        <v>233</v>
+      </c>
+      <c r="G421" s="15" t="s">
         <v>234</v>
-      </c>
-      <c r="G421" s="15" t="s">
-        <v>235</v>
       </c>
       <c r="L421" s="4"/>
     </row>
     <row r="422" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="F422" s="15" t="s">
+        <v>315</v>
+      </c>
+      <c r="G422" s="15" t="s">
         <v>316</v>
-      </c>
-      <c r="G422" s="15" t="s">
-        <v>317</v>
       </c>
       <c r="L422" s="4"/>
     </row>
     <row r="423" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="F423" s="15" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="G423" s="15" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="L423" s="4"/>
     </row>
     <row r="424" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="F424" s="15" t="s">
+        <v>326</v>
+      </c>
+      <c r="G424" s="15" t="s">
         <v>327</v>
-      </c>
-      <c r="G424" s="15" t="s">
-        <v>328</v>
       </c>
       <c r="L424" s="4"/>
     </row>
@@ -7970,13 +7997,13 @@
     </row>
     <row r="426" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A426" s="11" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="C426" s="5" t="s">
         <v>46</v>
       </c>
       <c r="D426" s="15" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="F426" s="11" t="s">
         <v>41</v>
@@ -7994,37 +8021,37 @@
     </row>
     <row r="428" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="F428" s="15" t="s">
+        <v>233</v>
+      </c>
+      <c r="G428" s="15" t="s">
         <v>234</v>
-      </c>
-      <c r="G428" s="15" t="s">
-        <v>235</v>
       </c>
       <c r="L428" s="4"/>
     </row>
     <row r="429" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="F429" s="15" t="s">
+        <v>315</v>
+      </c>
+      <c r="G429" s="15" t="s">
         <v>316</v>
-      </c>
-      <c r="G429" s="15" t="s">
-        <v>317</v>
       </c>
       <c r="L429" s="4"/>
     </row>
     <row r="430" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="F430" s="15" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="G430" s="15" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="L430" s="4"/>
     </row>
     <row r="431" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="F431" s="15" t="s">
+        <v>330</v>
+      </c>
+      <c r="G431" s="15" t="s">
         <v>331</v>
-      </c>
-      <c r="G431" s="15" t="s">
-        <v>332</v>
       </c>
       <c r="L431" s="4"/>
     </row>
@@ -8041,13 +8068,13 @@
     </row>
     <row r="435" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A435" s="11" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="C435" s="5" t="s">
         <v>46</v>
       </c>
       <c r="D435" s="15" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="F435" s="11" t="s">
         <v>41</v>
@@ -8065,37 +8092,37 @@
     </row>
     <row r="437" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="F437" s="15" t="s">
+        <v>233</v>
+      </c>
+      <c r="G437" s="15" t="s">
         <v>234</v>
-      </c>
-      <c r="G437" s="15" t="s">
-        <v>235</v>
       </c>
       <c r="L437" s="4"/>
     </row>
     <row r="438" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="F438" s="15" t="s">
+        <v>315</v>
+      </c>
+      <c r="G438" s="15" t="s">
         <v>316</v>
-      </c>
-      <c r="G438" s="15" t="s">
-        <v>317</v>
       </c>
       <c r="L438" s="4"/>
     </row>
     <row r="439" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="F439" s="15" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="G439" s="15" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="L439" s="4"/>
     </row>
     <row r="440" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="F440" s="15" t="s">
+        <v>330</v>
+      </c>
+      <c r="G440" s="15" t="s">
         <v>331</v>
-      </c>
-      <c r="G440" s="15" t="s">
-        <v>332</v>
       </c>
       <c r="L440" s="4"/>
     </row>
@@ -8109,13 +8136,13 @@
     </row>
     <row r="443" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A443" s="11" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="C443" s="5" t="s">
         <v>46</v>
       </c>
       <c r="D443" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="F443" s="11" t="s">
         <v>41</v>
@@ -8133,28 +8160,28 @@
     </row>
     <row r="445" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="F445" s="15" t="s">
+        <v>233</v>
+      </c>
+      <c r="G445" s="15" t="s">
         <v>234</v>
-      </c>
-      <c r="G445" s="15" t="s">
-        <v>235</v>
       </c>
       <c r="L445" s="4"/>
     </row>
     <row r="446" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="F446" s="15" t="s">
+        <v>333</v>
+      </c>
+      <c r="G446" s="15" t="s">
         <v>334</v>
-      </c>
-      <c r="G446" s="15" t="s">
-        <v>335</v>
       </c>
       <c r="L446" s="4"/>
     </row>
     <row r="447" spans="1:12" ht="210" x14ac:dyDescent="0.25">
       <c r="F447" s="15" t="s">
+        <v>335</v>
+      </c>
+      <c r="G447" s="15" t="s">
         <v>336</v>
-      </c>
-      <c r="G447" s="15" t="s">
-        <v>337</v>
       </c>
       <c r="L447" s="4"/>
     </row>
@@ -8163,13 +8190,13 @@
     </row>
     <row r="449" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A449" s="11" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="C449" s="5" t="s">
         <v>46</v>
       </c>
       <c r="D449" s="15" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="F449" s="11" t="s">
         <v>41</v>
@@ -8187,37 +8214,37 @@
     </row>
     <row r="451" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="F451" s="15" t="s">
+        <v>233</v>
+      </c>
+      <c r="G451" s="15" t="s">
         <v>234</v>
-      </c>
-      <c r="G451" s="15" t="s">
-        <v>235</v>
       </c>
       <c r="L451" s="4"/>
     </row>
     <row r="452" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="F452" s="15" t="s">
+        <v>338</v>
+      </c>
+      <c r="G452" s="15" t="s">
         <v>339</v>
-      </c>
-      <c r="G452" s="15" t="s">
-        <v>340</v>
       </c>
       <c r="L452" s="4"/>
     </row>
     <row r="453" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="F453" s="15" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="G453" s="15" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="L453" s="4"/>
     </row>
     <row r="454" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="F454" s="15" t="s">
+        <v>323</v>
+      </c>
+      <c r="G454" s="15" t="s">
         <v>324</v>
-      </c>
-      <c r="G454" s="15" t="s">
-        <v>325</v>
       </c>
       <c r="L454" s="4"/>
     </row>
@@ -8229,13 +8256,13 @@
     </row>
     <row r="457" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A457" s="11" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="C457" s="5" t="s">
         <v>46</v>
       </c>
       <c r="D457" s="15" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="F457" s="11" t="s">
         <v>41</v>
@@ -8253,37 +8280,37 @@
     </row>
     <row r="459" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="F459" s="15" t="s">
+        <v>233</v>
+      </c>
+      <c r="G459" s="15" t="s">
         <v>234</v>
-      </c>
-      <c r="G459" s="15" t="s">
-        <v>235</v>
       </c>
       <c r="L459" s="4"/>
     </row>
     <row r="460" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="F460" s="15" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="G460" s="15" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="L460" s="4"/>
     </row>
     <row r="461" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="F461" s="15" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="G461" s="15" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="L461" s="4"/>
     </row>
     <row r="462" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="F462" s="15" t="s">
+        <v>330</v>
+      </c>
+      <c r="G462" s="15" t="s">
         <v>331</v>
-      </c>
-      <c r="G462" s="15" t="s">
-        <v>332</v>
       </c>
       <c r="L462" s="4"/>
     </row>
@@ -8298,13 +8325,13 @@
     </row>
     <row r="466" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A466" s="11" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="C466" s="5" t="s">
         <v>46</v>
       </c>
       <c r="D466" s="15" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="F466" s="11" t="s">
         <v>41</v>
@@ -8322,37 +8349,37 @@
     </row>
     <row r="468" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="F468" s="15" t="s">
+        <v>233</v>
+      </c>
+      <c r="G468" s="15" t="s">
         <v>234</v>
-      </c>
-      <c r="G468" s="15" t="s">
-        <v>235</v>
       </c>
       <c r="L468" s="4"/>
     </row>
     <row r="469" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="F469" s="15" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="G469" s="15" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="L469" s="4"/>
     </row>
     <row r="470" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="F470" s="15" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="G470" s="15" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="L470" s="4"/>
     </row>
     <row r="471" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="F471" s="15" t="s">
+        <v>326</v>
+      </c>
+      <c r="G471" s="15" t="s">
         <v>327</v>
-      </c>
-      <c r="G471" s="15" t="s">
-        <v>328</v>
       </c>
       <c r="L471" s="4"/>
     </row>
@@ -8364,13 +8391,13 @@
     </row>
     <row r="474" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A474" s="11" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="C474" s="5" t="s">
         <v>46</v>
       </c>
       <c r="D474" s="15" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="F474" s="11" t="s">
         <v>41</v>
@@ -8388,28 +8415,28 @@
     </row>
     <row r="476" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="F476" s="15" t="s">
+        <v>233</v>
+      </c>
+      <c r="G476" s="15" t="s">
         <v>234</v>
-      </c>
-      <c r="G476" s="15" t="s">
-        <v>235</v>
       </c>
       <c r="L476" s="4"/>
     </row>
     <row r="477" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="F477" s="15" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="G477" s="15" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="L477" s="4"/>
     </row>
     <row r="478" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="F478" s="15" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="G478" s="15" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="L478" s="4"/>
     </row>
@@ -8423,13 +8450,13 @@
     </row>
     <row r="481" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A481" s="11" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="C481" s="5" t="s">
         <v>46</v>
       </c>
       <c r="D481" s="15" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="F481" s="11" t="s">
         <v>41</v>
@@ -8447,29 +8474,29 @@
     </row>
     <row r="483" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="F483" s="15" t="s">
+        <v>233</v>
+      </c>
+      <c r="G483" s="15" t="s">
         <v>234</v>
-      </c>
-      <c r="G483" s="15" t="s">
-        <v>235</v>
       </c>
       <c r="L483" s="4"/>
     </row>
     <row r="484" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="F484" s="15" t="s">
+        <v>347</v>
+      </c>
+      <c r="G484" s="15" t="s">
         <v>348</v>
-      </c>
-      <c r="G484" s="15" t="s">
-        <v>349</v>
       </c>
       <c r="K484" s="4"/>
       <c r="L484" s="4"/>
     </row>
     <row r="485" spans="1:12" ht="120" x14ac:dyDescent="0.25">
       <c r="F485" s="15" t="s">
+        <v>349</v>
+      </c>
+      <c r="G485" s="15" t="s">
         <v>350</v>
-      </c>
-      <c r="G485" s="15" t="s">
-        <v>351</v>
       </c>
       <c r="K485" s="4"/>
       <c r="L485" s="4"/>
@@ -8484,13 +8511,13 @@
     </row>
     <row r="488" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A488" s="11" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="C488" s="5" t="s">
         <v>46</v>
       </c>
       <c r="D488" s="15" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="F488" s="11" t="s">
         <v>41</v>
@@ -8500,30 +8527,30 @@
     </row>
     <row r="489" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="F489" s="15" t="s">
+        <v>233</v>
+      </c>
+      <c r="G489" s="15" t="s">
         <v>234</v>
-      </c>
-      <c r="G489" s="15" t="s">
-        <v>235</v>
       </c>
       <c r="K489" s="4"/>
       <c r="L489" s="4"/>
     </row>
     <row r="490" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="F490" s="15" t="s">
+        <v>352</v>
+      </c>
+      <c r="G490" s="15" t="s">
         <v>353</v>
-      </c>
-      <c r="G490" s="15" t="s">
-        <v>354</v>
       </c>
       <c r="K490" s="4"/>
       <c r="L490" s="4"/>
     </row>
     <row r="491" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="F491" s="15" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="G491" s="15" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="K491" s="4"/>
       <c r="L491" s="4"/>
@@ -8540,13 +8567,13 @@
     </row>
     <row r="494" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A494" s="11" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="C494" s="5" t="s">
         <v>46</v>
       </c>
       <c r="D494" s="15" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="F494" s="11" t="s">
         <v>41</v>
@@ -8556,20 +8583,20 @@
     </row>
     <row r="495" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="F495" s="15" t="s">
+        <v>233</v>
+      </c>
+      <c r="G495" s="15" t="s">
         <v>234</v>
-      </c>
-      <c r="G495" s="15" t="s">
-        <v>235</v>
       </c>
       <c r="K495" s="4"/>
       <c r="L495" s="4"/>
     </row>
     <row r="496" spans="1:12" ht="60" x14ac:dyDescent="0.25">
       <c r="F496" s="15" t="s">
+        <v>369</v>
+      </c>
+      <c r="G496" s="15" t="s">
         <v>370</v>
-      </c>
-      <c r="G496" s="15" t="s">
-        <v>371</v>
       </c>
       <c r="K496" s="4"/>
       <c r="L496" s="4"/>
@@ -8588,13 +8615,13 @@
     </row>
     <row r="499" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A499" s="11" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="C499" s="5" t="s">
         <v>46</v>
       </c>
       <c r="D499" s="15" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="F499" s="11" t="s">
         <v>41</v>
@@ -8604,20 +8631,20 @@
     </row>
     <row r="500" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="F500" s="15" t="s">
+        <v>233</v>
+      </c>
+      <c r="G500" s="15" t="s">
         <v>234</v>
-      </c>
-      <c r="G500" s="15" t="s">
-        <v>235</v>
       </c>
       <c r="K500" s="4"/>
       <c r="L500" s="4"/>
     </row>
     <row r="501" spans="1:12" ht="60" x14ac:dyDescent="0.25">
       <c r="F501" s="15" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="G501" s="15" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="K501" s="4"/>
       <c r="L501" s="4"/>
@@ -8628,13 +8655,13 @@
     </row>
     <row r="503" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A503" s="11" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="C503" s="5" t="s">
         <v>46</v>
       </c>
       <c r="D503" s="15" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="F503" s="11" t="s">
         <v>41</v>
@@ -8644,20 +8671,20 @@
     </row>
     <row r="504" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="F504" s="15" t="s">
+        <v>233</v>
+      </c>
+      <c r="G504" s="15" t="s">
         <v>234</v>
-      </c>
-      <c r="G504" s="15" t="s">
-        <v>235</v>
       </c>
       <c r="K504" s="4"/>
       <c r="L504" s="4"/>
     </row>
     <row r="505" spans="1:12" ht="60" x14ac:dyDescent="0.25">
       <c r="F505" s="15" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="G505" s="15" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="K505" s="4"/>
       <c r="L505" s="4"/>
@@ -8668,13 +8695,13 @@
     </row>
     <row r="507" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A507" s="11" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="C507" s="5" t="s">
         <v>46</v>
       </c>
       <c r="D507" s="15" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="F507" s="11" t="s">
         <v>41</v>
@@ -8684,17 +8711,17 @@
     </row>
     <row r="508" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="F508" s="15" t="s">
+        <v>233</v>
+      </c>
+      <c r="G508" s="15" t="s">
         <v>234</v>
-      </c>
-      <c r="G508" s="15" t="s">
-        <v>235</v>
       </c>
       <c r="K508" s="4"/>
       <c r="L508" s="4"/>
     </row>
     <row r="509" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="F509" s="15" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="G509" s="15"/>
       <c r="K509" s="4"/>
@@ -8702,20 +8729,20 @@
     </row>
     <row r="510" spans="1:12" ht="60" x14ac:dyDescent="0.25">
       <c r="F510" s="11" t="s">
+        <v>377</v>
+      </c>
+      <c r="G510" s="11" t="s">
         <v>378</v>
-      </c>
-      <c r="G510" s="11" t="s">
-        <v>379</v>
       </c>
       <c r="K510" s="4"/>
       <c r="L510" s="4"/>
     </row>
     <row r="511" spans="1:12" x14ac:dyDescent="0.25">
       <c r="F511" s="11" t="s">
+        <v>379</v>
+      </c>
+      <c r="G511" s="11" t="s">
         <v>380</v>
-      </c>
-      <c r="G511" s="11" t="s">
-        <v>381</v>
       </c>
       <c r="K511" s="4"/>
       <c r="L511" s="4"/>
@@ -8730,13 +8757,13 @@
     </row>
     <row r="514" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A514" s="11" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="C514" s="5" t="s">
         <v>46</v>
       </c>
       <c r="D514" s="15" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="F514" s="11" t="s">
         <v>41</v>
@@ -8746,50 +8773,50 @@
     </row>
     <row r="515" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="F515" s="15" t="s">
+        <v>233</v>
+      </c>
+      <c r="G515" s="15" t="s">
         <v>234</v>
-      </c>
-      <c r="G515" s="15" t="s">
-        <v>235</v>
       </c>
       <c r="K515" s="4"/>
       <c r="L515" s="4"/>
     </row>
     <row r="516" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="F516" s="15" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="G516" s="15" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="K516" s="4"/>
       <c r="L516" s="4"/>
     </row>
     <row r="517" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="F517" s="11" t="s">
+        <v>387</v>
+      </c>
+      <c r="G517" s="11" t="s">
         <v>388</v>
-      </c>
-      <c r="G517" s="11" t="s">
-        <v>389</v>
       </c>
       <c r="K517" s="4"/>
       <c r="L517" s="4"/>
     </row>
     <row r="518" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="F518" s="11" t="s">
+        <v>389</v>
+      </c>
+      <c r="G518" s="11" t="s">
         <v>390</v>
-      </c>
-      <c r="G518" s="11" t="s">
-        <v>391</v>
       </c>
       <c r="K518" s="4"/>
       <c r="L518" s="4"/>
     </row>
     <row r="519" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="F519" s="11" t="s">
+        <v>391</v>
+      </c>
+      <c r="G519" s="11" t="s">
         <v>392</v>
-      </c>
-      <c r="G519" s="11" t="s">
-        <v>393</v>
       </c>
       <c r="K519" s="4"/>
       <c r="L519" s="4"/>
@@ -8800,13 +8827,13 @@
     </row>
     <row r="521" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A521" s="11" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="C521" s="5" t="s">
         <v>46</v>
       </c>
       <c r="D521" s="15" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="F521" s="11" t="s">
         <v>41</v>
@@ -8816,60 +8843,60 @@
     </row>
     <row r="522" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="F522" s="15" t="s">
+        <v>233</v>
+      </c>
+      <c r="G522" s="15" t="s">
         <v>234</v>
-      </c>
-      <c r="G522" s="15" t="s">
-        <v>235</v>
       </c>
       <c r="K522" s="4"/>
       <c r="L522" s="4"/>
     </row>
     <row r="523" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="F523" s="15" t="s">
+        <v>382</v>
+      </c>
+      <c r="G523" s="15" t="s">
         <v>383</v>
-      </c>
-      <c r="G523" s="15" t="s">
-        <v>384</v>
       </c>
       <c r="K523" s="4"/>
       <c r="L523" s="4"/>
     </row>
     <row r="524" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="F524" s="11" t="s">
+        <v>389</v>
+      </c>
+      <c r="G524" s="11" t="s">
         <v>390</v>
-      </c>
-      <c r="G524" s="11" t="s">
-        <v>391</v>
       </c>
       <c r="K524" s="4"/>
       <c r="L524" s="4"/>
     </row>
     <row r="525" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="F525" s="11" t="s">
+        <v>394</v>
+      </c>
+      <c r="G525" s="11" t="s">
         <v>395</v>
-      </c>
-      <c r="G525" s="11" t="s">
-        <v>396</v>
       </c>
       <c r="K525" s="4"/>
       <c r="L525" s="4"/>
     </row>
     <row r="526" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="F526" s="11" t="s">
+        <v>396</v>
+      </c>
+      <c r="G526" s="11" t="s">
         <v>397</v>
-      </c>
-      <c r="G526" s="11" t="s">
-        <v>398</v>
       </c>
       <c r="K526" s="4"/>
       <c r="L526" s="4"/>
     </row>
     <row r="527" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="F527" s="11" t="s">
+        <v>398</v>
+      </c>
+      <c r="G527" s="11" t="s">
         <v>399</v>
-      </c>
-      <c r="G527" s="11" t="s">
-        <v>400</v>
       </c>
       <c r="K527" s="4"/>
       <c r="L527" s="4"/>
@@ -8884,13 +8911,13 @@
     </row>
     <row r="530" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A530" s="11" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="C530" s="5" t="s">
         <v>46</v>
       </c>
       <c r="D530" s="15" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="F530" s="11" t="s">
         <v>41</v>
@@ -8900,70 +8927,70 @@
     </row>
     <row r="531" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="F531" s="15" t="s">
+        <v>233</v>
+      </c>
+      <c r="G531" s="15" t="s">
         <v>234</v>
-      </c>
-      <c r="G531" s="15" t="s">
-        <v>235</v>
       </c>
       <c r="K531" s="4"/>
       <c r="L531" s="4"/>
     </row>
     <row r="532" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="F532" s="15" t="s">
+        <v>382</v>
+      </c>
+      <c r="G532" s="15" t="s">
         <v>383</v>
-      </c>
-      <c r="G532" s="15" t="s">
-        <v>384</v>
       </c>
       <c r="K532" s="4"/>
       <c r="L532" s="4"/>
     </row>
     <row r="533" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="F533" s="11" t="s">
+        <v>389</v>
+      </c>
+      <c r="G533" s="11" t="s">
         <v>390</v>
-      </c>
-      <c r="G533" s="11" t="s">
-        <v>391</v>
       </c>
       <c r="K533" s="4"/>
       <c r="L533" s="4"/>
     </row>
     <row r="534" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="F534" s="11" t="s">
+        <v>401</v>
+      </c>
+      <c r="G534" s="11" t="s">
         <v>402</v>
-      </c>
-      <c r="G534" s="11" t="s">
-        <v>403</v>
       </c>
       <c r="K534" s="4"/>
       <c r="L534" s="4"/>
     </row>
     <row r="535" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="F535" s="11" t="s">
+        <v>403</v>
+      </c>
+      <c r="G535" s="11" t="s">
         <v>404</v>
-      </c>
-      <c r="G535" s="11" t="s">
-        <v>405</v>
       </c>
       <c r="K535" s="4"/>
       <c r="L535" s="4"/>
     </row>
     <row r="536" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="F536" s="11" t="s">
+        <v>405</v>
+      </c>
+      <c r="G536" s="11" t="s">
         <v>406</v>
-      </c>
-      <c r="G536" s="11" t="s">
-        <v>407</v>
       </c>
       <c r="K536" s="4"/>
       <c r="L536" s="4"/>
     </row>
     <row r="537" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="F537" s="11" t="s">
+        <v>407</v>
+      </c>
+      <c r="G537" s="11" t="s">
         <v>408</v>
-      </c>
-      <c r="G537" s="11" t="s">
-        <v>409</v>
       </c>
       <c r="K537" s="4"/>
       <c r="L537" s="4"/>
@@ -8986,13 +9013,13 @@
     </row>
     <row r="542" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A542" s="11" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="C542" s="5" t="s">
         <v>46</v>
       </c>
       <c r="D542" s="15" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="F542" s="11" t="s">
         <v>41</v>
@@ -9002,40 +9029,40 @@
     </row>
     <row r="543" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="F543" s="15" t="s">
+        <v>233</v>
+      </c>
+      <c r="G543" s="15" t="s">
         <v>234</v>
-      </c>
-      <c r="G543" s="15" t="s">
-        <v>235</v>
       </c>
       <c r="K543" s="4"/>
       <c r="L543" s="4"/>
     </row>
     <row r="544" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="F544" s="15" t="s">
+        <v>382</v>
+      </c>
+      <c r="G544" s="15" t="s">
         <v>383</v>
-      </c>
-      <c r="G544" s="15" t="s">
-        <v>384</v>
       </c>
       <c r="K544" s="4"/>
       <c r="L544" s="4"/>
     </row>
     <row r="545" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="F545" s="11" t="s">
+        <v>389</v>
+      </c>
+      <c r="G545" s="11" t="s">
         <v>390</v>
-      </c>
-      <c r="G545" s="11" t="s">
-        <v>391</v>
       </c>
       <c r="K545" s="4"/>
       <c r="L545" s="4"/>
     </row>
     <row r="546" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="F546" s="11" t="s">
+        <v>410</v>
+      </c>
+      <c r="G546" s="11" t="s">
         <v>411</v>
-      </c>
-      <c r="G546" s="11" t="s">
-        <v>412</v>
       </c>
       <c r="K546" s="4"/>
       <c r="L546" s="4"/>
@@ -9050,13 +9077,13 @@
     </row>
     <row r="549" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A549" s="11" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="C549" s="5" t="s">
         <v>46</v>
       </c>
       <c r="D549" s="15" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="F549" s="11" t="s">
         <v>41</v>
@@ -9066,40 +9093,40 @@
     </row>
     <row r="550" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="F550" s="15" t="s">
+        <v>233</v>
+      </c>
+      <c r="G550" s="15" t="s">
         <v>234</v>
-      </c>
-      <c r="G550" s="15" t="s">
-        <v>235</v>
       </c>
       <c r="K550" s="4"/>
       <c r="L550" s="4"/>
     </row>
     <row r="551" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="F551" s="15" t="s">
+        <v>382</v>
+      </c>
+      <c r="G551" s="15" t="s">
         <v>383</v>
-      </c>
-      <c r="G551" s="15" t="s">
-        <v>384</v>
       </c>
       <c r="K551" s="4"/>
       <c r="L551" s="4"/>
     </row>
     <row r="552" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="F552" s="11" t="s">
+        <v>389</v>
+      </c>
+      <c r="G552" s="11" t="s">
         <v>390</v>
-      </c>
-      <c r="G552" s="11" t="s">
-        <v>391</v>
       </c>
       <c r="K552" s="4"/>
       <c r="L552" s="4"/>
     </row>
     <row r="553" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="F553" s="11" t="s">
+        <v>410</v>
+      </c>
+      <c r="G553" s="11" t="s">
         <v>411</v>
-      </c>
-      <c r="G553" s="11" t="s">
-        <v>412</v>
       </c>
       <c r="K553" s="4"/>
       <c r="L553" s="4"/>
@@ -9122,13 +9149,13 @@
     </row>
     <row r="558" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A558" s="11" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="C558" s="5" t="s">
         <v>46</v>
       </c>
       <c r="D558" s="15" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="F558" s="11" t="s">
         <v>41</v>
@@ -9138,50 +9165,50 @@
     </row>
     <row r="559" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="F559" s="15" t="s">
+        <v>233</v>
+      </c>
+      <c r="G559" s="15" t="s">
         <v>234</v>
-      </c>
-      <c r="G559" s="15" t="s">
-        <v>235</v>
       </c>
       <c r="K559" s="4"/>
       <c r="L559" s="4"/>
     </row>
     <row r="560" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="F560" s="15" t="s">
+        <v>382</v>
+      </c>
+      <c r="G560" s="15" t="s">
         <v>383</v>
-      </c>
-      <c r="G560" s="15" t="s">
-        <v>384</v>
       </c>
       <c r="K560" s="4"/>
       <c r="L560" s="4"/>
     </row>
     <row r="561" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="F561" s="11" t="s">
+        <v>389</v>
+      </c>
+      <c r="G561" s="11" t="s">
         <v>390</v>
-      </c>
-      <c r="G561" s="11" t="s">
-        <v>391</v>
       </c>
       <c r="K561" s="4"/>
       <c r="L561" s="4"/>
     </row>
     <row r="562" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="F562" s="11" t="s">
+        <v>410</v>
+      </c>
+      <c r="G562" s="11" t="s">
         <v>411</v>
-      </c>
-      <c r="G562" s="11" t="s">
-        <v>412</v>
       </c>
       <c r="K562" s="4"/>
       <c r="L562" s="4"/>
     </row>
     <row r="563" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="F563" s="11" t="s">
+        <v>415</v>
+      </c>
+      <c r="G563" s="11" t="s">
         <v>416</v>
-      </c>
-      <c r="G563" s="11" t="s">
-        <v>417</v>
       </c>
       <c r="K563" s="4"/>
       <c r="L563" s="4"/>
@@ -9196,16 +9223,16 @@
     </row>
     <row r="566" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A566" s="11" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="B566" s="11" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C566" s="5" t="s">
         <v>46</v>
       </c>
       <c r="D566" s="15" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="F566" s="11" t="s">
         <v>41</v>
@@ -9215,30 +9242,30 @@
     </row>
     <row r="567" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="F567" s="15" t="s">
+        <v>233</v>
+      </c>
+      <c r="G567" s="15" t="s">
         <v>234</v>
-      </c>
-      <c r="G567" s="15" t="s">
-        <v>235</v>
       </c>
       <c r="K567" s="4"/>
       <c r="L567" s="4"/>
     </row>
     <row r="568" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="F568" s="15" t="s">
+        <v>418</v>
+      </c>
+      <c r="G568" s="15" t="s">
         <v>419</v>
-      </c>
-      <c r="G568" s="15" t="s">
-        <v>420</v>
       </c>
       <c r="K568" s="4"/>
       <c r="L568" s="4"/>
     </row>
     <row r="569" spans="1:12" ht="120" x14ac:dyDescent="0.25">
       <c r="F569" s="11" t="s">
+        <v>420</v>
+      </c>
+      <c r="G569" s="11" t="s">
         <v>421</v>
-      </c>
-      <c r="G569" s="11" t="s">
-        <v>422</v>
       </c>
       <c r="K569" s="4"/>
       <c r="L569" s="4"/>
@@ -9253,16 +9280,16 @@
     </row>
     <row r="572" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A572" s="11" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="B572" s="11" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C572" s="5" t="s">
         <v>46</v>
       </c>
       <c r="D572" s="15" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="F572" s="11" t="s">
         <v>41</v>
@@ -9272,60 +9299,60 @@
     </row>
     <row r="573" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="F573" s="15" t="s">
+        <v>233</v>
+      </c>
+      <c r="G573" s="15" t="s">
         <v>234</v>
-      </c>
-      <c r="G573" s="15" t="s">
-        <v>235</v>
       </c>
       <c r="K573" s="4"/>
       <c r="L573" s="4"/>
     </row>
     <row r="574" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="F574" s="15" t="s">
+        <v>418</v>
+      </c>
+      <c r="G574" s="15" t="s">
         <v>419</v>
-      </c>
-      <c r="G574" s="15" t="s">
-        <v>420</v>
       </c>
       <c r="K574" s="4"/>
       <c r="L574" s="4"/>
     </row>
     <row r="575" spans="1:12" ht="120" x14ac:dyDescent="0.25">
       <c r="F575" s="11" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="G575" s="11" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="K575" s="4"/>
       <c r="L575" s="4"/>
     </row>
     <row r="576" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="F576" s="11" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="G576" s="11" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="K576" s="4"/>
       <c r="L576" s="4"/>
     </row>
     <row r="577" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="F577" s="11" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="G577" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="K577" s="4"/>
       <c r="L577" s="4"/>
     </row>
     <row r="578" spans="1:12" x14ac:dyDescent="0.25">
       <c r="F578" s="11" t="s">
+        <v>438</v>
+      </c>
+      <c r="G578" s="11" t="s">
         <v>439</v>
-      </c>
-      <c r="G578" s="11" t="s">
-        <v>440</v>
       </c>
       <c r="K578" s="4"/>
       <c r="L578" s="4"/>
@@ -9337,16 +9364,16 @@
     </row>
     <row r="580" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A580" s="11" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="B580" s="11" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C580" s="5" t="s">
         <v>46</v>
       </c>
       <c r="D580" s="15" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="F580" s="11" t="s">
         <v>41</v>
@@ -9356,60 +9383,60 @@
     </row>
     <row r="581" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="F581" s="15" t="s">
+        <v>233</v>
+      </c>
+      <c r="G581" s="15" t="s">
         <v>234</v>
-      </c>
-      <c r="G581" s="15" t="s">
-        <v>235</v>
       </c>
       <c r="K581" s="4"/>
       <c r="L581" s="4"/>
     </row>
     <row r="582" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="F582" s="15" t="s">
+        <v>418</v>
+      </c>
+      <c r="G582" s="15" t="s">
         <v>419</v>
-      </c>
-      <c r="G582" s="15" t="s">
-        <v>420</v>
       </c>
       <c r="K582" s="4"/>
       <c r="L582" s="4"/>
     </row>
     <row r="583" spans="1:12" ht="120" x14ac:dyDescent="0.25">
       <c r="F583" s="11" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="G583" s="11" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="K583" s="4"/>
       <c r="L583" s="4"/>
     </row>
     <row r="584" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="F584" s="11" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="G584" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="K584" s="4"/>
       <c r="L584" s="4"/>
     </row>
     <row r="585" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="F585" s="11" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="G585" s="11" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="K585" s="4"/>
       <c r="L585" s="4"/>
     </row>
     <row r="586" spans="1:12" x14ac:dyDescent="0.25">
       <c r="F586" s="11" t="s">
+        <v>438</v>
+      </c>
+      <c r="G586" s="11" t="s">
         <v>439</v>
-      </c>
-      <c r="G586" s="11" t="s">
-        <v>440</v>
       </c>
       <c r="K586" s="4"/>
       <c r="L586" s="4"/>
@@ -9422,16 +9449,16 @@
     </row>
     <row r="588" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A588" s="11" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="B588" s="11" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C588" s="5" t="s">
         <v>46</v>
       </c>
       <c r="D588" s="15" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="F588" s="11" t="s">
         <v>41</v>
@@ -9441,60 +9468,60 @@
     </row>
     <row r="589" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="F589" s="15" t="s">
+        <v>233</v>
+      </c>
+      <c r="G589" s="15" t="s">
         <v>234</v>
-      </c>
-      <c r="G589" s="15" t="s">
-        <v>235</v>
       </c>
       <c r="K589" s="4"/>
       <c r="L589" s="4"/>
     </row>
     <row r="590" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="F590" s="15" t="s">
+        <v>418</v>
+      </c>
+      <c r="G590" s="15" t="s">
         <v>419</v>
-      </c>
-      <c r="G590" s="15" t="s">
-        <v>420</v>
       </c>
       <c r="K590" s="4"/>
       <c r="L590" s="4"/>
     </row>
     <row r="591" spans="1:12" ht="120" x14ac:dyDescent="0.25">
       <c r="F591" s="11" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="G591" s="11" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="K591" s="4"/>
       <c r="L591" s="4"/>
     </row>
     <row r="592" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="F592" s="11" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="G592" s="11" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="K592" s="4"/>
       <c r="L592" s="4"/>
     </row>
     <row r="593" spans="1:12" x14ac:dyDescent="0.25">
       <c r="F593" s="11" t="s">
+        <v>438</v>
+      </c>
+      <c r="G593" s="11" t="s">
         <v>439</v>
-      </c>
-      <c r="G593" s="11" t="s">
-        <v>440</v>
       </c>
       <c r="K593" s="4"/>
       <c r="L593" s="4"/>
     </row>
     <row r="594" spans="1:12" x14ac:dyDescent="0.25">
       <c r="F594" s="11" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="G594" s="11" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="K594" s="4"/>
       <c r="L594" s="4"/>
@@ -9511,16 +9538,16 @@
     </row>
     <row r="597" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A597" s="11" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="B597" s="11" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C597" s="5" t="s">
         <v>46</v>
       </c>
       <c r="D597" s="15" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="F597" s="11" t="s">
         <v>41</v>
@@ -9530,60 +9557,60 @@
     </row>
     <row r="598" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="F598" s="15" t="s">
+        <v>233</v>
+      </c>
+      <c r="G598" s="15" t="s">
         <v>234</v>
-      </c>
-      <c r="G598" s="15" t="s">
-        <v>235</v>
       </c>
       <c r="K598" s="4"/>
       <c r="L598" s="4"/>
     </row>
     <row r="599" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="F599" s="15" t="s">
+        <v>418</v>
+      </c>
+      <c r="G599" s="15" t="s">
         <v>419</v>
-      </c>
-      <c r="G599" s="15" t="s">
-        <v>420</v>
       </c>
       <c r="K599" s="4"/>
       <c r="L599" s="4"/>
     </row>
     <row r="600" spans="1:12" ht="120" x14ac:dyDescent="0.25">
       <c r="F600" s="11" t="s">
+        <v>420</v>
+      </c>
+      <c r="G600" s="11" t="s">
         <v>421</v>
-      </c>
-      <c r="G600" s="11" t="s">
-        <v>422</v>
       </c>
       <c r="K600" s="4"/>
       <c r="L600" s="4"/>
     </row>
     <row r="601" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="F601" s="11" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="G601" s="11" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="K601" s="4"/>
       <c r="L601" s="4"/>
     </row>
     <row r="602" spans="1:12" x14ac:dyDescent="0.25">
       <c r="F602" s="11" t="s">
+        <v>438</v>
+      </c>
+      <c r="G602" s="11" t="s">
         <v>439</v>
-      </c>
-      <c r="G602" s="11" t="s">
-        <v>440</v>
       </c>
       <c r="K602" s="4"/>
       <c r="L602" s="4"/>
     </row>
     <row r="603" spans="1:12" x14ac:dyDescent="0.25">
       <c r="F603" s="11" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="G603" s="11" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="K603" s="4"/>
       <c r="L603" s="4"/>
@@ -9598,16 +9625,16 @@
     </row>
     <row r="606" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A606" s="11" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="B606" s="11" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C606" s="5" t="s">
         <v>46</v>
       </c>
       <c r="D606" s="15" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="F606" s="11" t="s">
         <v>41</v>
@@ -9617,60 +9644,60 @@
     </row>
     <row r="607" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="F607" s="15" t="s">
+        <v>233</v>
+      </c>
+      <c r="G607" s="15" t="s">
         <v>234</v>
-      </c>
-      <c r="G607" s="15" t="s">
-        <v>235</v>
       </c>
       <c r="K607" s="4"/>
       <c r="L607" s="4"/>
     </row>
     <row r="608" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="F608" s="15" t="s">
+        <v>418</v>
+      </c>
+      <c r="G608" s="15" t="s">
         <v>419</v>
-      </c>
-      <c r="G608" s="15" t="s">
-        <v>420</v>
       </c>
       <c r="K608" s="4"/>
       <c r="L608" s="4"/>
     </row>
     <row r="609" spans="1:12" ht="120" x14ac:dyDescent="0.25">
       <c r="F609" s="11" t="s">
+        <v>420</v>
+      </c>
+      <c r="G609" s="11" t="s">
         <v>421</v>
-      </c>
-      <c r="G609" s="11" t="s">
-        <v>422</v>
       </c>
       <c r="K609" s="4"/>
       <c r="L609" s="4"/>
     </row>
     <row r="610" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="F610" s="11" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="G610" s="11" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="K610" s="4"/>
       <c r="L610" s="4"/>
     </row>
     <row r="611" spans="1:12" x14ac:dyDescent="0.25">
       <c r="F611" s="11" t="s">
+        <v>438</v>
+      </c>
+      <c r="G611" s="11" t="s">
         <v>439</v>
-      </c>
-      <c r="G611" s="11" t="s">
-        <v>440</v>
       </c>
       <c r="K611" s="4"/>
       <c r="L611" s="4"/>
     </row>
     <row r="612" spans="1:12" x14ac:dyDescent="0.25">
       <c r="F612" s="11" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="G612" s="11" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="K612" s="4"/>
       <c r="L612" s="4"/>
@@ -9681,16 +9708,16 @@
     </row>
     <row r="614" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A614" s="11" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="B614" s="11" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C614" s="5" t="s">
         <v>46</v>
       </c>
       <c r="D614" s="15" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="F614" s="11" t="s">
         <v>41</v>
@@ -9700,30 +9727,30 @@
     </row>
     <row r="615" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="F615" s="15" t="s">
+        <v>233</v>
+      </c>
+      <c r="G615" s="15" t="s">
         <v>234</v>
-      </c>
-      <c r="G615" s="15" t="s">
-        <v>235</v>
       </c>
       <c r="K615" s="4"/>
       <c r="L615" s="4"/>
     </row>
     <row r="616" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="F616" s="15" t="s">
+        <v>443</v>
+      </c>
+      <c r="G616" s="15" t="s">
         <v>444</v>
-      </c>
-      <c r="G616" s="15" t="s">
-        <v>445</v>
       </c>
       <c r="K616" s="4"/>
       <c r="L616" s="4"/>
     </row>
     <row r="617" spans="1:12" ht="75" x14ac:dyDescent="0.25">
       <c r="F617" s="11" t="s">
+        <v>445</v>
+      </c>
+      <c r="G617" s="11" t="s">
         <v>446</v>
-      </c>
-      <c r="G617" s="11" t="s">
-        <v>447</v>
       </c>
       <c r="K617" s="4"/>
       <c r="L617" s="4"/>
@@ -9734,16 +9761,16 @@
     </row>
     <row r="619" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A619" s="11" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="B619" s="11" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C619" s="5" t="s">
         <v>46</v>
       </c>
       <c r="D619" s="15" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="F619" s="11" t="s">
         <v>41</v>
@@ -9753,30 +9780,30 @@
     </row>
     <row r="620" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="F620" s="15" t="s">
+        <v>233</v>
+      </c>
+      <c r="G620" s="15" t="s">
         <v>234</v>
-      </c>
-      <c r="G620" s="15" t="s">
-        <v>235</v>
       </c>
       <c r="K620" s="4"/>
       <c r="L620" s="4"/>
     </row>
     <row r="621" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="F621" s="15" t="s">
+        <v>443</v>
+      </c>
+      <c r="G621" s="15" t="s">
         <v>444</v>
-      </c>
-      <c r="G621" s="15" t="s">
-        <v>445</v>
       </c>
       <c r="K621" s="4"/>
       <c r="L621" s="4"/>
     </row>
     <row r="622" spans="1:12" ht="75" x14ac:dyDescent="0.25">
       <c r="F622" s="11" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="G622" s="11" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="K622" s="4"/>
       <c r="L622" s="4"/>
@@ -9795,16 +9822,16 @@
     </row>
     <row r="626" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A626" s="11" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B626" s="11" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C626" s="5" t="s">
         <v>46</v>
       </c>
       <c r="D626" s="15" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="F626" s="11" t="s">
         <v>41</v>
@@ -9814,30 +9841,30 @@
     </row>
     <row r="627" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="F627" s="15" t="s">
+        <v>233</v>
+      </c>
+      <c r="G627" s="15" t="s">
         <v>234</v>
-      </c>
-      <c r="G627" s="15" t="s">
-        <v>235</v>
       </c>
       <c r="K627" s="4"/>
       <c r="L627" s="4"/>
     </row>
     <row r="628" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="F628" s="15" t="s">
+        <v>443</v>
+      </c>
+      <c r="G628" s="15" t="s">
         <v>444</v>
-      </c>
-      <c r="G628" s="15" t="s">
-        <v>445</v>
       </c>
       <c r="K628" s="4"/>
       <c r="L628" s="4"/>
     </row>
     <row r="629" spans="1:12" ht="75" x14ac:dyDescent="0.25">
       <c r="F629" s="11" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="G629" s="11" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="K629" s="4"/>
       <c r="L629" s="4"/>
@@ -9852,16 +9879,16 @@
     </row>
     <row r="632" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A632" s="11" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="B632" s="11" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C632" s="5" t="s">
         <v>46</v>
       </c>
       <c r="D632" s="15" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="F632" s="11" t="s">
         <v>41</v>
@@ -9871,30 +9898,30 @@
     </row>
     <row r="633" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="F633" s="15" t="s">
+        <v>233</v>
+      </c>
+      <c r="G633" s="15" t="s">
         <v>234</v>
-      </c>
-      <c r="G633" s="15" t="s">
-        <v>235</v>
       </c>
       <c r="K633" s="4"/>
       <c r="L633" s="4"/>
     </row>
     <row r="634" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="F634" s="15" t="s">
+        <v>443</v>
+      </c>
+      <c r="G634" s="15" t="s">
         <v>444</v>
-      </c>
-      <c r="G634" s="15" t="s">
-        <v>445</v>
       </c>
       <c r="K634" s="4"/>
       <c r="L634" s="4"/>
     </row>
     <row r="635" spans="1:12" ht="75" x14ac:dyDescent="0.25">
       <c r="F635" s="11" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="G635" s="11" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="K635" s="4"/>
       <c r="L635" s="4"/>
@@ -9909,16 +9936,16 @@
     </row>
     <row r="638" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A638" s="11" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="B638" s="11" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C638" s="5" t="s">
         <v>46</v>
       </c>
       <c r="D638" s="15" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="F638" s="11" t="s">
         <v>41</v>
@@ -9928,30 +9955,30 @@
     </row>
     <row r="639" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="F639" s="15" t="s">
+        <v>233</v>
+      </c>
+      <c r="G639" s="15" t="s">
         <v>234</v>
-      </c>
-      <c r="G639" s="15" t="s">
-        <v>235</v>
       </c>
       <c r="K639" s="4"/>
       <c r="L639" s="4"/>
     </row>
     <row r="640" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="F640" s="15" t="s">
+        <v>454</v>
+      </c>
+      <c r="G640" s="15" t="s">
         <v>455</v>
-      </c>
-      <c r="G640" s="15" t="s">
-        <v>456</v>
       </c>
       <c r="K640" s="4"/>
       <c r="L640" s="4"/>
     </row>
     <row r="641" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="F641" s="11" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="G641" s="11" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="K641" s="4"/>
       <c r="L641" s="4"/>
@@ -9970,16 +9997,16 @@
     </row>
     <row r="645" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A645" s="11" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="B645" s="11" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C645" s="5" t="s">
         <v>46</v>
       </c>
       <c r="D645" s="15" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="F645" s="11" t="s">
         <v>41</v>
@@ -9989,33 +10016,33 @@
     </row>
     <row r="646" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="F646" s="15" t="s">
+        <v>233</v>
+      </c>
+      <c r="G646" s="15" t="s">
         <v>234</v>
-      </c>
-      <c r="G646" s="15" t="s">
-        <v>235</v>
       </c>
       <c r="K646" s="4"/>
       <c r="L646" s="4"/>
     </row>
     <row r="647" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="F647" s="15" t="s">
+        <v>454</v>
+      </c>
+      <c r="G647" s="15" t="s">
         <v>455</v>
-      </c>
-      <c r="G647" s="15" t="s">
-        <v>456</v>
       </c>
       <c r="K647" s="4"/>
       <c r="L647" s="4"/>
     </row>
     <row r="648" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="F648" s="11" t="s">
+        <v>460</v>
+      </c>
+      <c r="G648" s="11" t="s">
+        <v>458</v>
+      </c>
+      <c r="H648" s="11" t="s">
         <v>461</v>
-      </c>
-      <c r="G648" s="11" t="s">
-        <v>459</v>
-      </c>
-      <c r="H648" s="11" t="s">
-        <v>462</v>
       </c>
       <c r="K648" s="4"/>
       <c r="L648" s="4"/>
@@ -10034,16 +10061,16 @@
     </row>
     <row r="652" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A652" s="11" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="B652" s="11" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C652" s="5" t="s">
         <v>46</v>
       </c>
       <c r="D652" s="15" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="F652" s="11" t="s">
         <v>41</v>
@@ -10053,30 +10080,30 @@
     </row>
     <row r="653" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="F653" s="15" t="s">
+        <v>233</v>
+      </c>
+      <c r="G653" s="15" t="s">
         <v>234</v>
-      </c>
-      <c r="G653" s="15" t="s">
-        <v>235</v>
       </c>
       <c r="K653" s="4"/>
       <c r="L653" s="4"/>
     </row>
     <row r="654" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="F654" s="15" t="s">
+        <v>462</v>
+      </c>
+      <c r="G654" s="15" t="s">
         <v>463</v>
-      </c>
-      <c r="G654" s="15" t="s">
-        <v>464</v>
       </c>
       <c r="K654" s="4"/>
       <c r="L654" s="4"/>
     </row>
     <row r="655" spans="1:12" ht="240" x14ac:dyDescent="0.25">
       <c r="F655" s="11" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="G655" s="11" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="K655" s="4"/>
       <c r="L655" s="4"/>
@@ -10091,16 +10118,16 @@
     </row>
     <row r="658" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A658" s="11" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="B658" s="11" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C658" s="5" t="s">
         <v>46</v>
       </c>
       <c r="D658" s="15" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="F658" s="11" t="s">
         <v>41</v>
@@ -10110,30 +10137,30 @@
     </row>
     <row r="659" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="F659" s="15" t="s">
+        <v>233</v>
+      </c>
+      <c r="G659" s="15" t="s">
         <v>234</v>
-      </c>
-      <c r="G659" s="15" t="s">
-        <v>235</v>
       </c>
       <c r="K659" s="4"/>
       <c r="L659" s="4"/>
     </row>
     <row r="660" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="F660" s="15" t="s">
+        <v>462</v>
+      </c>
+      <c r="G660" s="15" t="s">
         <v>463</v>
-      </c>
-      <c r="G660" s="15" t="s">
-        <v>464</v>
       </c>
       <c r="K660" s="4"/>
       <c r="L660" s="4"/>
     </row>
     <row r="661" spans="1:12" ht="240" x14ac:dyDescent="0.25">
       <c r="F661" s="11" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="G661" s="11" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="K661" s="4"/>
       <c r="L661" s="4"/>
@@ -10152,16 +10179,16 @@
     </row>
     <row r="665" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A665" s="11" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="B665" s="11" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C665" s="5" t="s">
         <v>46</v>
       </c>
       <c r="D665" s="15" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="F665" s="11" t="s">
         <v>41</v>
@@ -10171,30 +10198,30 @@
     </row>
     <row r="666" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="F666" s="15" t="s">
+        <v>233</v>
+      </c>
+      <c r="G666" s="15" t="s">
         <v>234</v>
-      </c>
-      <c r="G666" s="15" t="s">
-        <v>235</v>
       </c>
       <c r="K666" s="4"/>
       <c r="L666" s="4"/>
     </row>
     <row r="667" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="F667" s="15" t="s">
+        <v>462</v>
+      </c>
+      <c r="G667" s="15" t="s">
         <v>463</v>
-      </c>
-      <c r="G667" s="15" t="s">
-        <v>464</v>
       </c>
       <c r="K667" s="4"/>
       <c r="L667" s="4"/>
     </row>
     <row r="668" spans="1:12" ht="240" x14ac:dyDescent="0.25">
       <c r="F668" s="11" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="G668" s="11" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="K668" s="4"/>
       <c r="L668" s="4"/>
@@ -10209,16 +10236,16 @@
     </row>
     <row r="671" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A671" s="11" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="B671" s="11" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C671" s="5" t="s">
         <v>46</v>
       </c>
       <c r="D671" s="15" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="F671" s="11" t="s">
         <v>41</v>
@@ -10228,30 +10255,30 @@
     </row>
     <row r="672" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="F672" s="15" t="s">
+        <v>233</v>
+      </c>
+      <c r="G672" s="15" t="s">
         <v>234</v>
-      </c>
-      <c r="G672" s="15" t="s">
-        <v>235</v>
       </c>
       <c r="K672" s="4"/>
       <c r="L672" s="4"/>
     </row>
     <row r="673" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="F673" s="15" t="s">
+        <v>462</v>
+      </c>
+      <c r="G673" s="15" t="s">
         <v>463</v>
-      </c>
-      <c r="G673" s="15" t="s">
-        <v>464</v>
       </c>
       <c r="K673" s="4"/>
       <c r="L673" s="4"/>
     </row>
     <row r="674" spans="1:12" ht="240" x14ac:dyDescent="0.25">
       <c r="F674" s="11" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="G674" s="11" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="K674" s="4"/>
       <c r="L674" s="4"/>
@@ -10266,16 +10293,16 @@
     </row>
     <row r="677" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A677" s="11" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="B677" s="11" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C677" s="5" t="s">
         <v>46</v>
       </c>
       <c r="D677" s="15" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="F677" s="11" t="s">
         <v>41</v>
@@ -10285,30 +10312,30 @@
     </row>
     <row r="678" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="F678" s="15" t="s">
+        <v>233</v>
+      </c>
+      <c r="G678" s="15" t="s">
         <v>234</v>
-      </c>
-      <c r="G678" s="15" t="s">
-        <v>235</v>
       </c>
       <c r="K678" s="4"/>
       <c r="L678" s="4"/>
     </row>
     <row r="679" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="F679" s="15" t="s">
+        <v>462</v>
+      </c>
+      <c r="G679" s="15" t="s">
         <v>463</v>
-      </c>
-      <c r="G679" s="15" t="s">
-        <v>464</v>
       </c>
       <c r="K679" s="4"/>
       <c r="L679" s="4"/>
     </row>
     <row r="680" spans="1:12" ht="240" x14ac:dyDescent="0.25">
       <c r="F680" s="11" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="G680" s="11" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="K680" s="4"/>
       <c r="L680" s="4"/>
@@ -10323,16 +10350,16 @@
     </row>
     <row r="683" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A683" s="11" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="B683" s="11" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C683" s="5" t="s">
         <v>46</v>
       </c>
       <c r="D683" s="15" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="F683" s="11" t="s">
         <v>41</v>
@@ -10342,33 +10369,33 @@
     </row>
     <row r="684" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="F684" s="15" t="s">
+        <v>233</v>
+      </c>
+      <c r="G684" s="15" t="s">
         <v>234</v>
-      </c>
-      <c r="G684" s="15" t="s">
-        <v>235</v>
       </c>
       <c r="K684" s="4"/>
       <c r="L684" s="4"/>
     </row>
     <row r="685" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="F685" s="15" t="s">
+        <v>473</v>
+      </c>
+      <c r="G685" s="15" t="s">
         <v>474</v>
       </c>
-      <c r="G685" s="15" t="s">
-        <v>475</v>
-      </c>
       <c r="J685" s="5" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="K685" s="4"/>
       <c r="L685" s="4"/>
     </row>
     <row r="686" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="F686" s="11" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="G686" s="11" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="K686" s="4"/>
       <c r="L686" s="4"/>
@@ -10383,16 +10410,16 @@
     </row>
     <row r="689" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A689" s="11" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="B689" s="11" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C689" s="5" t="s">
         <v>46</v>
       </c>
       <c r="D689" s="15" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="F689" s="11" t="s">
         <v>41</v>
@@ -10402,29 +10429,29 @@
     </row>
     <row r="690" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="F690" s="15" t="s">
+        <v>233</v>
+      </c>
+      <c r="G690" s="15" t="s">
         <v>234</v>
-      </c>
-      <c r="G690" s="15" t="s">
-        <v>235</v>
       </c>
       <c r="K690" s="4"/>
       <c r="L690" s="4"/>
     </row>
     <row r="691" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="F691" s="15" t="s">
+        <v>473</v>
+      </c>
+      <c r="G691" s="15" t="s">
         <v>474</v>
-      </c>
-      <c r="G691" s="15" t="s">
-        <v>475</v>
       </c>
       <c r="L691" s="4"/>
     </row>
     <row r="692" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="F692" s="11" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="G692" s="11" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="L692" s="4"/>
     </row>
@@ -10436,16 +10463,16 @@
     </row>
     <row r="695" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A695" s="11" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="B695" s="11" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C695" s="5" t="s">
         <v>46</v>
       </c>
       <c r="D695" s="15" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="F695" s="11" t="s">
         <v>41</v>
@@ -10454,28 +10481,28 @@
     </row>
     <row r="696" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="F696" s="15" t="s">
+        <v>233</v>
+      </c>
+      <c r="G696" s="15" t="s">
         <v>234</v>
-      </c>
-      <c r="G696" s="15" t="s">
-        <v>235</v>
       </c>
       <c r="L696" s="4"/>
     </row>
     <row r="697" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="F697" s="15" t="s">
+        <v>473</v>
+      </c>
+      <c r="G697" s="15" t="s">
         <v>474</v>
-      </c>
-      <c r="G697" s="15" t="s">
-        <v>475</v>
       </c>
       <c r="L697" s="4"/>
     </row>
     <row r="698" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="F698" s="11" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="G698" s="11" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="L698" s="4"/>
     </row>
@@ -10487,16 +10514,16 @@
     </row>
     <row r="701" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A701" s="11" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="B701" s="11" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C701" s="5" t="s">
         <v>46</v>
       </c>
       <c r="D701" s="15" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="F701" s="11" t="s">
         <v>41</v>
@@ -10505,28 +10532,28 @@
     </row>
     <row r="702" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="F702" s="15" t="s">
+        <v>233</v>
+      </c>
+      <c r="G702" s="15" t="s">
         <v>234</v>
-      </c>
-      <c r="G702" s="15" t="s">
-        <v>235</v>
       </c>
       <c r="L702" s="4"/>
     </row>
     <row r="703" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="F703" s="15" t="s">
+        <v>473</v>
+      </c>
+      <c r="G703" s="15" t="s">
         <v>474</v>
-      </c>
-      <c r="G703" s="15" t="s">
-        <v>475</v>
       </c>
       <c r="L703" s="4"/>
     </row>
     <row r="704" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="F704" s="11" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="G704" s="11" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="L704" s="4"/>
     </row>
@@ -10538,16 +10565,16 @@
     </row>
     <row r="707" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A707" s="11" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="B707" s="11" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C707" s="5" t="s">
         <v>46</v>
       </c>
       <c r="D707" s="15" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="F707" s="11" t="s">
         <v>41</v>
@@ -10556,28 +10583,28 @@
     </row>
     <row r="708" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="F708" s="15" t="s">
+        <v>233</v>
+      </c>
+      <c r="G708" s="15" t="s">
         <v>234</v>
-      </c>
-      <c r="G708" s="15" t="s">
-        <v>235</v>
       </c>
       <c r="L708" s="4"/>
     </row>
     <row r="709" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="F709" s="15" t="s">
+        <v>473</v>
+      </c>
+      <c r="G709" s="15" t="s">
         <v>474</v>
-      </c>
-      <c r="G709" s="15" t="s">
-        <v>475</v>
       </c>
       <c r="L709" s="4"/>
     </row>
     <row r="710" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="F710" s="11" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="G710" s="11" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="L710" s="4"/>
     </row>
@@ -10589,16 +10616,16 @@
     </row>
     <row r="713" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A713" s="11" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="B713" s="11" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C713" s="5" t="s">
         <v>46</v>
       </c>
       <c r="D713" s="15" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="F713" s="11" t="s">
         <v>41</v>
@@ -10607,28 +10634,28 @@
     </row>
     <row r="714" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="F714" s="15" t="s">
+        <v>233</v>
+      </c>
+      <c r="G714" s="15" t="s">
         <v>234</v>
-      </c>
-      <c r="G714" s="15" t="s">
-        <v>235</v>
       </c>
       <c r="L714" s="4"/>
     </row>
     <row r="715" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="F715" s="15" t="s">
+        <v>473</v>
+      </c>
+      <c r="G715" s="15" t="s">
         <v>474</v>
-      </c>
-      <c r="G715" s="15" t="s">
-        <v>475</v>
       </c>
       <c r="L715" s="4"/>
     </row>
     <row r="716" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="F716" s="11" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="G716" s="11" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="L716" s="4"/>
     </row>
@@ -10637,16 +10664,16 @@
     </row>
     <row r="718" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A718" s="11" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="B718" s="11" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C718" s="5" t="s">
         <v>46</v>
       </c>
       <c r="D718" s="15" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="F718" s="11" t="s">
         <v>41</v>
@@ -10655,28 +10682,28 @@
     </row>
     <row r="719" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="F719" s="15" t="s">
+        <v>233</v>
+      </c>
+      <c r="G719" s="15" t="s">
         <v>234</v>
-      </c>
-      <c r="G719" s="15" t="s">
-        <v>235</v>
       </c>
       <c r="L719" s="4"/>
     </row>
     <row r="720" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="F720" s="15" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="G720" s="15" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="L720" s="4"/>
     </row>
     <row r="721" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="F721" s="11" t="s">
+        <v>488</v>
+      </c>
+      <c r="G721" s="11" t="s">
         <v>489</v>
-      </c>
-      <c r="G721" s="11" t="s">
-        <v>490</v>
       </c>
       <c r="L721" s="4"/>
     </row>
@@ -10685,16 +10712,16 @@
     </row>
     <row r="723" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A723" s="11" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="B723" s="11" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C723" s="5" t="s">
         <v>46</v>
       </c>
       <c r="D723" s="15" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="F723" s="11" t="s">
         <v>41</v>
@@ -10703,46 +10730,46 @@
     </row>
     <row r="724" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="F724" s="15" t="s">
+        <v>233</v>
+      </c>
+      <c r="G724" s="15" t="s">
         <v>234</v>
-      </c>
-      <c r="G724" s="15" t="s">
-        <v>235</v>
       </c>
       <c r="L724" s="4"/>
     </row>
     <row r="725" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="F725" s="15" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="G725" s="15" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="L725" s="4"/>
     </row>
     <row r="726" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="F726" s="11" t="s">
+        <v>488</v>
+      </c>
+      <c r="G726" s="11" t="s">
         <v>489</v>
-      </c>
-      <c r="G726" s="11" t="s">
-        <v>490</v>
       </c>
       <c r="L726" s="4"/>
     </row>
     <row r="727" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="F727" s="11" t="s">
+        <v>491</v>
+      </c>
+      <c r="G727" s="11" t="s">
         <v>492</v>
-      </c>
-      <c r="G727" s="11" t="s">
-        <v>493</v>
       </c>
       <c r="L727" s="4"/>
     </row>
     <row r="728" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="F728" s="11" t="s">
+        <v>493</v>
+      </c>
+      <c r="G728" s="11" t="s">
         <v>494</v>
-      </c>
-      <c r="G728" s="11" t="s">
-        <v>495</v>
       </c>
       <c r="L728" s="4"/>
     </row>
@@ -10754,16 +10781,16 @@
     </row>
     <row r="731" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A731" s="11" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="B731" s="11" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C731" s="5" t="s">
         <v>46</v>
       </c>
       <c r="D731" s="15" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="F731" s="11" t="s">
         <v>41</v>
@@ -10772,28 +10799,28 @@
     </row>
     <row r="732" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="F732" s="15" t="s">
+        <v>233</v>
+      </c>
+      <c r="G732" s="15" t="s">
         <v>234</v>
-      </c>
-      <c r="G732" s="15" t="s">
-        <v>235</v>
       </c>
       <c r="L732" s="4"/>
     </row>
     <row r="733" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="F733" s="15" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="G733" s="15" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="L733" s="4"/>
     </row>
     <row r="734" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="F734" s="11" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="G734" s="11" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="L734" s="4"/>
     </row>
@@ -10802,16 +10829,16 @@
     </row>
     <row r="739" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A739" s="11" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="B739" s="11" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C739" s="5" t="s">
         <v>46</v>
       </c>
       <c r="D739" s="15" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="F739" s="11" t="s">
         <v>41</v>
@@ -10819,56 +10846,56 @@
     </row>
     <row r="740" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="F740" s="15" t="s">
+        <v>233</v>
+      </c>
+      <c r="G740" s="15" t="s">
         <v>234</v>
-      </c>
-      <c r="G740" s="15" t="s">
-        <v>235</v>
       </c>
     </row>
     <row r="741" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="F741" s="15" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="G741" s="15" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
     </row>
     <row r="742" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="F742" s="11" t="s">
+        <v>488</v>
+      </c>
+      <c r="G742" s="11" t="s">
         <v>489</v>
-      </c>
-      <c r="G742" s="11" t="s">
-        <v>490</v>
       </c>
     </row>
     <row r="743" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="F743" s="11" t="s">
+        <v>491</v>
+      </c>
+      <c r="G743" s="11" t="s">
         <v>492</v>
-      </c>
-      <c r="G743" s="11" t="s">
-        <v>493</v>
       </c>
     </row>
     <row r="744" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="F744" s="11" t="s">
+        <v>493</v>
+      </c>
+      <c r="G744" s="11" t="s">
         <v>494</v>
-      </c>
-      <c r="G744" s="11" t="s">
-        <v>495</v>
       </c>
     </row>
     <row r="747" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A747" s="11" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="B747" s="11" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C747" s="5" t="s">
         <v>46</v>
       </c>
       <c r="D747" s="15" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="F747" s="11" t="s">
         <v>41</v>
@@ -10876,56 +10903,56 @@
     </row>
     <row r="748" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="F748" s="15" t="s">
+        <v>233</v>
+      </c>
+      <c r="G748" s="15" t="s">
         <v>234</v>
-      </c>
-      <c r="G748" s="15" t="s">
-        <v>235</v>
       </c>
     </row>
     <row r="749" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="F749" s="15" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="G749" s="15" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
     </row>
     <row r="750" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="F750" s="11" t="s">
+        <v>488</v>
+      </c>
+      <c r="G750" s="11" t="s">
         <v>489</v>
-      </c>
-      <c r="G750" s="11" t="s">
-        <v>490</v>
       </c>
     </row>
     <row r="751" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="F751" s="11" t="s">
+        <v>491</v>
+      </c>
+      <c r="G751" s="11" t="s">
         <v>492</v>
-      </c>
-      <c r="G751" s="11" t="s">
-        <v>493</v>
       </c>
     </row>
     <row r="752" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="F752" s="11" t="s">
+        <v>493</v>
+      </c>
+      <c r="G752" s="11" t="s">
         <v>494</v>
-      </c>
-      <c r="G752" s="11" t="s">
-        <v>495</v>
       </c>
     </row>
     <row r="755" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A755" s="11" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="B755" s="11" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C755" s="5" t="s">
         <v>46</v>
       </c>
       <c r="D755" s="15" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="F755" s="11" t="s">
         <v>41</v>
@@ -10933,56 +10960,56 @@
     </row>
     <row r="756" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="F756" s="15" t="s">
+        <v>233</v>
+      </c>
+      <c r="G756" s="15" t="s">
         <v>234</v>
-      </c>
-      <c r="G756" s="15" t="s">
-        <v>235</v>
       </c>
     </row>
     <row r="757" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="F757" s="15" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="G757" s="15" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
     </row>
     <row r="758" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="F758" s="11" t="s">
+        <v>488</v>
+      </c>
+      <c r="G758" s="11" t="s">
         <v>489</v>
-      </c>
-      <c r="G758" s="11" t="s">
-        <v>490</v>
       </c>
     </row>
     <row r="759" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="F759" s="11" t="s">
+        <v>491</v>
+      </c>
+      <c r="G759" s="11" t="s">
         <v>492</v>
-      </c>
-      <c r="G759" s="11" t="s">
-        <v>493</v>
       </c>
     </row>
     <row r="760" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="F760" s="11" t="s">
+        <v>493</v>
+      </c>
+      <c r="G760" s="11" t="s">
         <v>494</v>
-      </c>
-      <c r="G760" s="11" t="s">
-        <v>495</v>
       </c>
     </row>
     <row r="763" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A763" s="11" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="B763" s="11" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C763" s="5" t="s">
         <v>46</v>
       </c>
       <c r="D763" s="15" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="F763" s="11" t="s">
         <v>41</v>
@@ -10990,56 +11017,56 @@
     </row>
     <row r="764" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="F764" s="15" t="s">
+        <v>233</v>
+      </c>
+      <c r="G764" s="15" t="s">
         <v>234</v>
-      </c>
-      <c r="G764" s="15" t="s">
-        <v>235</v>
       </c>
     </row>
     <row r="765" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="F765" s="15" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="G765" s="15" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
     </row>
     <row r="766" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="F766" s="11" t="s">
+        <v>488</v>
+      </c>
+      <c r="G766" s="11" t="s">
         <v>489</v>
-      </c>
-      <c r="G766" s="11" t="s">
-        <v>490</v>
       </c>
     </row>
     <row r="767" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="F767" s="11" t="s">
+        <v>491</v>
+      </c>
+      <c r="G767" s="11" t="s">
         <v>492</v>
-      </c>
-      <c r="G767" s="11" t="s">
-        <v>493</v>
       </c>
     </row>
     <row r="768" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="F768" s="11" t="s">
+        <v>493</v>
+      </c>
+      <c r="G768" s="11" t="s">
         <v>494</v>
-      </c>
-      <c r="G768" s="11" t="s">
-        <v>495</v>
       </c>
     </row>
     <row r="771" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A771" s="11" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="B771" s="11" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C771" s="5" t="s">
         <v>46</v>
       </c>
       <c r="D771" s="15" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="F771" s="11" t="s">
         <v>41</v>
@@ -11047,56 +11074,56 @@
     </row>
     <row r="772" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="F772" s="15" t="s">
+        <v>233</v>
+      </c>
+      <c r="G772" s="15" t="s">
         <v>234</v>
-      </c>
-      <c r="G772" s="15" t="s">
-        <v>235</v>
       </c>
     </row>
     <row r="773" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="F773" s="15" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="G773" s="15" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
     </row>
     <row r="774" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="F774" s="11" t="s">
+        <v>488</v>
+      </c>
+      <c r="G774" s="11" t="s">
         <v>489</v>
-      </c>
-      <c r="G774" s="11" t="s">
-        <v>490</v>
       </c>
     </row>
     <row r="775" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="F775" s="11" t="s">
+        <v>491</v>
+      </c>
+      <c r="G775" s="11" t="s">
         <v>492</v>
-      </c>
-      <c r="G775" s="11" t="s">
-        <v>493</v>
       </c>
     </row>
     <row r="776" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="F776" s="11" t="s">
+        <v>493</v>
+      </c>
+      <c r="G776" s="11" t="s">
         <v>494</v>
-      </c>
-      <c r="G776" s="11" t="s">
-        <v>495</v>
       </c>
     </row>
     <row r="779" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A779" s="11" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="B779" s="11" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C779" s="5" t="s">
         <v>46</v>
       </c>
       <c r="D779" s="15" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="F779" s="11" t="s">
         <v>41</v>
@@ -11104,40 +11131,40 @@
     </row>
     <row r="780" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="F780" s="15" t="s">
+        <v>233</v>
+      </c>
+      <c r="G780" s="15" t="s">
         <v>234</v>
-      </c>
-      <c r="G780" s="15" t="s">
-        <v>235</v>
       </c>
     </row>
     <row r="781" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="F781" s="15" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="G781" s="15" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
     </row>
     <row r="782" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="F782" s="11" t="s">
+        <v>504</v>
+      </c>
+      <c r="G782" s="11" t="s">
         <v>505</v>
-      </c>
-      <c r="G782" s="11" t="s">
-        <v>506</v>
       </c>
     </row>
     <row r="784" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A784" s="11" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="B784" s="11" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C784" s="5" t="s">
         <v>46</v>
       </c>
       <c r="D784" s="15" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="F784" s="11" t="s">
         <v>41</v>
@@ -11145,26 +11172,26 @@
     </row>
     <row r="785" spans="6:7" ht="30" x14ac:dyDescent="0.25">
       <c r="F785" s="15" t="s">
+        <v>233</v>
+      </c>
+      <c r="G785" s="15" t="s">
         <v>234</v>
-      </c>
-      <c r="G785" s="15" t="s">
-        <v>235</v>
       </c>
     </row>
     <row r="786" spans="6:7" ht="30" x14ac:dyDescent="0.25">
       <c r="F786" s="15" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="G786" s="15" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
     </row>
     <row r="787" spans="6:7" ht="60" x14ac:dyDescent="0.25">
       <c r="F787" s="11" t="s">
+        <v>504</v>
+      </c>
+      <c r="G787" s="11" t="s">
         <v>505</v>
-      </c>
-      <c r="G787" s="11" t="s">
-        <v>506</v>
       </c>
     </row>
   </sheetData>
@@ -11214,17 +11241,17 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>244</v>
+      </c>
+      <c r="B1" s="16" t="s">
         <v>245</v>
-      </c>
-      <c r="B1" s="16" t="s">
-        <v>246</v>
       </c>
       <c r="C1" s="16"/>
       <c r="D1" s="16" t="s">
+        <v>246</v>
+      </c>
+      <c r="E1" s="16" t="s">
         <v>247</v>
-      </c>
-      <c r="E1" s="16" t="s">
-        <v>248</v>
       </c>
       <c r="F1" s="16" t="s">
         <v>21</v>
@@ -11232,7 +11259,7 @@
     </row>
     <row r="2" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="B2" s="15" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C2" s="15"/>
     </row>
@@ -11241,10 +11268,10 @@
         <v>1</v>
       </c>
       <c r="D3" t="s">
+        <v>249</v>
+      </c>
+      <c r="E3" s="15" t="s">
         <v>250</v>
-      </c>
-      <c r="E3" s="15" t="s">
-        <v>251</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="75" x14ac:dyDescent="0.25">
@@ -11252,10 +11279,10 @@
         <v>2</v>
       </c>
       <c r="D4" s="15" t="s">
+        <v>251</v>
+      </c>
+      <c r="E4" s="15" t="s">
         <v>252</v>
-      </c>
-      <c r="E4" s="15" t="s">
-        <v>253</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="105" x14ac:dyDescent="0.25">
@@ -11263,10 +11290,10 @@
         <v>3</v>
       </c>
       <c r="D5" s="15" t="s">
+        <v>253</v>
+      </c>
+      <c r="E5" s="15" t="s">
         <v>254</v>
-      </c>
-      <c r="E5" s="15" t="s">
-        <v>255</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -11274,18 +11301,18 @@
         <v>4</v>
       </c>
       <c r="D6" s="15" t="s">
+        <v>255</v>
+      </c>
+      <c r="E6" s="15" t="s">
         <v>256</v>
-      </c>
-      <c r="E6" s="15" t="s">
-        <v>257</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B7" s="15" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C7" s="15"/>
     </row>
@@ -11294,10 +11321,10 @@
         <v>1</v>
       </c>
       <c r="D8" t="s">
+        <v>249</v>
+      </c>
+      <c r="E8" s="15" t="s">
         <v>250</v>
-      </c>
-      <c r="E8" s="15" t="s">
-        <v>251</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="75" x14ac:dyDescent="0.25">
@@ -11305,10 +11332,10 @@
         <v>2</v>
       </c>
       <c r="D9" s="15" t="s">
+        <v>251</v>
+      </c>
+      <c r="E9" s="15" t="s">
         <v>252</v>
-      </c>
-      <c r="E9" s="15" t="s">
-        <v>253</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="105" x14ac:dyDescent="0.25">
@@ -11316,10 +11343,10 @@
         <v>3</v>
       </c>
       <c r="D10" s="15" t="s">
+        <v>253</v>
+      </c>
+      <c r="E10" s="15" t="s">
         <v>254</v>
-      </c>
-      <c r="E10" s="15" t="s">
-        <v>255</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -11327,10 +11354,10 @@
         <v>4</v>
       </c>
       <c r="D11" s="15" t="s">
+        <v>255</v>
+      </c>
+      <c r="E11" s="15" t="s">
         <v>256</v>
-      </c>
-      <c r="E11" s="15" t="s">
-        <v>257</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="45" x14ac:dyDescent="0.25">
@@ -11338,30 +11365,30 @@
         <v>5</v>
       </c>
       <c r="D12" s="15" t="s">
+        <v>258</v>
+      </c>
+      <c r="E12" s="15" t="s">
         <v>259</v>
       </c>
-      <c r="E12" s="15" t="s">
+      <c r="F12" t="s">
         <v>260</v>
-      </c>
-      <c r="F12" t="s">
-        <v>261</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
+        <v>261</v>
+      </c>
+      <c r="B13" s="15" t="s">
         <v>262</v>
-      </c>
-      <c r="B13" s="15" t="s">
-        <v>263</v>
       </c>
       <c r="C13">
         <v>1</v>
       </c>
       <c r="D13" t="s">
+        <v>249</v>
+      </c>
+      <c r="E13" s="15" t="s">
         <v>250</v>
-      </c>
-      <c r="E13" s="15" t="s">
-        <v>251</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="75" x14ac:dyDescent="0.25">
@@ -11369,10 +11396,10 @@
         <v>2</v>
       </c>
       <c r="D14" s="15" t="s">
+        <v>251</v>
+      </c>
+      <c r="E14" s="15" t="s">
         <v>252</v>
-      </c>
-      <c r="E14" s="15" t="s">
-        <v>253</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="105" x14ac:dyDescent="0.25">
@@ -11380,10 +11407,10 @@
         <v>3</v>
       </c>
       <c r="D15" s="15" t="s">
+        <v>253</v>
+      </c>
+      <c r="E15" s="15" t="s">
         <v>254</v>
-      </c>
-      <c r="E15" s="15" t="s">
-        <v>255</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="45" x14ac:dyDescent="0.25">
@@ -11391,27 +11418,27 @@
         <v>4</v>
       </c>
       <c r="D16" s="15" t="s">
+        <v>263</v>
+      </c>
+      <c r="E16" s="15" t="s">
         <v>264</v>
-      </c>
-      <c r="E16" s="15" t="s">
-        <v>265</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
+        <v>265</v>
+      </c>
+      <c r="B17" s="15" t="s">
         <v>266</v>
-      </c>
-      <c r="B17" s="15" t="s">
-        <v>267</v>
       </c>
       <c r="C17">
         <v>1</v>
       </c>
       <c r="D17" t="s">
+        <v>249</v>
+      </c>
+      <c r="E17" s="15" t="s">
         <v>250</v>
-      </c>
-      <c r="E17" s="15" t="s">
-        <v>251</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="75" x14ac:dyDescent="0.25">
@@ -11419,10 +11446,10 @@
         <v>2</v>
       </c>
       <c r="D18" s="15" t="s">
+        <v>251</v>
+      </c>
+      <c r="E18" s="15" t="s">
         <v>252</v>
-      </c>
-      <c r="E18" s="15" t="s">
-        <v>253</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="105" x14ac:dyDescent="0.25">
@@ -11430,10 +11457,10 @@
         <v>3</v>
       </c>
       <c r="D19" s="15" t="s">
+        <v>253</v>
+      </c>
+      <c r="E19" s="15" t="s">
         <v>254</v>
-      </c>
-      <c r="E19" s="15" t="s">
-        <v>255</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="45" x14ac:dyDescent="0.25">
@@ -11441,10 +11468,10 @@
         <v>4</v>
       </c>
       <c r="D20" s="15" t="s">
+        <v>263</v>
+      </c>
+      <c r="E20" s="15" t="s">
         <v>264</v>
-      </c>
-      <c r="E20" s="15" t="s">
-        <v>265</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="60" x14ac:dyDescent="0.25">
@@ -11452,27 +11479,27 @@
         <v>5</v>
       </c>
       <c r="D21" s="15" t="s">
+        <v>267</v>
+      </c>
+      <c r="E21" s="15" t="s">
         <v>268</v>
-      </c>
-      <c r="E21" s="15" t="s">
-        <v>269</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
+        <v>269</v>
+      </c>
+      <c r="B22" s="15" t="s">
         <v>270</v>
-      </c>
-      <c r="B22" s="15" t="s">
-        <v>271</v>
       </c>
       <c r="C22">
         <v>1</v>
       </c>
       <c r="D22" t="s">
+        <v>249</v>
+      </c>
+      <c r="E22" s="15" t="s">
         <v>250</v>
-      </c>
-      <c r="E22" s="15" t="s">
-        <v>251</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="75" x14ac:dyDescent="0.25">
@@ -11480,10 +11507,10 @@
         <v>2</v>
       </c>
       <c r="D23" s="15" t="s">
+        <v>251</v>
+      </c>
+      <c r="E23" s="15" t="s">
         <v>252</v>
-      </c>
-      <c r="E23" s="15" t="s">
-        <v>253</v>
       </c>
     </row>
     <row r="24" spans="1:5" ht="105" x14ac:dyDescent="0.25">
@@ -11491,10 +11518,10 @@
         <v>3</v>
       </c>
       <c r="D24" s="15" t="s">
+        <v>253</v>
+      </c>
+      <c r="E24" s="15" t="s">
         <v>254</v>
-      </c>
-      <c r="E24" s="15" t="s">
-        <v>255</v>
       </c>
     </row>
     <row r="25" spans="1:5" ht="45" x14ac:dyDescent="0.25">
@@ -11502,27 +11529,27 @@
         <v>4</v>
       </c>
       <c r="D25" s="15" t="s">
+        <v>271</v>
+      </c>
+      <c r="E25" s="15" t="s">
         <v>272</v>
-      </c>
-      <c r="E25" s="15" t="s">
-        <v>273</v>
       </c>
     </row>
     <row r="26" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
+        <v>273</v>
+      </c>
+      <c r="B26" s="15" t="s">
         <v>274</v>
-      </c>
-      <c r="B26" s="15" t="s">
-        <v>275</v>
       </c>
       <c r="C26">
         <v>1</v>
       </c>
       <c r="D26" t="s">
+        <v>249</v>
+      </c>
+      <c r="E26" s="15" t="s">
         <v>250</v>
-      </c>
-      <c r="E26" s="15" t="s">
-        <v>251</v>
       </c>
     </row>
     <row r="27" spans="1:5" ht="75" x14ac:dyDescent="0.25">
@@ -11530,10 +11557,10 @@
         <v>2</v>
       </c>
       <c r="D27" s="15" t="s">
+        <v>251</v>
+      </c>
+      <c r="E27" s="15" t="s">
         <v>252</v>
-      </c>
-      <c r="E27" s="15" t="s">
-        <v>253</v>
       </c>
     </row>
     <row r="28" spans="1:5" ht="105" x14ac:dyDescent="0.25">
@@ -11541,10 +11568,10 @@
         <v>3</v>
       </c>
       <c r="D28" s="15" t="s">
+        <v>253</v>
+      </c>
+      <c r="E28" s="15" t="s">
         <v>254</v>
-      </c>
-      <c r="E28" s="15" t="s">
-        <v>255</v>
       </c>
     </row>
     <row r="29" spans="1:5" ht="45" x14ac:dyDescent="0.25">
@@ -11552,10 +11579,10 @@
         <v>4</v>
       </c>
       <c r="D29" s="15" t="s">
+        <v>271</v>
+      </c>
+      <c r="E29" s="15" t="s">
         <v>272</v>
-      </c>
-      <c r="E29" s="15" t="s">
-        <v>273</v>
       </c>
     </row>
     <row r="30" spans="1:5" ht="45" x14ac:dyDescent="0.25">
@@ -11563,10 +11590,10 @@
         <v>5</v>
       </c>
       <c r="D30" s="15" t="s">
+        <v>275</v>
+      </c>
+      <c r="E30" s="15" t="s">
         <v>276</v>
-      </c>
-      <c r="E30" s="15" t="s">
-        <v>277</v>
       </c>
     </row>
     <row r="31" spans="1:5" ht="45" x14ac:dyDescent="0.25">
@@ -11574,27 +11601,27 @@
         <v>6</v>
       </c>
       <c r="D31" s="15" t="s">
+        <v>277</v>
+      </c>
+      <c r="E31" s="15" t="s">
         <v>278</v>
-      </c>
-      <c r="E31" s="15" t="s">
-        <v>279</v>
       </c>
     </row>
     <row r="33" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
+        <v>279</v>
+      </c>
+      <c r="B33" s="15" t="s">
         <v>280</v>
-      </c>
-      <c r="B33" s="15" t="s">
-        <v>281</v>
       </c>
       <c r="C33">
         <v>1</v>
       </c>
       <c r="D33" t="s">
+        <v>249</v>
+      </c>
+      <c r="E33" s="15" t="s">
         <v>250</v>
-      </c>
-      <c r="E33" s="15" t="s">
-        <v>251</v>
       </c>
     </row>
     <row r="34" spans="1:5" ht="75" x14ac:dyDescent="0.25">
@@ -11602,10 +11629,10 @@
         <v>2</v>
       </c>
       <c r="D34" s="15" t="s">
+        <v>251</v>
+      </c>
+      <c r="E34" s="15" t="s">
         <v>252</v>
-      </c>
-      <c r="E34" s="15" t="s">
-        <v>253</v>
       </c>
     </row>
     <row r="35" spans="1:5" ht="105" x14ac:dyDescent="0.25">
@@ -11613,10 +11640,10 @@
         <v>3</v>
       </c>
       <c r="D35" s="15" t="s">
+        <v>253</v>
+      </c>
+      <c r="E35" s="15" t="s">
         <v>254</v>
-      </c>
-      <c r="E35" s="15" t="s">
-        <v>255</v>
       </c>
     </row>
     <row r="36" spans="1:5" ht="45" x14ac:dyDescent="0.25">
@@ -11624,27 +11651,27 @@
         <v>4</v>
       </c>
       <c r="D36" s="15" t="s">
+        <v>281</v>
+      </c>
+      <c r="E36" s="15" t="s">
         <v>282</v>
-      </c>
-      <c r="E36" s="15" t="s">
-        <v>283</v>
       </c>
     </row>
     <row r="37" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
+        <v>283</v>
+      </c>
+      <c r="B37" s="15" t="s">
         <v>284</v>
-      </c>
-      <c r="B37" s="15" t="s">
-        <v>285</v>
       </c>
       <c r="C37">
         <v>1</v>
       </c>
       <c r="D37" t="s">
+        <v>249</v>
+      </c>
+      <c r="E37" s="15" t="s">
         <v>250</v>
-      </c>
-      <c r="E37" s="15" t="s">
-        <v>251</v>
       </c>
     </row>
     <row r="38" spans="1:5" ht="75" x14ac:dyDescent="0.25">
@@ -11652,10 +11679,10 @@
         <v>2</v>
       </c>
       <c r="D38" s="15" t="s">
+        <v>251</v>
+      </c>
+      <c r="E38" s="15" t="s">
         <v>252</v>
-      </c>
-      <c r="E38" s="15" t="s">
-        <v>253</v>
       </c>
     </row>
     <row r="39" spans="1:5" ht="105" x14ac:dyDescent="0.25">
@@ -11663,10 +11690,10 @@
         <v>3</v>
       </c>
       <c r="D39" s="15" t="s">
+        <v>253</v>
+      </c>
+      <c r="E39" s="15" t="s">
         <v>254</v>
-      </c>
-      <c r="E39" s="15" t="s">
-        <v>255</v>
       </c>
     </row>
     <row r="40" spans="1:5" ht="45" x14ac:dyDescent="0.25">
@@ -11674,10 +11701,10 @@
         <v>4</v>
       </c>
       <c r="D40" s="15" t="s">
+        <v>281</v>
+      </c>
+      <c r="E40" s="15" t="s">
         <v>282</v>
-      </c>
-      <c r="E40" s="15" t="s">
-        <v>283</v>
       </c>
     </row>
     <row r="41" spans="1:5" ht="45" x14ac:dyDescent="0.25">
@@ -11685,27 +11712,27 @@
         <v>5</v>
       </c>
       <c r="D41" s="15" t="s">
+        <v>285</v>
+      </c>
+      <c r="E41" s="15" t="s">
         <v>286</v>
-      </c>
-      <c r="E41" s="15" t="s">
-        <v>287</v>
       </c>
     </row>
     <row r="43" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
+        <v>287</v>
+      </c>
+      <c r="B43" s="15" t="s">
         <v>288</v>
-      </c>
-      <c r="B43" s="15" t="s">
-        <v>289</v>
       </c>
       <c r="C43">
         <v>1</v>
       </c>
       <c r="D43" t="s">
+        <v>249</v>
+      </c>
+      <c r="E43" s="15" t="s">
         <v>250</v>
-      </c>
-      <c r="E43" s="15" t="s">
-        <v>251</v>
       </c>
     </row>
     <row r="44" spans="1:5" ht="75" x14ac:dyDescent="0.25">
@@ -11713,10 +11740,10 @@
         <v>2</v>
       </c>
       <c r="D44" s="15" t="s">
+        <v>251</v>
+      </c>
+      <c r="E44" s="15" t="s">
         <v>252</v>
-      </c>
-      <c r="E44" s="15" t="s">
-        <v>253</v>
       </c>
     </row>
     <row r="45" spans="1:5" ht="105" x14ac:dyDescent="0.25">
@@ -11724,10 +11751,10 @@
         <v>3</v>
       </c>
       <c r="D45" s="15" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="E45" s="15" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="46" spans="1:5" ht="45" x14ac:dyDescent="0.25">
@@ -11735,10 +11762,10 @@
         <v>4</v>
       </c>
       <c r="D46" s="15" t="s">
+        <v>290</v>
+      </c>
+      <c r="E46" s="15" t="s">
         <v>291</v>
-      </c>
-      <c r="E46" s="15" t="s">
-        <v>292</v>
       </c>
     </row>
     <row r="47" spans="1:5" ht="180" x14ac:dyDescent="0.25">
@@ -11746,27 +11773,27 @@
         <v>5</v>
       </c>
       <c r="D47" s="15" t="s">
+        <v>292</v>
+      </c>
+      <c r="E47" s="15" t="s">
         <v>293</v>
-      </c>
-      <c r="E47" s="15" t="s">
-        <v>294</v>
       </c>
     </row>
     <row r="48" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
+        <v>294</v>
+      </c>
+      <c r="B48" s="15" t="s">
         <v>295</v>
-      </c>
-      <c r="B48" s="15" t="s">
-        <v>296</v>
       </c>
       <c r="C48">
         <v>1</v>
       </c>
       <c r="D48" t="s">
+        <v>249</v>
+      </c>
+      <c r="E48" s="15" t="s">
         <v>250</v>
-      </c>
-      <c r="E48" s="15" t="s">
-        <v>251</v>
       </c>
     </row>
     <row r="49" spans="1:5" ht="75" x14ac:dyDescent="0.25">
@@ -11774,10 +11801,10 @@
         <v>2</v>
       </c>
       <c r="D49" s="15" t="s">
+        <v>251</v>
+      </c>
+      <c r="E49" s="15" t="s">
         <v>252</v>
-      </c>
-      <c r="E49" s="15" t="s">
-        <v>253</v>
       </c>
     </row>
     <row r="50" spans="1:5" ht="105" x14ac:dyDescent="0.25">
@@ -11785,10 +11812,10 @@
         <v>3</v>
       </c>
       <c r="D50" s="15" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="E50" s="15" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="51" spans="1:5" ht="45" x14ac:dyDescent="0.25">
@@ -11796,10 +11823,10 @@
         <v>4</v>
       </c>
       <c r="D51" s="15" t="s">
+        <v>290</v>
+      </c>
+      <c r="E51" s="15" t="s">
         <v>291</v>
-      </c>
-      <c r="E51" s="15" t="s">
-        <v>292</v>
       </c>
     </row>
     <row r="52" spans="1:5" ht="180" x14ac:dyDescent="0.25">
@@ -11807,10 +11834,10 @@
         <v>5</v>
       </c>
       <c r="D52" s="15" t="s">
+        <v>292</v>
+      </c>
+      <c r="E52" s="15" t="s">
         <v>293</v>
-      </c>
-      <c r="E52" s="15" t="s">
-        <v>294</v>
       </c>
     </row>
     <row r="53" spans="1:5" ht="60" x14ac:dyDescent="0.25">
@@ -11818,24 +11845,24 @@
         <v>6</v>
       </c>
       <c r="D53" s="15" t="s">
+        <v>296</v>
+      </c>
+      <c r="E53" s="15" t="s">
         <v>297</v>
-      </c>
-      <c r="E53" s="15" t="s">
-        <v>298</v>
       </c>
     </row>
     <row r="54" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B54" s="15" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C54">
         <v>1</v>
       </c>
       <c r="D54" s="15" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="E54" s="15"/>
     </row>
@@ -11844,10 +11871,10 @@
         <v>2</v>
       </c>
       <c r="D55" s="15" t="s">
+        <v>300</v>
+      </c>
+      <c r="E55" s="15" t="s">
         <v>301</v>
-      </c>
-      <c r="E55" s="15" t="s">
-        <v>302</v>
       </c>
     </row>
     <row r="56" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -11855,24 +11882,24 @@
         <v>3</v>
       </c>
       <c r="D56" s="15" t="s">
+        <v>302</v>
+      </c>
+      <c r="E56" s="15" t="s">
         <v>303</v>
-      </c>
-      <c r="E56" s="15" t="s">
-        <v>304</v>
       </c>
     </row>
     <row r="57" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B57" s="15" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="C57">
         <v>1</v>
       </c>
       <c r="D57" s="15" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="E57" s="15"/>
     </row>
@@ -11881,10 +11908,10 @@
         <v>2</v>
       </c>
       <c r="D58" s="15" t="s">
+        <v>300</v>
+      </c>
+      <c r="E58" s="15" t="s">
         <v>301</v>
-      </c>
-      <c r="E58" s="15" t="s">
-        <v>302</v>
       </c>
     </row>
     <row r="59" spans="1:5" ht="60" x14ac:dyDescent="0.25">
@@ -11892,75 +11919,75 @@
         <v>3</v>
       </c>
       <c r="D59" s="15" t="s">
+        <v>305</v>
+      </c>
+      <c r="E59" s="15" t="s">
         <v>306</v>
-      </c>
-      <c r="E59" s="15" t="s">
-        <v>307</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C60" s="17" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="61" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B61" s="15" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D61" s="15" t="s">
+        <v>233</v>
+      </c>
+      <c r="E61" s="15" t="s">
         <v>234</v>
-      </c>
-      <c r="E61" s="15" t="s">
-        <v>235</v>
       </c>
     </row>
     <row r="62" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="D62" s="15" t="s">
+        <v>225</v>
+      </c>
+      <c r="E62" s="15" t="s">
         <v>226</v>
-      </c>
-      <c r="E62" s="15" t="s">
-        <v>227</v>
       </c>
     </row>
     <row r="63" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="D63" s="15" t="s">
+        <v>227</v>
+      </c>
+      <c r="E63" s="15" t="s">
         <v>228</v>
-      </c>
-      <c r="E63" s="15" t="s">
-        <v>229</v>
       </c>
     </row>
     <row r="65" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B65" s="15" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D65" s="15" t="s">
+        <v>233</v>
+      </c>
+      <c r="E65" s="15" t="s">
         <v>234</v>
-      </c>
-      <c r="E65" s="15" t="s">
-        <v>235</v>
       </c>
     </row>
     <row r="66" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="D66" s="15" t="s">
+        <v>225</v>
+      </c>
+      <c r="E66" s="15" t="s">
         <v>226</v>
-      </c>
-      <c r="E66" s="15" t="s">
-        <v>227</v>
       </c>
     </row>
     <row r="67" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="D67" s="15" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="E67" s="15" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="69" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -11968,37 +11995,37 @@
         <v>2</v>
       </c>
       <c r="B69" s="15" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="D69" s="15" t="s">
+        <v>233</v>
+      </c>
+      <c r="E69" s="15" t="s">
         <v>234</v>
-      </c>
-      <c r="E69" s="15" t="s">
-        <v>235</v>
       </c>
     </row>
     <row r="70" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="D70" s="15" t="s">
+        <v>225</v>
+      </c>
+      <c r="E70" s="15" t="s">
         <v>226</v>
-      </c>
-      <c r="E70" s="15" t="s">
-        <v>227</v>
       </c>
     </row>
     <row r="71" spans="1:5" ht="165" x14ac:dyDescent="0.25">
       <c r="D71" s="15" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="E71" s="15" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="72" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="D72" s="15" t="s">
+        <v>312</v>
+      </c>
+      <c r="E72" s="15" t="s">
         <v>313</v>
-      </c>
-      <c r="E72" s="15" t="s">
-        <v>314</v>
       </c>
     </row>
     <row r="73" spans="1:5" ht="45" x14ac:dyDescent="0.25">
@@ -12006,45 +12033,45 @@
         <v>3</v>
       </c>
       <c r="B73" s="15" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D73" s="15" t="s">
+        <v>233</v>
+      </c>
+      <c r="E73" s="15" t="s">
         <v>234</v>
-      </c>
-      <c r="E73" s="15" t="s">
-        <v>235</v>
       </c>
     </row>
     <row r="74" spans="1:5" ht="75" x14ac:dyDescent="0.25">
       <c r="D74" s="15" t="s">
+        <v>235</v>
+      </c>
+      <c r="E74" s="15" t="s">
         <v>236</v>
-      </c>
-      <c r="E74" s="15" t="s">
-        <v>237</v>
       </c>
     </row>
     <row r="75" spans="1:5" ht="210" x14ac:dyDescent="0.25">
       <c r="D75" s="15" t="s">
+        <v>237</v>
+      </c>
+      <c r="E75" s="15" t="s">
         <v>238</v>
-      </c>
-      <c r="E75" s="15" t="s">
-        <v>239</v>
       </c>
     </row>
     <row r="76" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="D76" s="15" t="s">
+        <v>239</v>
+      </c>
+      <c r="E76" s="15" t="s">
         <v>240</v>
-      </c>
-      <c r="E76" s="15" t="s">
-        <v>241</v>
       </c>
     </row>
     <row r="77" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="D77" s="15" t="s">
+        <v>241</v>
+      </c>
+      <c r="E77" s="15" t="s">
         <v>242</v>
-      </c>
-      <c r="E77" s="15" t="s">
-        <v>243</v>
       </c>
     </row>
     <row r="79" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -12052,37 +12079,37 @@
         <v>4</v>
       </c>
       <c r="B79" s="15" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="D79" s="15" t="s">
+        <v>233</v>
+      </c>
+      <c r="E79" s="15" t="s">
         <v>234</v>
-      </c>
-      <c r="E79" s="15" t="s">
-        <v>235</v>
       </c>
     </row>
     <row r="80" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="D80" s="15" t="s">
+        <v>315</v>
+      </c>
+      <c r="E80" s="15" t="s">
         <v>316</v>
-      </c>
-      <c r="E80" s="15" t="s">
-        <v>317</v>
       </c>
     </row>
     <row r="81" spans="1:5" ht="240" x14ac:dyDescent="0.25">
       <c r="D81" s="15" t="s">
+        <v>317</v>
+      </c>
+      <c r="E81" s="15" t="s">
         <v>318</v>
-      </c>
-      <c r="E81" s="15" t="s">
-        <v>319</v>
       </c>
     </row>
     <row r="82" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="D82" s="15" t="s">
+        <v>319</v>
+      </c>
+      <c r="E82" s="15" t="s">
         <v>320</v>
-      </c>
-      <c r="E82" s="15" t="s">
-        <v>321</v>
       </c>
     </row>
     <row r="83" spans="1:5" ht="60" x14ac:dyDescent="0.25">
@@ -12090,37 +12117,37 @@
         <v>5</v>
       </c>
       <c r="B83" s="15" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="D83" s="15" t="s">
+        <v>233</v>
+      </c>
+      <c r="E83" s="15" t="s">
         <v>234</v>
-      </c>
-      <c r="E83" s="15" t="s">
-        <v>235</v>
       </c>
     </row>
     <row r="84" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="D84" s="15" t="s">
+        <v>315</v>
+      </c>
+      <c r="E84" s="15" t="s">
         <v>316</v>
-      </c>
-      <c r="E84" s="15" t="s">
-        <v>317</v>
       </c>
     </row>
     <row r="85" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="D85" s="15" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="E85" s="15" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="86" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="D86" s="15" t="s">
+        <v>323</v>
+      </c>
+      <c r="E86" s="15" t="s">
         <v>324</v>
-      </c>
-      <c r="E86" s="15" t="s">
-        <v>325</v>
       </c>
     </row>
     <row r="88" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -12128,37 +12155,37 @@
         <v>6</v>
       </c>
       <c r="B88" s="15" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="D88" s="15" t="s">
+        <v>233</v>
+      </c>
+      <c r="E88" s="15" t="s">
         <v>234</v>
-      </c>
-      <c r="E88" s="15" t="s">
-        <v>235</v>
       </c>
     </row>
     <row r="89" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="D89" s="15" t="s">
+        <v>315</v>
+      </c>
+      <c r="E89" s="15" t="s">
         <v>316</v>
-      </c>
-      <c r="E89" s="15" t="s">
-        <v>317</v>
       </c>
     </row>
     <row r="90" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="D90" s="15" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="E90" s="15" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="91" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="D91" s="15" t="s">
+        <v>326</v>
+      </c>
+      <c r="E91" s="15" t="s">
         <v>327</v>
-      </c>
-      <c r="E91" s="15" t="s">
-        <v>328</v>
       </c>
     </row>
     <row r="93" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -12166,37 +12193,37 @@
         <v>7</v>
       </c>
       <c r="B93" s="15" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="D93" s="15" t="s">
+        <v>233</v>
+      </c>
+      <c r="E93" s="15" t="s">
         <v>234</v>
-      </c>
-      <c r="E93" s="15" t="s">
-        <v>235</v>
       </c>
     </row>
     <row r="94" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="D94" s="15" t="s">
+        <v>315</v>
+      </c>
+      <c r="E94" s="15" t="s">
         <v>316</v>
-      </c>
-      <c r="E94" s="15" t="s">
-        <v>317</v>
       </c>
     </row>
     <row r="95" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="D95" s="15" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="E95" s="15" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="96" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="D96" s="15" t="s">
+        <v>330</v>
+      </c>
+      <c r="E96" s="15" t="s">
         <v>331</v>
-      </c>
-      <c r="E96" s="15" t="s">
-        <v>332</v>
       </c>
     </row>
     <row r="98" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -12204,29 +12231,29 @@
         <v>8.8888888888888797E+104</v>
       </c>
       <c r="B98" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="D98" s="15" t="s">
+        <v>233</v>
+      </c>
+      <c r="E98" s="15" t="s">
         <v>234</v>
-      </c>
-      <c r="E98" s="15" t="s">
-        <v>235</v>
       </c>
     </row>
     <row r="99" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="D99" s="15" t="s">
+        <v>333</v>
+      </c>
+      <c r="E99" s="15" t="s">
         <v>334</v>
-      </c>
-      <c r="E99" s="15" t="s">
-        <v>335</v>
       </c>
     </row>
     <row r="100" spans="1:5" ht="225" x14ac:dyDescent="0.25">
       <c r="D100" s="15" t="s">
+        <v>335</v>
+      </c>
+      <c r="E100" s="15" t="s">
         <v>336</v>
-      </c>
-      <c r="E100" s="15" t="s">
-        <v>337</v>
       </c>
     </row>
     <row r="102" spans="1:5" ht="45" x14ac:dyDescent="0.25">
@@ -12234,37 +12261,37 @@
         <v>9</v>
       </c>
       <c r="B102" s="15" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="D102" s="15" t="s">
+        <v>233</v>
+      </c>
+      <c r="E102" s="15" t="s">
         <v>234</v>
-      </c>
-      <c r="E102" s="15" t="s">
-        <v>235</v>
       </c>
     </row>
     <row r="103" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="D103" s="15" t="s">
+        <v>338</v>
+      </c>
+      <c r="E103" s="15" t="s">
         <v>339</v>
-      </c>
-      <c r="E103" s="15" t="s">
-        <v>340</v>
       </c>
     </row>
     <row r="104" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="D104" s="15" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="E104" s="15" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="105" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="D105" s="15" t="s">
+        <v>323</v>
+      </c>
+      <c r="E105" s="15" t="s">
         <v>324</v>
-      </c>
-      <c r="E105" s="15" t="s">
-        <v>325</v>
       </c>
     </row>
     <row r="108" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -12272,37 +12299,37 @@
         <v>10</v>
       </c>
       <c r="B108" s="15" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="D108" s="15" t="s">
+        <v>233</v>
+      </c>
+      <c r="E108" s="15" t="s">
         <v>234</v>
-      </c>
-      <c r="E108" s="15" t="s">
-        <v>235</v>
       </c>
     </row>
     <row r="109" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="D109" s="15" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="E109" s="15" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="110" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="D110" s="15" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="E110" s="15" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="111" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="D111" s="15" t="s">
+        <v>330</v>
+      </c>
+      <c r="E111" s="15" t="s">
         <v>331</v>
-      </c>
-      <c r="E111" s="15" t="s">
-        <v>332</v>
       </c>
     </row>
     <row r="112" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -12310,37 +12337,37 @@
         <v>11</v>
       </c>
       <c r="B112" s="15" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="D112" s="15" t="s">
+        <v>233</v>
+      </c>
+      <c r="E112" s="15" t="s">
         <v>234</v>
-      </c>
-      <c r="E112" s="15" t="s">
-        <v>235</v>
       </c>
     </row>
     <row r="113" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="D113" s="15" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="E113" s="15" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="114" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="D114" s="15" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="E114" s="15" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="115" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="D115" s="15" t="s">
+        <v>326</v>
+      </c>
+      <c r="E115" s="15" t="s">
         <v>327</v>
-      </c>
-      <c r="E115" s="15" t="s">
-        <v>328</v>
       </c>
     </row>
     <row r="118" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -12348,29 +12375,29 @@
         <v>12</v>
       </c>
       <c r="B118" s="15" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="D118" s="15" t="s">
+        <v>233</v>
+      </c>
+      <c r="E118" s="15" t="s">
         <v>234</v>
-      </c>
-      <c r="E118" s="15" t="s">
-        <v>235</v>
       </c>
     </row>
     <row r="119" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="D119" s="15" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="E119" s="15" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="120" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="D120" s="15" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="E120" s="15" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="121" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -12378,29 +12405,29 @@
         <v>13</v>
       </c>
       <c r="B121" s="15" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="D121" s="15" t="s">
+        <v>233</v>
+      </c>
+      <c r="E121" s="15" t="s">
         <v>234</v>
-      </c>
-      <c r="E121" s="15" t="s">
-        <v>235</v>
       </c>
     </row>
     <row r="122" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="D122" s="15" t="s">
+        <v>347</v>
+      </c>
+      <c r="E122" s="15" t="s">
         <v>348</v>
-      </c>
-      <c r="E122" s="15" t="s">
-        <v>349</v>
       </c>
     </row>
     <row r="123" spans="1:5" ht="150" x14ac:dyDescent="0.25">
       <c r="D123" s="15" t="s">
+        <v>349</v>
+      </c>
+      <c r="E123" s="15" t="s">
         <v>350</v>
-      </c>
-      <c r="E123" s="15" t="s">
-        <v>351</v>
       </c>
     </row>
     <row r="126" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -12408,44 +12435,44 @@
         <v>13</v>
       </c>
       <c r="B126" s="15" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="D126" s="15" t="s">
+        <v>233</v>
+      </c>
+      <c r="E126" s="15" t="s">
         <v>234</v>
-      </c>
-      <c r="E126" s="15" t="s">
-        <v>235</v>
       </c>
     </row>
     <row r="127" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="D127" s="15" t="s">
+        <v>352</v>
+      </c>
+      <c r="E127" s="15" t="s">
         <v>353</v>
-      </c>
-      <c r="E127" s="15" t="s">
-        <v>354</v>
       </c>
     </row>
     <row r="128" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="D128" s="15" t="s">
+        <v>354</v>
+      </c>
+      <c r="E128" s="15" t="s">
         <v>355</v>
-      </c>
-      <c r="E128" s="15" t="s">
-        <v>356</v>
       </c>
     </row>
     <row r="131" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
     </row>
     <row r="134" spans="1:1" ht="45" x14ac:dyDescent="0.25">
       <c r="A134" s="15" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
     </row>
     <row r="136" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
     </row>
   </sheetData>
@@ -12468,107 +12495,107 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" s="17" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" s="17" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
     </row>
   </sheetData>
